--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Potier.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Potier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2123991-AB3E-4487-9CED-04211C097A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD904050-1F79-48F4-9C0F-F185C468D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5620,10 +5620,6 @@
 effects of fishing. Although the heavily trawled areas had higher diversity than the less heavily fished areas, this was associated with the absence of K-selected species such as crinoids and dom_x0002_inance by r-selected scavenging biota. "</t>
   </si>
   <si>
-    <t>biodiversity indices  (Margalef’s index of species richness _ Shannon-Wiener index _ Pielou’s
-index of evenness)</t>
-  </si>
-  <si>
     <t>Does not quantify the impact of fishing -&gt; only compare visually catch rates and mapping of fishing effort.</t>
   </si>
   <si>
@@ -6389,6 +6385,9 @@
   </si>
   <si>
     <t>"For none of the species, survival at 14-days after stimulation was negatively affected."</t>
+  </si>
+  <si>
+    <t>Margalef’s index of species richness _ Shannon-Wiener index _ Pielou’s index of evenness</t>
   </si>
 </sst>
 </file>
@@ -6877,8 +6876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="106" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="AU101" sqref="AU101"/>
+    <sheetView tabSelected="1" topLeftCell="AJ2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU134" sqref="AU134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7410,13 +7409,13 @@
         <v>150</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AM6" t="s">
         <v>234</v>
       </c>
       <c r="AO6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -7440,7 +7439,7 @@
         <v>209</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7542,13 +7541,13 @@
         <v>150</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AM7" t="s">
         <v>234</v>
       </c>
       <c r="AO7" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -7572,7 +7571,7 @@
         <v>210</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7677,13 +7676,13 @@
         <v>150</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AM8" t="s">
         <v>234</v>
       </c>
       <c r="AO8" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -7707,7 +7706,7 @@
         <v>210</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -7809,13 +7808,13 @@
         <v>150</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AM9" t="s">
         <v>234</v>
       </c>
       <c r="AO9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -7839,7 +7838,7 @@
         <v>210</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
@@ -8064,7 +8063,7 @@
         <v>120</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
@@ -8198,7 +8197,7 @@
         <v>118</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -8335,7 +8334,7 @@
         <v>130</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AM14" t="s">
         <v>232</v>
@@ -8469,7 +8468,7 @@
         <v>120</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AM15" t="s">
         <v>232</v>
@@ -8603,7 +8602,7 @@
         <v>118</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AM16" t="s">
         <v>232</v>
@@ -8740,7 +8739,7 @@
         <v>130</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AM17" t="s">
         <v>232</v>
@@ -8874,7 +8873,7 @@
         <v>120</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AM18" t="s">
         <v>232</v>
@@ -9008,7 +9007,7 @@
         <v>118</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AM19" t="s">
         <v>232</v>
@@ -9145,7 +9144,7 @@
         <v>130</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AM20" t="s">
         <v>232</v>
@@ -9279,7 +9278,7 @@
         <v>120</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AM21" t="s">
         <v>232</v>
@@ -9413,7 +9412,7 @@
         <v>118</v>
       </c>
       <c r="AL22" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AM22" t="s">
         <v>232</v>
@@ -9550,7 +9549,7 @@
         <v>130</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AM23" t="s">
         <v>232</v>
@@ -9684,7 +9683,7 @@
         <v>120</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AM24" t="s">
         <v>232</v>
@@ -9818,7 +9817,7 @@
         <v>118</v>
       </c>
       <c r="AL25" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AM25" t="s">
         <v>232</v>
@@ -9955,7 +9954,7 @@
         <v>130</v>
       </c>
       <c r="AL26" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AM26" t="s">
         <v>232</v>
@@ -10089,7 +10088,7 @@
         <v>120</v>
       </c>
       <c r="AL27" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AM27" t="s">
         <v>232</v>
@@ -10223,7 +10222,7 @@
         <v>118</v>
       </c>
       <c r="AL28" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AM28" t="s">
         <v>232</v>
@@ -10360,7 +10359,7 @@
         <v>130</v>
       </c>
       <c r="AL29" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AM29" t="s">
         <v>232</v>
@@ -10494,7 +10493,7 @@
         <v>120</v>
       </c>
       <c r="AL30" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AM30" t="s">
         <v>232</v>
@@ -10628,7 +10627,7 @@
         <v>118</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
@@ -10765,7 +10764,7 @@
         <v>130</v>
       </c>
       <c r="AL32" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AM32" t="s">
         <v>232</v>
@@ -10899,7 +10898,7 @@
         <v>120</v>
       </c>
       <c r="AL33" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AM33" t="s">
         <v>232</v>
@@ -11033,7 +11032,7 @@
         <v>118</v>
       </c>
       <c r="AL34" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AM34" t="s">
         <v>232</v>
@@ -11170,7 +11169,7 @@
         <v>130</v>
       </c>
       <c r="AL35" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -11518,7 +11517,7 @@
       </c>
       <c r="AX38" s="4"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>317</v>
       </c>
@@ -11638,7 +11637,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>317</v>
       </c>
@@ -12286,7 +12285,7 @@
         <v>147</v>
       </c>
       <c r="AL46" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AM46" t="s">
         <v>232</v>
@@ -12546,7 +12545,7 @@
         <v>120</v>
       </c>
       <c r="AL48" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="AM48" t="s">
         <v>232</v>
@@ -16100,7 +16099,7 @@
         <v>124</v>
       </c>
       <c r="AL77" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM77" t="s">
         <v>232</v>
@@ -16225,7 +16224,7 @@
         <v>124</v>
       </c>
       <c r="AL78" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM78" t="s">
         <v>232</v>
@@ -16350,7 +16349,7 @@
         <v>124</v>
       </c>
       <c r="AL79" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM79" t="s">
         <v>232</v>
@@ -16475,7 +16474,7 @@
         <v>124</v>
       </c>
       <c r="AL80" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM80" t="s">
         <v>232</v>
@@ -16600,7 +16599,7 @@
         <v>124</v>
       </c>
       <c r="AL81" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM81" t="s">
         <v>232</v>
@@ -16725,7 +16724,7 @@
         <v>124</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM82" t="s">
         <v>232</v>
@@ -16850,7 +16849,7 @@
         <v>124</v>
       </c>
       <c r="AL83" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM83" t="s">
         <v>232</v>
@@ -16975,7 +16974,7 @@
         <v>124</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM84" t="s">
         <v>232</v>
@@ -17100,7 +17099,7 @@
         <v>124</v>
       </c>
       <c r="AL85" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM85" t="s">
         <v>232</v>
@@ -17225,7 +17224,7 @@
         <v>124</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM86" t="s">
         <v>232</v>
@@ -17350,7 +17349,7 @@
         <v>124</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM87" t="s">
         <v>232</v>
@@ -17475,7 +17474,7 @@
         <v>124</v>
       </c>
       <c r="AL88" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM88" t="s">
         <v>232</v>
@@ -17600,7 +17599,7 @@
         <v>124</v>
       </c>
       <c r="AL89" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM89" t="s">
         <v>232</v>
@@ -17725,7 +17724,7 @@
         <v>124</v>
       </c>
       <c r="AL90" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM90" t="s">
         <v>232</v>
@@ -17850,7 +17849,7 @@
         <v>124</v>
       </c>
       <c r="AL91" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM91" t="s">
         <v>232</v>
@@ -17975,7 +17974,7 @@
         <v>124</v>
       </c>
       <c r="AL92" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM92" t="s">
         <v>232</v>
@@ -18100,7 +18099,7 @@
         <v>124</v>
       </c>
       <c r="AL93" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM93" t="s">
         <v>232</v>
@@ -18225,7 +18224,7 @@
         <v>124</v>
       </c>
       <c r="AL94" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM94" t="s">
         <v>232</v>
@@ -18350,7 +18349,7 @@
         <v>124</v>
       </c>
       <c r="AL95" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM95" t="s">
         <v>232</v>
@@ -18475,7 +18474,7 @@
         <v>124</v>
       </c>
       <c r="AL96" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM96" t="s">
         <v>232</v>
@@ -18600,7 +18599,7 @@
         <v>124</v>
       </c>
       <c r="AL97" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM97" t="s">
         <v>232</v>
@@ -18725,7 +18724,7 @@
         <v>124</v>
       </c>
       <c r="AL98" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM98" t="s">
         <v>232</v>
@@ -18850,7 +18849,7 @@
         <v>124</v>
       </c>
       <c r="AL99" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AM99" t="s">
         <v>232</v>
@@ -18975,7 +18974,7 @@
         <v>124</v>
       </c>
       <c r="AL100" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AM100" t="s">
         <v>232</v>
@@ -19103,7 +19102,7 @@
         <v>144</v>
       </c>
       <c r="AL101" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AM101" t="s">
         <v>234</v>
@@ -19228,7 +19227,7 @@
         <v>144</v>
       </c>
       <c r="AL102" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AM102" t="s">
         <v>234</v>
@@ -19353,7 +19352,7 @@
         <v>144</v>
       </c>
       <c r="AL103" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AM103" t="s">
         <v>234</v>
@@ -21384,7 +21383,7 @@
         <v>155</v>
       </c>
       <c r="AL123" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AM123" t="s">
         <v>232</v>
@@ -21524,7 +21523,7 @@
         <v>155</v>
       </c>
       <c r="AL124" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="AM124" t="s">
         <v>232</v>
@@ -21664,7 +21663,7 @@
         <v>155</v>
       </c>
       <c r="AL125" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AM125" t="s">
         <v>232</v>
@@ -21801,7 +21800,7 @@
         <v>155</v>
       </c>
       <c r="AL126" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="AM126" t="s">
         <v>232</v>
@@ -21929,7 +21928,7 @@
         <v>118</v>
       </c>
       <c r="AL127" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AM127" t="s">
         <v>233</v>
@@ -22057,7 +22056,7 @@
         <v>144</v>
       </c>
       <c r="AL128" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AM128" t="s">
         <v>232</v>
@@ -22185,7 +22184,7 @@
         <v>144</v>
       </c>
       <c r="AL129" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AM129" t="s">
         <v>232</v>
@@ -22316,7 +22315,7 @@
         <v>144</v>
       </c>
       <c r="AL130" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AM130" t="s">
         <v>232</v>
@@ -22702,8 +22701,8 @@
       <c r="AQ133" t="s">
         <v>150</v>
       </c>
-      <c r="AU133" s="4" t="s">
-        <v>1086</v>
+      <c r="AU133" s="12" t="s">
+        <v>1329</v>
       </c>
       <c r="AV133" t="s">
         <v>205</v>
@@ -22827,8 +22826,8 @@
       <c r="AQ134" t="s">
         <v>150</v>
       </c>
-      <c r="AU134" s="4" t="s">
-        <v>1086</v>
+      <c r="AU134" s="12" t="s">
+        <v>1329</v>
       </c>
       <c r="AV134" t="s">
         <v>205</v>
@@ -22896,7 +22895,7 @@
         <v>84</v>
       </c>
       <c r="AE135" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AF135" s="21" t="s">
         <v>904</v>
@@ -22973,7 +22972,7 @@
         <v>215</v>
       </c>
       <c r="Z136" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA136">
         <v>2</v>
@@ -22985,7 +22984,7 @@
         <v>3</v>
       </c>
       <c r="AD136" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AF136" s="11" t="s">
         <v>899</v>
@@ -23003,7 +23002,7 @@
         <v>155</v>
       </c>
       <c r="AL136" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AM136" t="s">
         <v>232</v>
@@ -23012,7 +23011,7 @@
         <v>162</v>
       </c>
       <c r="AO136" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AQ136" t="s">
         <v>164</v>
@@ -23021,7 +23020,7 @@
         <v>916</v>
       </c>
       <c r="AU136" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV136" t="s">
         <v>238</v>
@@ -23030,7 +23029,7 @@
         <v>207</v>
       </c>
       <c r="AX136" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="137" spans="1:50" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -23104,7 +23103,7 @@
         <v>69</v>
       </c>
       <c r="Z137" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA137">
         <v>2</v>
@@ -23116,7 +23115,7 @@
         <v>3</v>
       </c>
       <c r="AD137" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AF137" s="20" t="s">
         <v>899</v>
@@ -23134,7 +23133,7 @@
         <v>155</v>
       </c>
       <c r="AL137" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AM137" t="s">
         <v>232</v>
@@ -23143,7 +23142,7 @@
         <v>162</v>
       </c>
       <c r="AO137" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AQ137" t="s">
         <v>164</v>
@@ -23152,7 +23151,7 @@
         <v>916</v>
       </c>
       <c r="AU137" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV137" t="s">
         <v>238</v>
@@ -23161,7 +23160,7 @@
         <v>207</v>
       </c>
       <c r="AX137" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="138" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -23235,7 +23234,7 @@
         <v>215</v>
       </c>
       <c r="Z138" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA138">
         <v>2</v>
@@ -23247,7 +23246,7 @@
         <v>3</v>
       </c>
       <c r="AD138" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AF138" s="20" t="s">
         <v>899</v>
@@ -23265,7 +23264,7 @@
         <v>155</v>
       </c>
       <c r="AL138" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="AM138" t="s">
         <v>232</v>
@@ -23274,7 +23273,7 @@
         <v>162</v>
       </c>
       <c r="AO138" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AQ138" t="s">
         <v>164</v>
@@ -23283,7 +23282,7 @@
         <v>916</v>
       </c>
       <c r="AU138" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV138" t="s">
         <v>238</v>
@@ -23292,7 +23291,7 @@
         <v>210</v>
       </c>
       <c r="AX138" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="139" spans="1:50" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -23366,7 +23365,7 @@
         <v>69</v>
       </c>
       <c r="Z139" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA139">
         <v>2</v>
@@ -23378,7 +23377,7 @@
         <v>3</v>
       </c>
       <c r="AD139" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AF139" s="20" t="s">
         <v>899</v>
@@ -23396,7 +23395,7 @@
         <v>155</v>
       </c>
       <c r="AL139" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="AM139" t="s">
         <v>232</v>
@@ -23405,7 +23404,7 @@
         <v>162</v>
       </c>
       <c r="AO139" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AQ139" t="s">
         <v>164</v>
@@ -23414,7 +23413,7 @@
         <v>916</v>
       </c>
       <c r="AU139" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV139" t="s">
         <v>238</v>
@@ -23423,7 +23422,7 @@
         <v>210</v>
       </c>
       <c r="AX139" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="140" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -23497,7 +23496,7 @@
         <v>215</v>
       </c>
       <c r="Z140" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA140">
         <v>2</v>
@@ -23509,7 +23508,7 @@
         <v>3</v>
       </c>
       <c r="AD140" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AF140" s="20" t="s">
         <v>899</v>
@@ -23527,7 +23526,7 @@
         <v>155</v>
       </c>
       <c r="AL140" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AM140" t="s">
         <v>232</v>
@@ -23536,7 +23535,7 @@
         <v>162</v>
       </c>
       <c r="AO140" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AQ140" t="s">
         <v>164</v>
@@ -23545,7 +23544,7 @@
         <v>170</v>
       </c>
       <c r="AU140" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV140" t="s">
         <v>238</v>
@@ -23554,7 +23553,7 @@
         <v>207</v>
       </c>
       <c r="AX140" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="141" spans="1:50" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -23628,7 +23627,7 @@
         <v>69</v>
       </c>
       <c r="Z141" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA141">
         <v>2</v>
@@ -23640,7 +23639,7 @@
         <v>3</v>
       </c>
       <c r="AD141" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AF141" s="20" t="s">
         <v>899</v>
@@ -23658,7 +23657,7 @@
         <v>155</v>
       </c>
       <c r="AL141" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AM141" t="s">
         <v>232</v>
@@ -23667,7 +23666,7 @@
         <v>162</v>
       </c>
       <c r="AO141" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AQ141" t="s">
         <v>164</v>
@@ -23676,7 +23675,7 @@
         <v>170</v>
       </c>
       <c r="AU141" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV141" t="s">
         <v>238</v>
@@ -23685,7 +23684,7 @@
         <v>207</v>
       </c>
       <c r="AX141" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="142" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -23759,7 +23758,7 @@
         <v>215</v>
       </c>
       <c r="Z142" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA142">
         <v>2</v>
@@ -23771,7 +23770,7 @@
         <v>3</v>
       </c>
       <c r="AD142" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AF142" s="20" t="s">
         <v>899</v>
@@ -23789,7 +23788,7 @@
         <v>155</v>
       </c>
       <c r="AL142" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="AM142" t="s">
         <v>232</v>
@@ -23798,7 +23797,7 @@
         <v>162</v>
       </c>
       <c r="AO142" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AQ142" t="s">
         <v>164</v>
@@ -23807,7 +23806,7 @@
         <v>170</v>
       </c>
       <c r="AU142" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV142" t="s">
         <v>238</v>
@@ -23816,7 +23815,7 @@
         <v>210</v>
       </c>
       <c r="AX142" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="143" spans="1:50" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -23890,7 +23889,7 @@
         <v>69</v>
       </c>
       <c r="Z143" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA143">
         <v>2</v>
@@ -23902,7 +23901,7 @@
         <v>3</v>
       </c>
       <c r="AD143" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AF143" s="20" t="s">
         <v>899</v>
@@ -23920,7 +23919,7 @@
         <v>155</v>
       </c>
       <c r="AL143" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="AM143" t="s">
         <v>232</v>
@@ -23929,7 +23928,7 @@
         <v>162</v>
       </c>
       <c r="AO143" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AQ143" t="s">
         <v>164</v>
@@ -23938,7 +23937,7 @@
         <v>170</v>
       </c>
       <c r="AU143" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AV143" t="s">
         <v>238</v>
@@ -23947,7 +23946,7 @@
         <v>210</v>
       </c>
       <c r="AX143" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="144" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -24021,7 +24020,7 @@
         <v>216</v>
       </c>
       <c r="Z144" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AA144">
         <v>2</v>
@@ -24033,7 +24032,7 @@
         <v>3</v>
       </c>
       <c r="AD144" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AF144" s="11" t="s">
         <v>903</v>
@@ -24045,7 +24044,7 @@
         <v>117</v>
       </c>
       <c r="AL144" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AM144" t="s">
         <v>232</v>
@@ -24054,7 +24053,7 @@
         <v>160</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AQ144" t="s">
         <v>165</v>
@@ -24066,7 +24065,7 @@
         <v>196</v>
       </c>
       <c r="AU144" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AV144" t="s">
         <v>206</v>
@@ -24075,7 +24074,7 @@
         <v>208</v>
       </c>
       <c r="AX144" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="145" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -24149,7 +24148,7 @@
         <v>216</v>
       </c>
       <c r="Z145" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AA145">
         <v>2</v>
@@ -24161,7 +24160,7 @@
         <v>3</v>
       </c>
       <c r="AD145" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AF145" s="20" t="s">
         <v>903</v>
@@ -24173,7 +24172,7 @@
         <v>117</v>
       </c>
       <c r="AL145" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AM145" t="s">
         <v>232</v>
@@ -24182,7 +24181,7 @@
         <v>160</v>
       </c>
       <c r="AO145" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AQ145" t="s">
         <v>165</v>
@@ -24194,7 +24193,7 @@
         <v>196</v>
       </c>
       <c r="AU145" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AV145" t="s">
         <v>200</v>
@@ -24203,7 +24202,7 @@
         <v>208</v>
       </c>
       <c r="AX145" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="146" spans="1:50" x14ac:dyDescent="0.35">
@@ -24262,7 +24261,7 @@
         <v>83</v>
       </c>
       <c r="AE146" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AF146" s="11" t="s">
         <v>899</v>
@@ -24324,7 +24323,7 @@
         <v>84</v>
       </c>
       <c r="AE147" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AF147" s="11" t="s">
         <v>898</v>
@@ -24457,7 +24456,7 @@
         <v>216</v>
       </c>
       <c r="Z149" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AA149">
         <v>2</v>
@@ -24469,7 +24468,7 @@
         <v>3</v>
       </c>
       <c r="AD149" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AF149" s="11" t="s">
         <v>903</v>
@@ -24484,7 +24483,7 @@
         <v>144</v>
       </c>
       <c r="AL149" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AM149" t="s">
         <v>232</v>
@@ -24493,7 +24492,7 @@
         <v>160</v>
       </c>
       <c r="AO149" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AQ149" t="s">
         <v>165</v>
@@ -24505,7 +24504,7 @@
         <v>196</v>
       </c>
       <c r="AU149" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AV149" t="s">
         <v>238</v>
@@ -24514,7 +24513,7 @@
         <v>207</v>
       </c>
       <c r="AX149" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="150" spans="1:50" x14ac:dyDescent="0.35">
@@ -24588,7 +24587,7 @@
         <v>218</v>
       </c>
       <c r="Z150" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AA150">
         <v>2</v>
@@ -24600,7 +24599,7 @@
         <v>3</v>
       </c>
       <c r="AD150" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AF150" s="20" t="s">
         <v>903</v>
@@ -24615,7 +24614,7 @@
         <v>144</v>
       </c>
       <c r="AL150" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AM150" t="s">
         <v>232</v>
@@ -24624,7 +24623,7 @@
         <v>160</v>
       </c>
       <c r="AO150" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AQ150" t="s">
         <v>165</v>
@@ -24636,7 +24635,7 @@
         <v>196</v>
       </c>
       <c r="AU150" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AV150" t="s">
         <v>238</v>
@@ -24645,7 +24644,7 @@
         <v>207</v>
       </c>
       <c r="AX150" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="151" spans="1:50" x14ac:dyDescent="0.35">
@@ -24716,7 +24715,7 @@
         <v>216</v>
       </c>
       <c r="Z151" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AA151">
         <v>2</v>
@@ -24728,7 +24727,7 @@
         <v>3</v>
       </c>
       <c r="AD151" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AF151" s="20" t="s">
         <v>903</v>
@@ -24743,7 +24742,7 @@
         <v>144</v>
       </c>
       <c r="AL151" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AM151" t="s">
         <v>232</v>
@@ -24752,7 +24751,7 @@
         <v>160</v>
       </c>
       <c r="AO151" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AQ151" t="s">
         <v>165</v>
@@ -24764,7 +24763,7 @@
         <v>196</v>
       </c>
       <c r="AU151" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AV151" t="s">
         <v>238</v>
@@ -24773,7 +24772,7 @@
         <v>209</v>
       </c>
       <c r="AX151" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="152" spans="1:50" x14ac:dyDescent="0.35">
@@ -24847,7 +24846,7 @@
         <v>218</v>
       </c>
       <c r="Z152" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AA152">
         <v>2</v>
@@ -24859,7 +24858,7 @@
         <v>3</v>
       </c>
       <c r="AD152" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AF152" s="20" t="s">
         <v>903</v>
@@ -24874,7 +24873,7 @@
         <v>144</v>
       </c>
       <c r="AL152" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AM152" t="s">
         <v>232</v>
@@ -24883,7 +24882,7 @@
         <v>160</v>
       </c>
       <c r="AO152" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AQ152" t="s">
         <v>165</v>
@@ -24895,7 +24894,7 @@
         <v>196</v>
       </c>
       <c r="AU152" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AV152" t="s">
         <v>238</v>
@@ -24904,7 +24903,7 @@
         <v>209</v>
       </c>
       <c r="AX152" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="153" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24978,7 +24977,7 @@
         <v>216</v>
       </c>
       <c r="Z153" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AA153">
         <v>2</v>
@@ -24990,7 +24989,7 @@
         <v>3</v>
       </c>
       <c r="AD153" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AF153" s="11" t="s">
         <v>898</v>
@@ -25011,7 +25010,7 @@
         <v>1011</v>
       </c>
       <c r="AP153" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ153" t="s">
         <v>164</v>
@@ -25023,10 +25022,10 @@
         <v>175</v>
       </c>
       <c r="AT153" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AU153" t="s">
         <v>1114</v>
-      </c>
-      <c r="AU153" t="s">
-        <v>1115</v>
       </c>
       <c r="AV153" t="s">
         <v>199</v>
@@ -25035,7 +25034,7 @@
         <v>208</v>
       </c>
       <c r="AX153" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="154" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -25109,7 +25108,7 @@
         <v>69</v>
       </c>
       <c r="Z154" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AA154">
         <v>2</v>
@@ -25121,7 +25120,7 @@
         <v>3</v>
       </c>
       <c r="AD154" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AF154" s="20" t="s">
         <v>898</v>
@@ -25142,7 +25141,7 @@
         <v>1011</v>
       </c>
       <c r="AP154" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ154" t="s">
         <v>164</v>
@@ -25154,10 +25153,10 @@
         <v>175</v>
       </c>
       <c r="AT154" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AU154" t="s">
         <v>1114</v>
-      </c>
-      <c r="AU154" t="s">
-        <v>1115</v>
       </c>
       <c r="AV154" t="s">
         <v>199</v>
@@ -25166,7 +25165,7 @@
         <v>208</v>
       </c>
       <c r="AX154" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="155" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -25240,7 +25239,7 @@
         <v>216</v>
       </c>
       <c r="Z155" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AA155">
         <v>2</v>
@@ -25252,7 +25251,7 @@
         <v>3</v>
       </c>
       <c r="AD155" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AF155" s="20" t="s">
         <v>898</v>
@@ -25273,7 +25272,7 @@
         <v>1011</v>
       </c>
       <c r="AP155" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ155" t="s">
         <v>164</v>
@@ -25285,10 +25284,10 @@
         <v>175</v>
       </c>
       <c r="AT155" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AU155" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AV155" t="s">
         <v>205</v>
@@ -25297,7 +25296,7 @@
         <v>208</v>
       </c>
       <c r="AX155" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="156" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -25371,7 +25370,7 @@
         <v>69</v>
       </c>
       <c r="Z156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AA156">
         <v>2</v>
@@ -25383,7 +25382,7 @@
         <v>3</v>
       </c>
       <c r="AD156" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AF156" s="20" t="s">
         <v>898</v>
@@ -25404,7 +25403,7 @@
         <v>1011</v>
       </c>
       <c r="AP156" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ156" t="s">
         <v>164</v>
@@ -25416,10 +25415,10 @@
         <v>175</v>
       </c>
       <c r="AT156" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AU156" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AV156" t="s">
         <v>205</v>
@@ -25428,7 +25427,7 @@
         <v>208</v>
       </c>
       <c r="AX156" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="157" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -25502,7 +25501,7 @@
         <v>216</v>
       </c>
       <c r="Z157" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AA157">
         <v>2</v>
@@ -25514,7 +25513,7 @@
         <v>3</v>
       </c>
       <c r="AD157" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AF157" s="20" t="s">
         <v>898</v>
@@ -25535,7 +25534,7 @@
         <v>1011</v>
       </c>
       <c r="AP157" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ157" t="s">
         <v>164</v>
@@ -25547,10 +25546,10 @@
         <v>175</v>
       </c>
       <c r="AT157" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AU157" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AV157" t="s">
         <v>199</v>
@@ -25559,7 +25558,7 @@
         <v>210</v>
       </c>
       <c r="AX157" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="158" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -25633,7 +25632,7 @@
         <v>69</v>
       </c>
       <c r="Z158" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AA158">
         <v>2</v>
@@ -25645,7 +25644,7 @@
         <v>3</v>
       </c>
       <c r="AD158" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AF158" s="20" t="s">
         <v>898</v>
@@ -25666,7 +25665,7 @@
         <v>1011</v>
       </c>
       <c r="AP158" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AQ158" t="s">
         <v>164</v>
@@ -25678,10 +25677,10 @@
         <v>175</v>
       </c>
       <c r="AT158" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AU158" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AV158" t="s">
         <v>199</v>
@@ -25690,7 +25689,7 @@
         <v>210</v>
       </c>
       <c r="AX158" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="159" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -25764,7 +25763,7 @@
         <v>216</v>
       </c>
       <c r="Z159" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AA159">
         <v>2</v>
@@ -25776,7 +25775,7 @@
         <v>3</v>
       </c>
       <c r="AD159" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AF159" s="11" t="s">
         <v>903</v>
@@ -25791,7 +25790,7 @@
         <v>147</v>
       </c>
       <c r="AL159" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AM159" t="s">
         <v>232</v>
@@ -25800,10 +25799,10 @@
         <v>160</v>
       </c>
       <c r="AO159" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AP159" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AQ159" t="s">
         <v>165</v>
@@ -25815,7 +25814,7 @@
         <v>196</v>
       </c>
       <c r="AU159" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AV159" t="s">
         <v>238</v>
@@ -25824,7 +25823,7 @@
         <v>207</v>
       </c>
       <c r="AX159" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="160" spans="1:50" x14ac:dyDescent="0.35">
@@ -25957,7 +25956,7 @@
         <v>215</v>
       </c>
       <c r="Z161" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AA161">
         <v>2</v>
@@ -25969,7 +25968,7 @@
         <v>3</v>
       </c>
       <c r="AD161" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AF161" s="11" t="s">
         <v>904</v>
@@ -25984,10 +25983,10 @@
         <v>232</v>
       </c>
       <c r="AO161" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP161" t="s">
         <v>1128</v>
-      </c>
-      <c r="AP161" t="s">
-        <v>1129</v>
       </c>
       <c r="AQ161" t="s">
         <v>164</v>
@@ -25996,7 +25995,7 @@
         <v>915</v>
       </c>
       <c r="AU161" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AV161" t="s">
         <v>199</v>
@@ -26005,7 +26004,7 @@
         <v>208</v>
       </c>
       <c r="AX161" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="162" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -26079,7 +26078,7 @@
         <v>215</v>
       </c>
       <c r="Z162" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AA162">
         <v>2</v>
@@ -26091,7 +26090,7 @@
         <v>3</v>
       </c>
       <c r="AD162" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AF162" s="20" t="s">
         <v>904</v>
@@ -26106,10 +26105,10 @@
         <v>232</v>
       </c>
       <c r="AO162" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP162" t="s">
         <v>1128</v>
-      </c>
-      <c r="AP162" t="s">
-        <v>1129</v>
       </c>
       <c r="AQ162" t="s">
         <v>164</v>
@@ -26118,7 +26117,7 @@
         <v>915</v>
       </c>
       <c r="AU162" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AV162" t="s">
         <v>199</v>
@@ -26127,7 +26126,7 @@
         <v>208</v>
       </c>
       <c r="AX162" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="163" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -26201,7 +26200,7 @@
         <v>215</v>
       </c>
       <c r="Z163" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AA163">
         <v>2</v>
@@ -26213,7 +26212,7 @@
         <v>3</v>
       </c>
       <c r="AD163" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AF163" s="20" t="s">
         <v>904</v>
@@ -26228,10 +26227,10 @@
         <v>232</v>
       </c>
       <c r="AO163" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP163" t="s">
         <v>1128</v>
-      </c>
-      <c r="AP163" t="s">
-        <v>1129</v>
       </c>
       <c r="AQ163" t="s">
         <v>164</v>
@@ -26240,7 +26239,7 @@
         <v>915</v>
       </c>
       <c r="AU163" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AV163" t="s">
         <v>205</v>
@@ -26249,7 +26248,7 @@
         <v>210</v>
       </c>
       <c r="AX163" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="164" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -26323,7 +26322,7 @@
         <v>215</v>
       </c>
       <c r="Z164" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AA164">
         <v>2</v>
@@ -26335,7 +26334,7 @@
         <v>3</v>
       </c>
       <c r="AD164" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AF164" s="20" t="s">
         <v>904</v>
@@ -26350,10 +26349,10 @@
         <v>232</v>
       </c>
       <c r="AO164" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP164" t="s">
         <v>1128</v>
-      </c>
-      <c r="AP164" t="s">
-        <v>1129</v>
       </c>
       <c r="AQ164" t="s">
         <v>164</v>
@@ -26362,7 +26361,7 @@
         <v>915</v>
       </c>
       <c r="AU164" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AV164" t="s">
         <v>200</v>
@@ -26371,7 +26370,7 @@
         <v>208</v>
       </c>
       <c r="AX164" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="165" spans="1:50" s="13" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -26445,7 +26444,7 @@
         <v>218</v>
       </c>
       <c r="Z165" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AA165" s="13">
         <v>2</v>
@@ -26457,7 +26456,7 @@
         <v>3</v>
       </c>
       <c r="AD165" s="26" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AF165" s="21" t="s">
         <v>903</v>
@@ -26472,7 +26471,7 @@
         <v>147</v>
       </c>
       <c r="AL165" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AM165" s="13" t="s">
         <v>232</v>
@@ -26481,10 +26480,10 @@
         <v>160</v>
       </c>
       <c r="AO165" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AP165" s="13" t="s">
         <v>1140</v>
-      </c>
-      <c r="AP165" s="13" t="s">
-        <v>1141</v>
       </c>
       <c r="AQ165" s="13" t="s">
         <v>165</v>
@@ -26496,7 +26495,7 @@
         <v>196</v>
       </c>
       <c r="AU165" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AV165" s="13" t="s">
         <v>238</v>
@@ -26505,7 +26504,7 @@
         <v>207</v>
       </c>
       <c r="AX165" s="22" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="166" spans="1:50" s="13" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -26579,7 +26578,7 @@
         <v>218</v>
       </c>
       <c r="Z166" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AA166" s="13">
         <v>2</v>
@@ -26591,7 +26590,7 @@
         <v>3</v>
       </c>
       <c r="AD166" s="26" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AF166" s="21" t="s">
         <v>903</v>
@@ -26606,7 +26605,7 @@
         <v>147</v>
       </c>
       <c r="AL166" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AM166" s="13" t="s">
         <v>232</v>
@@ -26615,10 +26614,10 @@
         <v>160</v>
       </c>
       <c r="AO166" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AP166" s="13" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AQ166" s="13" t="s">
         <v>165</v>
@@ -26630,7 +26629,7 @@
         <v>196</v>
       </c>
       <c r="AU166" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AV166" s="13" t="s">
         <v>238</v>
@@ -26639,7 +26638,7 @@
         <v>207</v>
       </c>
       <c r="AX166" s="22" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="167" spans="1:50" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -26713,7 +26712,7 @@
         <v>216</v>
       </c>
       <c r="Z167" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AA167">
         <v>2</v>
@@ -26725,7 +26724,7 @@
         <v>3</v>
       </c>
       <c r="AD167" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AF167" s="20" t="s">
         <v>903</v>
@@ -26740,7 +26739,7 @@
         <v>147</v>
       </c>
       <c r="AL167" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AM167" t="s">
         <v>232</v>
@@ -26749,10 +26748,10 @@
         <v>160</v>
       </c>
       <c r="AO167" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AP167" t="s">
         <v>1140</v>
-      </c>
-      <c r="AP167" t="s">
-        <v>1141</v>
       </c>
       <c r="AQ167" t="s">
         <v>165</v>
@@ -26764,7 +26763,7 @@
         <v>196</v>
       </c>
       <c r="AU167" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AV167" t="s">
         <v>238</v>
@@ -26773,7 +26772,7 @@
         <v>207</v>
       </c>
       <c r="AX167" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="168" spans="1:50" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -26847,7 +26846,7 @@
         <v>216</v>
       </c>
       <c r="Z168" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AA168">
         <v>2</v>
@@ -26859,7 +26858,7 @@
         <v>3</v>
       </c>
       <c r="AD168" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AF168" s="20" t="s">
         <v>903</v>
@@ -26874,7 +26873,7 @@
         <v>147</v>
       </c>
       <c r="AL168" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AM168" t="s">
         <v>232</v>
@@ -26883,10 +26882,10 @@
         <v>160</v>
       </c>
       <c r="AO168" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AP168" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AQ168" t="s">
         <v>165</v>
@@ -26898,7 +26897,7 @@
         <v>196</v>
       </c>
       <c r="AU168" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AV168" t="s">
         <v>238</v>
@@ -26907,7 +26906,7 @@
         <v>207</v>
       </c>
       <c r="AX168" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="169" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -26981,7 +26980,7 @@
         <v>69</v>
       </c>
       <c r="Z169" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA169">
         <v>2</v>
@@ -26993,7 +26992,7 @@
         <v>3</v>
       </c>
       <c r="AD169" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF169" s="11" t="s">
         <v>898</v>
@@ -27008,7 +27007,7 @@
         <v>134</v>
       </c>
       <c r="AL169" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM169" t="s">
         <v>233</v>
@@ -27017,7 +27016,7 @@
         <v>1012</v>
       </c>
       <c r="AP169" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ169" t="s">
         <v>164</v>
@@ -27029,10 +27028,10 @@
         <v>175</v>
       </c>
       <c r="AT169" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AU169" t="s">
         <v>1148</v>
-      </c>
-      <c r="AU169" t="s">
-        <v>1149</v>
       </c>
       <c r="AV169" t="s">
         <v>199</v>
@@ -27041,7 +27040,7 @@
         <v>208</v>
       </c>
       <c r="AX169" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="170" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -27115,7 +27114,7 @@
         <v>216</v>
       </c>
       <c r="Z170" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA170">
         <v>2</v>
@@ -27127,7 +27126,7 @@
         <v>3</v>
       </c>
       <c r="AD170" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF170" s="20" t="s">
         <v>898</v>
@@ -27142,7 +27141,7 @@
         <v>134</v>
       </c>
       <c r="AL170" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM170" t="s">
         <v>233</v>
@@ -27151,7 +27150,7 @@
         <v>1012</v>
       </c>
       <c r="AP170" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ170" t="s">
         <v>164</v>
@@ -27163,10 +27162,10 @@
         <v>175</v>
       </c>
       <c r="AT170" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AU170" t="s">
         <v>1148</v>
-      </c>
-      <c r="AU170" t="s">
-        <v>1149</v>
       </c>
       <c r="AV170" t="s">
         <v>199</v>
@@ -27175,7 +27174,7 @@
         <v>208</v>
       </c>
       <c r="AX170" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="171" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -27249,7 +27248,7 @@
         <v>69</v>
       </c>
       <c r="Z171" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA171">
         <v>2</v>
@@ -27261,7 +27260,7 @@
         <v>3</v>
       </c>
       <c r="AD171" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF171" s="20" t="s">
         <v>898</v>
@@ -27276,7 +27275,7 @@
         <v>134</v>
       </c>
       <c r="AL171" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM171" t="s">
         <v>233</v>
@@ -27285,7 +27284,7 @@
         <v>1012</v>
       </c>
       <c r="AP171" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ171" t="s">
         <v>164</v>
@@ -27297,10 +27296,10 @@
         <v>175</v>
       </c>
       <c r="AT171" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU171" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AV171" t="s">
         <v>204</v>
@@ -27309,7 +27308,7 @@
         <v>208</v>
       </c>
       <c r="AX171" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="172" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -27383,7 +27382,7 @@
         <v>216</v>
       </c>
       <c r="Z172" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA172">
         <v>2</v>
@@ -27395,7 +27394,7 @@
         <v>3</v>
       </c>
       <c r="AD172" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF172" s="20" t="s">
         <v>898</v>
@@ -27410,7 +27409,7 @@
         <v>134</v>
       </c>
       <c r="AL172" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM172" t="s">
         <v>233</v>
@@ -27419,7 +27418,7 @@
         <v>1012</v>
       </c>
       <c r="AP172" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ172" t="s">
         <v>164</v>
@@ -27431,10 +27430,10 @@
         <v>175</v>
       </c>
       <c r="AT172" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU172" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AV172" t="s">
         <v>204</v>
@@ -27443,7 +27442,7 @@
         <v>208</v>
       </c>
       <c r="AX172" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="173" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -27517,7 +27516,7 @@
         <v>69</v>
       </c>
       <c r="Z173" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA173">
         <v>2</v>
@@ -27529,7 +27528,7 @@
         <v>3</v>
       </c>
       <c r="AD173" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF173" s="20" t="s">
         <v>898</v>
@@ -27544,7 +27543,7 @@
         <v>134</v>
       </c>
       <c r="AL173" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM173" t="s">
         <v>233</v>
@@ -27553,7 +27552,7 @@
         <v>1012</v>
       </c>
       <c r="AP173" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ173" t="s">
         <v>164</v>
@@ -27565,10 +27564,10 @@
         <v>175</v>
       </c>
       <c r="AT173" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU173" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AV173" t="s">
         <v>205</v>
@@ -27577,7 +27576,7 @@
         <v>208</v>
       </c>
       <c r="AX173" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="174" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -27651,7 +27650,7 @@
         <v>216</v>
       </c>
       <c r="Z174" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA174">
         <v>2</v>
@@ -27663,7 +27662,7 @@
         <v>3</v>
       </c>
       <c r="AD174" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF174" s="20" t="s">
         <v>898</v>
@@ -27678,7 +27677,7 @@
         <v>134</v>
       </c>
       <c r="AL174" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM174" t="s">
         <v>233</v>
@@ -27687,7 +27686,7 @@
         <v>1012</v>
       </c>
       <c r="AP174" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ174" t="s">
         <v>164</v>
@@ -27699,10 +27698,10 @@
         <v>175</v>
       </c>
       <c r="AT174" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU174" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AV174" t="s">
         <v>205</v>
@@ -27711,7 +27710,7 @@
         <v>208</v>
       </c>
       <c r="AX174" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="175" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -27785,7 +27784,7 @@
         <v>69</v>
       </c>
       <c r="Z175" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA175">
         <v>2</v>
@@ -27797,7 +27796,7 @@
         <v>3</v>
       </c>
       <c r="AD175" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF175" s="20" t="s">
         <v>898</v>
@@ -27812,7 +27811,7 @@
         <v>134</v>
       </c>
       <c r="AL175" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM175" t="s">
         <v>233</v>
@@ -27821,7 +27820,7 @@
         <v>1012</v>
       </c>
       <c r="AP175" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ175" t="s">
         <v>164</v>
@@ -27833,10 +27832,10 @@
         <v>175</v>
       </c>
       <c r="AT175" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU175" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AV175" t="s">
         <v>199</v>
@@ -27845,7 +27844,7 @@
         <v>210</v>
       </c>
       <c r="AX175" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="176" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -27919,7 +27918,7 @@
         <v>216</v>
       </c>
       <c r="Z176" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA176">
         <v>2</v>
@@ -27931,7 +27930,7 @@
         <v>3</v>
       </c>
       <c r="AD176" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF176" s="20" t="s">
         <v>898</v>
@@ -27946,7 +27945,7 @@
         <v>134</v>
       </c>
       <c r="AL176" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM176" t="s">
         <v>233</v>
@@ -27955,7 +27954,7 @@
         <v>1012</v>
       </c>
       <c r="AP176" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ176" t="s">
         <v>164</v>
@@ -27967,10 +27966,10 @@
         <v>175</v>
       </c>
       <c r="AT176" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU176" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AV176" t="s">
         <v>199</v>
@@ -27979,7 +27978,7 @@
         <v>210</v>
       </c>
       <c r="AX176" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="177" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28053,7 +28052,7 @@
         <v>69</v>
       </c>
       <c r="Z177" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA177">
         <v>2</v>
@@ -28065,7 +28064,7 @@
         <v>3</v>
       </c>
       <c r="AD177" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF177" s="20" t="s">
         <v>898</v>
@@ -28080,7 +28079,7 @@
         <v>134</v>
       </c>
       <c r="AL177" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM177" t="s">
         <v>233</v>
@@ -28089,7 +28088,7 @@
         <v>1012</v>
       </c>
       <c r="AP177" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ177" t="s">
         <v>164</v>
@@ -28101,10 +28100,10 @@
         <v>175</v>
       </c>
       <c r="AT177" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AU177" t="s">
         <v>1148</v>
-      </c>
-      <c r="AU177" t="s">
-        <v>1149</v>
       </c>
       <c r="AV177" t="s">
         <v>199</v>
@@ -28113,7 +28112,7 @@
         <v>208</v>
       </c>
       <c r="AX177" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="178" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28187,7 +28186,7 @@
         <v>216</v>
       </c>
       <c r="Z178" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA178">
         <v>2</v>
@@ -28199,7 +28198,7 @@
         <v>3</v>
       </c>
       <c r="AD178" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF178" s="20" t="s">
         <v>898</v>
@@ -28214,7 +28213,7 @@
         <v>134</v>
       </c>
       <c r="AL178" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM178" t="s">
         <v>233</v>
@@ -28223,7 +28222,7 @@
         <v>1012</v>
       </c>
       <c r="AP178" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ178" t="s">
         <v>164</v>
@@ -28235,10 +28234,10 @@
         <v>175</v>
       </c>
       <c r="AT178" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AU178" t="s">
         <v>1148</v>
-      </c>
-      <c r="AU178" t="s">
-        <v>1149</v>
       </c>
       <c r="AV178" t="s">
         <v>199</v>
@@ -28247,7 +28246,7 @@
         <v>208</v>
       </c>
       <c r="AX178" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="179" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28321,7 +28320,7 @@
         <v>69</v>
       </c>
       <c r="Z179" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA179">
         <v>2</v>
@@ -28333,7 +28332,7 @@
         <v>3</v>
       </c>
       <c r="AD179" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF179" s="20" t="s">
         <v>898</v>
@@ -28348,7 +28347,7 @@
         <v>134</v>
       </c>
       <c r="AL179" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM179" t="s">
         <v>233</v>
@@ -28357,7 +28356,7 @@
         <v>1012</v>
       </c>
       <c r="AP179" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ179" t="s">
         <v>164</v>
@@ -28369,10 +28368,10 @@
         <v>175</v>
       </c>
       <c r="AT179" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU179" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AV179" t="s">
         <v>204</v>
@@ -28381,7 +28380,7 @@
         <v>208</v>
       </c>
       <c r="AX179" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="180" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28455,7 +28454,7 @@
         <v>216</v>
       </c>
       <c r="Z180" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA180">
         <v>2</v>
@@ -28467,7 +28466,7 @@
         <v>3</v>
       </c>
       <c r="AD180" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF180" s="20" t="s">
         <v>898</v>
@@ -28482,7 +28481,7 @@
         <v>134</v>
       </c>
       <c r="AL180" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM180" t="s">
         <v>233</v>
@@ -28491,7 +28490,7 @@
         <v>1012</v>
       </c>
       <c r="AP180" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ180" t="s">
         <v>164</v>
@@ -28503,10 +28502,10 @@
         <v>175</v>
       </c>
       <c r="AT180" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU180" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AV180" t="s">
         <v>204</v>
@@ -28515,7 +28514,7 @@
         <v>208</v>
       </c>
       <c r="AX180" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="181" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28589,7 +28588,7 @@
         <v>69</v>
       </c>
       <c r="Z181" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA181">
         <v>2</v>
@@ -28601,7 +28600,7 @@
         <v>3</v>
       </c>
       <c r="AD181" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF181" s="20" t="s">
         <v>898</v>
@@ -28616,7 +28615,7 @@
         <v>134</v>
       </c>
       <c r="AL181" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM181" t="s">
         <v>233</v>
@@ -28625,7 +28624,7 @@
         <v>1012</v>
       </c>
       <c r="AP181" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ181" t="s">
         <v>164</v>
@@ -28637,10 +28636,10 @@
         <v>175</v>
       </c>
       <c r="AT181" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU181" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AV181" t="s">
         <v>205</v>
@@ -28649,7 +28648,7 @@
         <v>208</v>
       </c>
       <c r="AX181" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="182" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28723,7 +28722,7 @@
         <v>216</v>
       </c>
       <c r="Z182" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA182">
         <v>2</v>
@@ -28735,7 +28734,7 @@
         <v>3</v>
       </c>
       <c r="AD182" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF182" s="20" t="s">
         <v>898</v>
@@ -28750,7 +28749,7 @@
         <v>134</v>
       </c>
       <c r="AL182" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM182" t="s">
         <v>233</v>
@@ -28759,7 +28758,7 @@
         <v>1012</v>
       </c>
       <c r="AP182" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ182" t="s">
         <v>164</v>
@@ -28771,10 +28770,10 @@
         <v>175</v>
       </c>
       <c r="AT182" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU182" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AV182" t="s">
         <v>205</v>
@@ -28783,7 +28782,7 @@
         <v>208</v>
       </c>
       <c r="AX182" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="183" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28857,7 +28856,7 @@
         <v>69</v>
       </c>
       <c r="Z183" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA183">
         <v>2</v>
@@ -28869,7 +28868,7 @@
         <v>3</v>
       </c>
       <c r="AD183" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF183" s="20" t="s">
         <v>898</v>
@@ -28884,7 +28883,7 @@
         <v>134</v>
       </c>
       <c r="AL183" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM183" t="s">
         <v>233</v>
@@ -28893,7 +28892,7 @@
         <v>1012</v>
       </c>
       <c r="AP183" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ183" t="s">
         <v>164</v>
@@ -28905,10 +28904,10 @@
         <v>175</v>
       </c>
       <c r="AT183" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU183" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AV183" t="s">
         <v>199</v>
@@ -28917,7 +28916,7 @@
         <v>210</v>
       </c>
       <c r="AX183" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="184" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28991,7 +28990,7 @@
         <v>216</v>
       </c>
       <c r="Z184" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA184">
         <v>2</v>
@@ -29003,7 +29002,7 @@
         <v>3</v>
       </c>
       <c r="AD184" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF184" s="20" t="s">
         <v>898</v>
@@ -29018,7 +29017,7 @@
         <v>134</v>
       </c>
       <c r="AL184" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM184" t="s">
         <v>233</v>
@@ -29027,7 +29026,7 @@
         <v>1012</v>
       </c>
       <c r="AP184" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ184" t="s">
         <v>164</v>
@@ -29039,10 +29038,10 @@
         <v>175</v>
       </c>
       <c r="AT184" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU184" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AV184" t="s">
         <v>199</v>
@@ -29051,7 +29050,7 @@
         <v>210</v>
       </c>
       <c r="AX184" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="185" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -29125,7 +29124,7 @@
         <v>69</v>
       </c>
       <c r="Z185" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA185">
         <v>2</v>
@@ -29137,7 +29136,7 @@
         <v>3</v>
       </c>
       <c r="AD185" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF185" s="20" t="s">
         <v>898</v>
@@ -29152,7 +29151,7 @@
         <v>134</v>
       </c>
       <c r="AL185" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM185" t="s">
         <v>233</v>
@@ -29161,7 +29160,7 @@
         <v>1012</v>
       </c>
       <c r="AP185" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ185" t="s">
         <v>164</v>
@@ -29173,10 +29172,10 @@
         <v>175</v>
       </c>
       <c r="AT185" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU185" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AV185" t="s">
         <v>199</v>
@@ -29256,7 +29255,7 @@
         <v>216</v>
       </c>
       <c r="Z186" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA186">
         <v>2</v>
@@ -29268,7 +29267,7 @@
         <v>3</v>
       </c>
       <c r="AD186" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF186" s="20" t="s">
         <v>898</v>
@@ -29283,7 +29282,7 @@
         <v>134</v>
       </c>
       <c r="AL186" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM186" t="s">
         <v>233</v>
@@ -29292,7 +29291,7 @@
         <v>1012</v>
       </c>
       <c r="AP186" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ186" t="s">
         <v>164</v>
@@ -29304,10 +29303,10 @@
         <v>175</v>
       </c>
       <c r="AT186" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU186" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AV186" t="s">
         <v>199</v>
@@ -29387,7 +29386,7 @@
         <v>69</v>
       </c>
       <c r="Z187" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA187">
         <v>2</v>
@@ -29399,7 +29398,7 @@
         <v>3</v>
       </c>
       <c r="AD187" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF187" s="20" t="s">
         <v>898</v>
@@ -29414,7 +29413,7 @@
         <v>134</v>
       </c>
       <c r="AL187" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM187" t="s">
         <v>233</v>
@@ -29423,7 +29422,7 @@
         <v>1012</v>
       </c>
       <c r="AP187" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ187" t="s">
         <v>164</v>
@@ -29435,10 +29434,10 @@
         <v>175</v>
       </c>
       <c r="AT187" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU187" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AV187" t="s">
         <v>199</v>
@@ -29518,7 +29517,7 @@
         <v>216</v>
       </c>
       <c r="Z188" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA188">
         <v>2</v>
@@ -29530,7 +29529,7 @@
         <v>3</v>
       </c>
       <c r="AD188" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AF188" s="20" t="s">
         <v>898</v>
@@ -29545,7 +29544,7 @@
         <v>134</v>
       </c>
       <c r="AL188" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AM188" t="s">
         <v>233</v>
@@ -29554,7 +29553,7 @@
         <v>1012</v>
       </c>
       <c r="AP188" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AQ188" t="s">
         <v>164</v>
@@ -29566,10 +29565,10 @@
         <v>175</v>
       </c>
       <c r="AT188" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU188" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AV188" t="s">
         <v>199</v>
@@ -29649,7 +29648,7 @@
         <v>216</v>
       </c>
       <c r="Z189" s="13" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AA189" s="13">
         <v>2</v>
@@ -29661,7 +29660,7 @@
         <v>3</v>
       </c>
       <c r="AD189" s="13" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AF189" s="21" t="s">
         <v>903</v>
@@ -29673,7 +29672,7 @@
         <v>117</v>
       </c>
       <c r="AL189" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AM189" s="13" t="s">
         <v>232</v>
@@ -29682,7 +29681,7 @@
         <v>161</v>
       </c>
       <c r="AO189" s="13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AQ189" s="13" t="s">
         <v>164</v>
@@ -29691,10 +29690,10 @@
         <v>915</v>
       </c>
       <c r="AT189" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AU189" s="13" t="s">
         <v>1157</v>
-      </c>
-      <c r="AU189" s="13" t="s">
-        <v>1158</v>
       </c>
       <c r="AV189" s="13" t="s">
         <v>238</v>
@@ -29703,7 +29702,7 @@
         <v>207</v>
       </c>
       <c r="AX189" s="22" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="190" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -29777,7 +29776,7 @@
         <v>216</v>
       </c>
       <c r="Z190" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AA190">
         <v>2</v>
@@ -29789,7 +29788,7 @@
         <v>3</v>
       </c>
       <c r="AD190" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AF190" s="11" t="s">
         <v>898</v>
@@ -29807,7 +29806,7 @@
         <v>233</v>
       </c>
       <c r="AO190" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AQ190" t="s">
         <v>164</v>
@@ -29828,7 +29827,7 @@
         <v>209</v>
       </c>
       <c r="AX190" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="191" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -29902,7 +29901,7 @@
         <v>216</v>
       </c>
       <c r="Z191" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AA191">
         <v>2</v>
@@ -29914,7 +29913,7 @@
         <v>3</v>
       </c>
       <c r="AD191" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AF191" s="20" t="s">
         <v>898</v>
@@ -29932,7 +29931,7 @@
         <v>233</v>
       </c>
       <c r="AO191" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AQ191" t="s">
         <v>164</v>
@@ -29944,7 +29943,7 @@
         <v>175</v>
       </c>
       <c r="AU191" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AV191" t="s">
         <v>199</v>
@@ -30024,7 +30023,7 @@
         <v>216</v>
       </c>
       <c r="Z192" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AA192">
         <v>2</v>
@@ -30036,7 +30035,7 @@
         <v>3</v>
       </c>
       <c r="AD192" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AF192" s="20" t="s">
         <v>898</v>
@@ -30054,7 +30053,7 @@
         <v>233</v>
       </c>
       <c r="AO192" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AQ192" t="s">
         <v>164</v>
@@ -30066,7 +30065,7 @@
         <v>175</v>
       </c>
       <c r="AU192" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AV192" t="s">
         <v>199</v>
@@ -30075,7 +30074,7 @@
         <v>208</v>
       </c>
       <c r="AX192" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="193" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30149,7 +30148,7 @@
         <v>216</v>
       </c>
       <c r="Z193" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AA193">
         <v>2</v>
@@ -30161,7 +30160,7 @@
         <v>3</v>
       </c>
       <c r="AD193" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AF193" s="11" t="s">
         <v>898</v>
@@ -30179,7 +30178,7 @@
         <v>233</v>
       </c>
       <c r="AO193" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ193" t="s">
         <v>164</v>
@@ -30191,10 +30190,10 @@
         <v>179</v>
       </c>
       <c r="AT193" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AU193" t="s">
         <v>1170</v>
-      </c>
-      <c r="AU193" t="s">
-        <v>1171</v>
       </c>
       <c r="AV193" t="s">
         <v>205</v>
@@ -30203,7 +30202,7 @@
         <v>207</v>
       </c>
       <c r="AX193" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="194" spans="1:50" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -30277,7 +30276,7 @@
         <v>216</v>
       </c>
       <c r="Z194" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AA194">
         <v>2</v>
@@ -30289,7 +30288,7 @@
         <v>3</v>
       </c>
       <c r="AD194" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AF194" s="20" t="s">
         <v>898</v>
@@ -30307,7 +30306,7 @@
         <v>233</v>
       </c>
       <c r="AO194" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ194" t="s">
         <v>164</v>
@@ -30319,10 +30318,10 @@
         <v>179</v>
       </c>
       <c r="AT194" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AU194" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AV194" t="s">
         <v>205</v>
@@ -30331,7 +30330,7 @@
         <v>207</v>
       </c>
       <c r="AX194" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="195" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30405,7 +30404,7 @@
         <v>216</v>
       </c>
       <c r="Z195" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AA195">
         <v>2</v>
@@ -30417,7 +30416,7 @@
         <v>3</v>
       </c>
       <c r="AD195" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AF195" s="20" t="s">
         <v>898</v>
@@ -30435,7 +30434,7 @@
         <v>233</v>
       </c>
       <c r="AO195" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ195" t="s">
         <v>164</v>
@@ -30447,10 +30446,10 @@
         <v>179</v>
       </c>
       <c r="AT195" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AU195" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AV195" t="s">
         <v>199</v>
@@ -30459,7 +30458,7 @@
         <v>209</v>
       </c>
       <c r="AX195" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="196" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30533,7 +30532,7 @@
         <v>69</v>
       </c>
       <c r="Z196" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AA196">
         <v>2</v>
@@ -30545,10 +30544,10 @@
         <v>2</v>
       </c>
       <c r="AD196" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AE196" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AF196" s="11" t="s">
         <v>898</v>
@@ -30566,10 +30565,10 @@
         <v>233</v>
       </c>
       <c r="AO196" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AP196" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AQ196" t="s">
         <v>164</v>
@@ -30578,7 +30577,7 @@
         <v>915</v>
       </c>
       <c r="AU196" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AV196" t="s">
         <v>204</v>
@@ -30587,7 +30586,7 @@
         <v>207</v>
       </c>
       <c r="AX196" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="197" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30661,25 +30660,25 @@
         <v>113</v>
       </c>
       <c r="Y197" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AA197">
+        <v>2</v>
+      </c>
+      <c r="AB197">
+        <v>2</v>
+      </c>
+      <c r="AC197">
+        <v>2</v>
+      </c>
+      <c r="AD197" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="Z197" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AA197">
-        <v>2</v>
-      </c>
-      <c r="AB197">
-        <v>2</v>
-      </c>
-      <c r="AC197">
-        <v>2</v>
-      </c>
-      <c r="AD197" s="4" t="s">
+      <c r="AE197" t="s">
         <v>1180</v>
-      </c>
-      <c r="AE197" t="s">
-        <v>1181</v>
       </c>
       <c r="AF197" s="20" t="s">
         <v>898</v>
@@ -30697,10 +30696,10 @@
         <v>233</v>
       </c>
       <c r="AO197" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AP197" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AQ197" t="s">
         <v>164</v>
@@ -30709,7 +30708,7 @@
         <v>915</v>
       </c>
       <c r="AU197" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AV197" t="s">
         <v>204</v>
@@ -30718,7 +30717,7 @@
         <v>207</v>
       </c>
       <c r="AX197" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="198" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30792,7 +30791,7 @@
         <v>69</v>
       </c>
       <c r="Z198" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AA198">
         <v>2</v>
@@ -30804,10 +30803,10 @@
         <v>2</v>
       </c>
       <c r="AD198" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AE198" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AF198" s="20" t="s">
         <v>898</v>
@@ -30825,10 +30824,10 @@
         <v>233</v>
       </c>
       <c r="AO198" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AP198" t="s">
         <v>1183</v>
-      </c>
-      <c r="AP198" t="s">
-        <v>1184</v>
       </c>
       <c r="AQ198" t="s">
         <v>164</v>
@@ -30837,7 +30836,7 @@
         <v>915</v>
       </c>
       <c r="AU198" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AV198" t="s">
         <v>204</v>
@@ -30846,7 +30845,7 @@
         <v>208</v>
       </c>
       <c r="AX198" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="199" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30920,25 +30919,25 @@
         <v>113</v>
       </c>
       <c r="Y199" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AA199">
+        <v>2</v>
+      </c>
+      <c r="AB199">
+        <v>2</v>
+      </c>
+      <c r="AC199">
+        <v>2</v>
+      </c>
+      <c r="AD199" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="Z199" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AA199">
-        <v>2</v>
-      </c>
-      <c r="AB199">
-        <v>2</v>
-      </c>
-      <c r="AC199">
-        <v>2</v>
-      </c>
-      <c r="AD199" s="4" t="s">
+      <c r="AE199" t="s">
         <v>1180</v>
-      </c>
-      <c r="AE199" t="s">
-        <v>1181</v>
       </c>
       <c r="AF199" s="20" t="s">
         <v>898</v>
@@ -30956,10 +30955,10 @@
         <v>233</v>
       </c>
       <c r="AO199" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AP199" t="s">
         <v>1183</v>
-      </c>
-      <c r="AP199" t="s">
-        <v>1184</v>
       </c>
       <c r="AQ199" t="s">
         <v>164</v>
@@ -30968,7 +30967,7 @@
         <v>915</v>
       </c>
       <c r="AU199" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AV199" t="s">
         <v>204</v>
@@ -30977,7 +30976,7 @@
         <v>208</v>
       </c>
       <c r="AX199" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="200" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31051,7 +31050,7 @@
         <v>69</v>
       </c>
       <c r="Z200" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AA200">
         <v>2</v>
@@ -31063,10 +31062,10 @@
         <v>2</v>
       </c>
       <c r="AD200" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AE200" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AF200" s="20" t="s">
         <v>898</v>
@@ -31087,7 +31086,7 @@
         <v>1012</v>
       </c>
       <c r="AP200" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AQ200" t="s">
         <v>164</v>
@@ -31096,7 +31095,7 @@
         <v>915</v>
       </c>
       <c r="AU200" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AV200" t="s">
         <v>204</v>
@@ -31105,7 +31104,7 @@
         <v>208</v>
       </c>
       <c r="AX200" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="201" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31179,25 +31178,25 @@
         <v>113</v>
       </c>
       <c r="Y201" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AA201">
+        <v>2</v>
+      </c>
+      <c r="AB201">
+        <v>2</v>
+      </c>
+      <c r="AC201">
+        <v>2</v>
+      </c>
+      <c r="AD201" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="Z201" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AA201">
-        <v>2</v>
-      </c>
-      <c r="AB201">
-        <v>2</v>
-      </c>
-      <c r="AC201">
-        <v>2</v>
-      </c>
-      <c r="AD201" s="4" t="s">
+      <c r="AE201" t="s">
         <v>1180</v>
-      </c>
-      <c r="AE201" t="s">
-        <v>1181</v>
       </c>
       <c r="AF201" s="20" t="s">
         <v>898</v>
@@ -31218,7 +31217,7 @@
         <v>1012</v>
       </c>
       <c r="AP201" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AQ201" t="s">
         <v>164</v>
@@ -31227,7 +31226,7 @@
         <v>915</v>
       </c>
       <c r="AU201" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AV201" t="s">
         <v>204</v>
@@ -31236,7 +31235,7 @@
         <v>208</v>
       </c>
       <c r="AX201" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="202" spans="1:50" x14ac:dyDescent="0.35">
@@ -31369,19 +31368,19 @@
         <v>71</v>
       </c>
       <c r="Z203" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AA203">
+        <v>2</v>
+      </c>
+      <c r="AB203">
+        <v>2</v>
+      </c>
+      <c r="AC203">
+        <v>2</v>
+      </c>
+      <c r="AD203" s="4" t="s">
         <v>1188</v>
-      </c>
-      <c r="AA203">
-        <v>2</v>
-      </c>
-      <c r="AB203">
-        <v>2</v>
-      </c>
-      <c r="AC203">
-        <v>2</v>
-      </c>
-      <c r="AD203" s="4" t="s">
-        <v>1189</v>
       </c>
       <c r="AF203" s="21">
         <v>4.2</v>
@@ -31399,7 +31398,7 @@
         <v>155</v>
       </c>
       <c r="AL203" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AM203" t="s">
         <v>232</v>
@@ -31408,7 +31407,7 @@
         <v>162</v>
       </c>
       <c r="AO203" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AQ203" t="s">
         <v>164</v>
@@ -31420,7 +31419,7 @@
         <v>188</v>
       </c>
       <c r="AU203" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AV203" t="s">
         <v>212</v>
@@ -31429,7 +31428,7 @@
         <v>207</v>
       </c>
       <c r="AX203" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="204" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31500,19 +31499,19 @@
         <v>69</v>
       </c>
       <c r="Z204" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AA204">
+        <v>2</v>
+      </c>
+      <c r="AB204">
+        <v>2</v>
+      </c>
+      <c r="AC204">
+        <v>2</v>
+      </c>
+      <c r="AD204" s="4" t="s">
         <v>1188</v>
-      </c>
-      <c r="AA204">
-        <v>2</v>
-      </c>
-      <c r="AB204">
-        <v>2</v>
-      </c>
-      <c r="AC204">
-        <v>2</v>
-      </c>
-      <c r="AD204" s="4" t="s">
-        <v>1189</v>
       </c>
       <c r="AF204" s="21">
         <v>4.2</v>
@@ -31530,7 +31529,7 @@
         <v>155</v>
       </c>
       <c r="AL204" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AM204" t="s">
         <v>232</v>
@@ -31539,7 +31538,7 @@
         <v>162</v>
       </c>
       <c r="AO204" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AQ204" t="s">
         <v>164</v>
@@ -31551,7 +31550,7 @@
         <v>188</v>
       </c>
       <c r="AU204" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AV204" t="s">
         <v>212</v>
@@ -31560,7 +31559,7 @@
         <v>207</v>
       </c>
       <c r="AX204" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="205" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31634,7 +31633,7 @@
         <v>69</v>
       </c>
       <c r="Z205" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA205">
         <v>2</v>
@@ -31646,7 +31645,7 @@
         <v>3</v>
       </c>
       <c r="AD205" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AF205" s="11" t="s">
         <v>898</v>
@@ -31667,7 +31666,7 @@
         <v>1011</v>
       </c>
       <c r="AP205" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AQ205" t="s">
         <v>164</v>
@@ -31679,10 +31678,10 @@
         <v>178</v>
       </c>
       <c r="AT205" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AU205" t="s">
         <v>1196</v>
-      </c>
-      <c r="AU205" t="s">
-        <v>1197</v>
       </c>
       <c r="AV205" t="s">
         <v>206</v>
@@ -31691,7 +31690,7 @@
         <v>209</v>
       </c>
       <c r="AX205" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="206" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31765,7 +31764,7 @@
         <v>216</v>
       </c>
       <c r="Z206" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA206">
         <v>2</v>
@@ -31777,7 +31776,7 @@
         <v>3</v>
       </c>
       <c r="AD206" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AF206" s="20" t="s">
         <v>898</v>
@@ -31798,7 +31797,7 @@
         <v>1011</v>
       </c>
       <c r="AP206" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AQ206" t="s">
         <v>164</v>
@@ -31810,10 +31809,10 @@
         <v>178</v>
       </c>
       <c r="AT206" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AU206" t="s">
         <v>1196</v>
-      </c>
-      <c r="AU206" t="s">
-        <v>1197</v>
       </c>
       <c r="AV206" t="s">
         <v>206</v>
@@ -31822,7 +31821,7 @@
         <v>209</v>
       </c>
       <c r="AX206" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="207" spans="1:50" x14ac:dyDescent="0.35">
@@ -31881,7 +31880,7 @@
         <v>84</v>
       </c>
       <c r="AE207" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AF207" s="11" t="s">
         <v>898</v>
@@ -31958,7 +31957,7 @@
         <v>69</v>
       </c>
       <c r="Z208" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA208" s="13">
         <v>2</v>
@@ -31970,7 +31969,7 @@
         <v>3</v>
       </c>
       <c r="AD208" s="22" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AF208" s="21" t="s">
         <v>899</v>
@@ -31985,7 +31984,7 @@
         <v>132</v>
       </c>
       <c r="AL208" s="13" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="AM208" s="13" t="s">
         <v>232</v>
@@ -31994,7 +31993,7 @@
         <v>162</v>
       </c>
       <c r="AO208" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AQ208" s="13" t="s">
         <v>164</v>
@@ -32003,7 +32002,7 @@
         <v>915</v>
       </c>
       <c r="AU208" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AV208" s="13" t="s">
         <v>238</v>
@@ -32012,7 +32011,7 @@
         <v>207</v>
       </c>
       <c r="AX208" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="209" spans="1:50" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -32086,7 +32085,7 @@
         <v>69</v>
       </c>
       <c r="Z209" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA209" s="13">
         <v>2</v>
@@ -32098,7 +32097,7 @@
         <v>3</v>
       </c>
       <c r="AD209" s="22" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AF209" s="21" t="s">
         <v>899</v>
@@ -32113,7 +32112,7 @@
         <v>132</v>
       </c>
       <c r="AL209" s="13" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="AM209" s="13" t="s">
         <v>232</v>
@@ -32122,7 +32121,7 @@
         <v>162</v>
       </c>
       <c r="AO209" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AQ209" s="13" t="s">
         <v>164</v>
@@ -32134,7 +32133,7 @@
         <v>177</v>
       </c>
       <c r="AU209" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AV209" s="13" t="s">
         <v>238</v>
@@ -32143,7 +32142,7 @@
         <v>207</v>
       </c>
       <c r="AX209" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="210" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -32202,7 +32201,7 @@
         <v>87</v>
       </c>
       <c r="AE210" s="13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AF210" s="21" t="s">
         <v>903</v>
@@ -32264,7 +32263,7 @@
         <v>86</v>
       </c>
       <c r="AE211" s="13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AF211" s="21" t="s">
         <v>903</v>
@@ -32341,7 +32340,7 @@
         <v>80</v>
       </c>
       <c r="Z212" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA212">
         <v>2</v>
@@ -32353,7 +32352,7 @@
         <v>3</v>
       </c>
       <c r="AD212" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF212" s="11" t="s">
         <v>904</v>
@@ -32368,13 +32367,13 @@
         <v>232</v>
       </c>
       <c r="AO212" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ212" t="s">
         <v>164</v>
       </c>
       <c r="AU212" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AV212" t="s">
         <v>203</v>
@@ -32383,7 +32382,7 @@
         <v>207</v>
       </c>
       <c r="AX212" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="213" spans="1:50" x14ac:dyDescent="0.35">
@@ -32457,7 +32456,7 @@
         <v>80</v>
       </c>
       <c r="Z213" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA213">
         <v>2</v>
@@ -32469,7 +32468,7 @@
         <v>3</v>
       </c>
       <c r="AD213" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF213" s="20" t="s">
         <v>904</v>
@@ -32484,13 +32483,13 @@
         <v>232</v>
       </c>
       <c r="AO213" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ213" t="s">
         <v>164</v>
       </c>
       <c r="AU213" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AV213" t="s">
         <v>203</v>
@@ -32499,7 +32498,7 @@
         <v>209</v>
       </c>
       <c r="AX213" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="214" spans="1:50" x14ac:dyDescent="0.35">
@@ -32573,7 +32572,7 @@
         <v>80</v>
       </c>
       <c r="Z214" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA214">
         <v>2</v>
@@ -32585,7 +32584,7 @@
         <v>3</v>
       </c>
       <c r="AD214" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF214" s="20" t="s">
         <v>904</v>
@@ -32603,7 +32602,7 @@
         <v>232</v>
       </c>
       <c r="AO214" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ214" t="s">
         <v>164</v>
@@ -32615,7 +32614,7 @@
         <v>192</v>
       </c>
       <c r="AU214" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AV214" t="s">
         <v>203</v>
@@ -32624,7 +32623,7 @@
         <v>208</v>
       </c>
       <c r="AX214" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="215" spans="1:50" x14ac:dyDescent="0.35">
@@ -32698,7 +32697,7 @@
         <v>80</v>
       </c>
       <c r="Z215" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA215">
         <v>2</v>
@@ -32710,7 +32709,7 @@
         <v>3</v>
       </c>
       <c r="AD215" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF215" s="20" t="s">
         <v>904</v>
@@ -32725,7 +32724,7 @@
         <v>144</v>
       </c>
       <c r="AL215" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AM215" t="s">
         <v>232</v>
@@ -32734,7 +32733,7 @@
         <v>160</v>
       </c>
       <c r="AO215" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ215" t="s">
         <v>164</v>
@@ -32746,7 +32745,7 @@
         <v>192</v>
       </c>
       <c r="AU215" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AV215" t="s">
         <v>203</v>
@@ -32755,7 +32754,7 @@
         <v>208</v>
       </c>
       <c r="AX215" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="216" spans="1:50" x14ac:dyDescent="0.35">
@@ -32829,7 +32828,7 @@
         <v>80</v>
       </c>
       <c r="Z216" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA216">
         <v>2</v>
@@ -32841,7 +32840,7 @@
         <v>3</v>
       </c>
       <c r="AD216" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF216" s="20" t="s">
         <v>904</v>
@@ -32859,7 +32858,7 @@
         <v>160</v>
       </c>
       <c r="AO216" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ216" t="s">
         <v>164</v>
@@ -32871,7 +32870,7 @@
         <v>192</v>
       </c>
       <c r="AU216" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AV216" t="s">
         <v>203</v>
@@ -32880,7 +32879,7 @@
         <v>208</v>
       </c>
       <c r="AX216" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="217" spans="1:50" x14ac:dyDescent="0.35">
@@ -32954,7 +32953,7 @@
         <v>80</v>
       </c>
       <c r="Z217" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA217">
         <v>2</v>
@@ -32966,7 +32965,7 @@
         <v>3</v>
       </c>
       <c r="AD217" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF217" s="20" t="s">
         <v>904</v>
@@ -32978,13 +32977,13 @@
         <v>117</v>
       </c>
       <c r="AL217" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AM217" t="s">
         <v>232</v>
       </c>
       <c r="AO217" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ217" t="s">
         <v>164</v>
@@ -32996,7 +32995,7 @@
         <v>188</v>
       </c>
       <c r="AU217" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AV217" t="s">
         <v>203</v>
@@ -33005,7 +33004,7 @@
         <v>208</v>
       </c>
       <c r="AX217" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="218" spans="1:50" x14ac:dyDescent="0.35">
@@ -33079,7 +33078,7 @@
         <v>80</v>
       </c>
       <c r="Z218" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA218">
         <v>2</v>
@@ -33091,7 +33090,7 @@
         <v>3</v>
       </c>
       <c r="AD218" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF218" s="20" t="s">
         <v>904</v>
@@ -33109,7 +33108,7 @@
         <v>162</v>
       </c>
       <c r="AO218" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ218" t="s">
         <v>164</v>
@@ -33121,7 +33120,7 @@
         <v>188</v>
       </c>
       <c r="AU218" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AV218" t="s">
         <v>203</v>
@@ -33130,7 +33129,7 @@
         <v>208</v>
       </c>
       <c r="AX218" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="219" spans="1:50" x14ac:dyDescent="0.35">
@@ -33204,7 +33203,7 @@
         <v>80</v>
       </c>
       <c r="Z219" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA219">
         <v>2</v>
@@ -33216,7 +33215,7 @@
         <v>3</v>
       </c>
       <c r="AD219" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF219" s="20" t="s">
         <v>904</v>
@@ -33231,7 +33230,7 @@
         <v>144</v>
       </c>
       <c r="AL219" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AM219" t="s">
         <v>232</v>
@@ -33240,7 +33239,7 @@
         <v>160</v>
       </c>
       <c r="AO219" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ219" t="s">
         <v>164</v>
@@ -33252,7 +33251,7 @@
         <v>188</v>
       </c>
       <c r="AU219" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AV219" t="s">
         <v>203</v>
@@ -33261,7 +33260,7 @@
         <v>208</v>
       </c>
       <c r="AX219" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="220" spans="1:50" x14ac:dyDescent="0.35">
@@ -33335,7 +33334,7 @@
         <v>80</v>
       </c>
       <c r="Z220" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA220">
         <v>2</v>
@@ -33347,7 +33346,7 @@
         <v>3</v>
       </c>
       <c r="AD220" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF220" s="20" t="s">
         <v>904</v>
@@ -33365,7 +33364,7 @@
         <v>232</v>
       </c>
       <c r="AO220" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ220" t="s">
         <v>164</v>
@@ -33377,7 +33376,7 @@
         <v>181</v>
       </c>
       <c r="AU220" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AV220" t="s">
         <v>203</v>
@@ -33386,7 +33385,7 @@
         <v>208</v>
       </c>
       <c r="AX220" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="221" spans="1:50" x14ac:dyDescent="0.35">
@@ -33460,7 +33459,7 @@
         <v>80</v>
       </c>
       <c r="Z221" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA221">
         <v>2</v>
@@ -33472,7 +33471,7 @@
         <v>3</v>
       </c>
       <c r="AD221" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF221" s="20" t="s">
         <v>904</v>
@@ -33484,7 +33483,7 @@
         <v>124</v>
       </c>
       <c r="AL221" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AM221" t="s">
         <v>232</v>
@@ -33493,7 +33492,7 @@
         <v>160</v>
       </c>
       <c r="AO221" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ221" t="s">
         <v>164</v>
@@ -33502,7 +33501,7 @@
         <v>915</v>
       </c>
       <c r="AU221" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AV221" t="s">
         <v>203</v>
@@ -33511,7 +33510,7 @@
         <v>208</v>
       </c>
       <c r="AX221" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="222" spans="1:50" x14ac:dyDescent="0.35">
@@ -33585,7 +33584,7 @@
         <v>80</v>
       </c>
       <c r="Z222" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AA222">
         <v>2</v>
@@ -33597,7 +33596,7 @@
         <v>3</v>
       </c>
       <c r="AD222" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF222" s="20" t="s">
         <v>904</v>
@@ -33609,13 +33608,13 @@
         <v>124</v>
       </c>
       <c r="AL222" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AM222" t="s">
         <v>232</v>
       </c>
       <c r="AO222" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AQ222" t="s">
         <v>164</v>
@@ -33624,7 +33623,7 @@
         <v>915</v>
       </c>
       <c r="AU222" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AV222" t="s">
         <v>203</v>
@@ -33633,7 +33632,7 @@
         <v>208</v>
       </c>
       <c r="AX222" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="223" spans="1:50" x14ac:dyDescent="0.35">
@@ -33692,7 +33691,7 @@
         <v>84</v>
       </c>
       <c r="AE223" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AF223" s="11" t="s">
         <v>903</v>
@@ -33760,7 +33759,7 @@
         <v>80</v>
       </c>
       <c r="Z224" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AA224">
         <v>2</v>
@@ -33772,7 +33771,7 @@
         <v>3</v>
       </c>
       <c r="AD224" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AF224" s="11" t="s">
         <v>898</v>
@@ -33790,7 +33789,7 @@
         <v>233</v>
       </c>
       <c r="AO224" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AQ224" t="s">
         <v>164</v>
@@ -33799,7 +33798,7 @@
         <v>915</v>
       </c>
       <c r="AU224" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AV224" t="s">
         <v>199</v>
@@ -33808,7 +33807,7 @@
         <v>208</v>
       </c>
       <c r="AX224" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="225" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -33873,7 +33872,7 @@
         <v>80</v>
       </c>
       <c r="Z225" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AA225">
         <v>2</v>
@@ -33885,7 +33884,7 @@
         <v>3</v>
       </c>
       <c r="AD225" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AF225" s="20" t="s">
         <v>898</v>
@@ -33903,7 +33902,7 @@
         <v>233</v>
       </c>
       <c r="AO225" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AQ225" t="s">
         <v>164</v>
@@ -33912,7 +33911,7 @@
         <v>915</v>
       </c>
       <c r="AU225" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AV225" t="s">
         <v>113</v>
@@ -33921,7 +33920,7 @@
         <v>209</v>
       </c>
       <c r="AX225" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="226" spans="1:50" x14ac:dyDescent="0.35">
@@ -33980,7 +33979,7 @@
         <v>84</v>
       </c>
       <c r="AE226" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AF226" s="11" t="s">
         <v>899</v>
@@ -34048,10 +34047,10 @@
         <v>113</v>
       </c>
       <c r="Y227" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Z227" s="13" t="s">
         <v>1233</v>
-      </c>
-      <c r="Z227" s="13" t="s">
-        <v>1234</v>
       </c>
       <c r="AA227" s="13">
         <v>2</v>
@@ -34075,13 +34074,13 @@
         <v>233</v>
       </c>
       <c r="AO227" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ227" s="13" t="s">
         <v>164</v>
       </c>
       <c r="AU227" s="13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AV227" s="13" t="s">
         <v>205</v>
@@ -34090,7 +34089,7 @@
         <v>208</v>
       </c>
       <c r="AX227" s="22" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="228" spans="1:50" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34155,10 +34154,10 @@
         <v>113</v>
       </c>
       <c r="Y228" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Z228" s="13" t="s">
         <v>1233</v>
-      </c>
-      <c r="Z228" s="13" t="s">
-        <v>1234</v>
       </c>
       <c r="AA228" s="13">
         <v>2</v>
@@ -34182,13 +34181,13 @@
         <v>233</v>
       </c>
       <c r="AO228" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ228" s="13" t="s">
         <v>164</v>
       </c>
       <c r="AU228" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AV228" s="13" t="s">
         <v>199</v>
@@ -34197,7 +34196,7 @@
         <v>208</v>
       </c>
       <c r="AX228" s="22" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="229" spans="1:50" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34262,10 +34261,10 @@
         <v>113</v>
       </c>
       <c r="Y229" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Z229" s="13" t="s">
         <v>1233</v>
-      </c>
-      <c r="Z229" s="13" t="s">
-        <v>1234</v>
       </c>
       <c r="AA229" s="13">
         <v>2</v>
@@ -34289,13 +34288,13 @@
         <v>233</v>
       </c>
       <c r="AO229" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ229" s="13" t="s">
         <v>164</v>
       </c>
       <c r="AU229" s="13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AV229" s="13" t="s">
         <v>113</v>
@@ -34304,7 +34303,7 @@
         <v>209</v>
       </c>
       <c r="AX229" s="22" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="230" spans="1:50" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34369,10 +34368,10 @@
         <v>113</v>
       </c>
       <c r="Y230" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Z230" s="13" t="s">
         <v>1233</v>
-      </c>
-      <c r="Z230" s="13" t="s">
-        <v>1234</v>
       </c>
       <c r="AA230" s="13">
         <v>2</v>
@@ -34396,13 +34395,13 @@
         <v>233</v>
       </c>
       <c r="AO230" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ230" s="13" t="s">
         <v>164</v>
       </c>
       <c r="AU230" s="13" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AV230" s="13" t="s">
         <v>113</v>
@@ -34411,7 +34410,7 @@
         <v>209</v>
       </c>
       <c r="AX230" s="22" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="231" spans="1:50" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34476,10 +34475,10 @@
         <v>113</v>
       </c>
       <c r="Y231" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Z231" s="13" t="s">
         <v>1233</v>
-      </c>
-      <c r="Z231" s="13" t="s">
-        <v>1234</v>
       </c>
       <c r="AA231" s="13">
         <v>2</v>
@@ -34503,13 +34502,13 @@
         <v>233</v>
       </c>
       <c r="AO231" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ231" s="13" t="s">
         <v>164</v>
       </c>
       <c r="AU231" s="13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AV231" s="13" t="s">
         <v>113</v>
@@ -34518,7 +34517,7 @@
         <v>209</v>
       </c>
       <c r="AX231" s="22" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="232" spans="1:50" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34583,10 +34582,10 @@
         <v>113</v>
       </c>
       <c r="Y232" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Z232" s="13" t="s">
         <v>1233</v>
-      </c>
-      <c r="Z232" s="13" t="s">
-        <v>1234</v>
       </c>
       <c r="AA232" s="13">
         <v>2</v>
@@ -34610,13 +34609,13 @@
         <v>233</v>
       </c>
       <c r="AO232" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ232" s="13" t="s">
         <v>164</v>
       </c>
       <c r="AU232" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AV232" s="13" t="s">
         <v>113</v>
@@ -34625,7 +34624,7 @@
         <v>209</v>
       </c>
       <c r="AX232" s="22" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="233" spans="1:50" s="13" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34699,7 +34698,7 @@
         <v>216</v>
       </c>
       <c r="Z233" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AA233" s="13">
         <v>2</v>
@@ -34711,7 +34710,7 @@
         <v>3</v>
       </c>
       <c r="AD233" s="22" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AF233" s="21" t="s">
         <v>898</v>
@@ -34732,13 +34731,13 @@
         <v>150</v>
       </c>
       <c r="AL233" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM233" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO233" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AQ233" s="13" t="s">
         <v>164</v>
@@ -34750,7 +34749,7 @@
         <v>176</v>
       </c>
       <c r="AU233" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AV233" s="13" t="s">
         <v>213</v>
@@ -34759,7 +34758,7 @@
         <v>208</v>
       </c>
       <c r="AX233" s="22" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="234" spans="1:50" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -34833,7 +34832,7 @@
         <v>71</v>
       </c>
       <c r="Z234" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AA234" s="13">
         <v>2</v>
@@ -34845,7 +34844,7 @@
         <v>3</v>
       </c>
       <c r="AD234" s="22" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AF234" s="21" t="s">
         <v>898</v>
@@ -34866,13 +34865,13 @@
         <v>150</v>
       </c>
       <c r="AL234" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM234" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO234" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AQ234" s="13" t="s">
         <v>164</v>
@@ -34884,7 +34883,7 @@
         <v>176</v>
       </c>
       <c r="AU234" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AV234" s="13" t="s">
         <v>213</v>
@@ -34893,7 +34892,7 @@
         <v>208</v>
       </c>
       <c r="AX234" s="22" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="235" spans="1:50" s="13" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34967,7 +34966,7 @@
         <v>216</v>
       </c>
       <c r="Z235" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AA235" s="13">
         <v>2</v>
@@ -34979,7 +34978,7 @@
         <v>3</v>
       </c>
       <c r="AD235" s="22" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AF235" s="21" t="s">
         <v>898</v>
@@ -35000,13 +34999,13 @@
         <v>150</v>
       </c>
       <c r="AL235" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM235" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO235" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AQ235" s="13" t="s">
         <v>164</v>
@@ -35018,7 +35017,7 @@
         <v>176</v>
       </c>
       <c r="AU235" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AV235" s="13" t="s">
         <v>213</v>
@@ -35027,7 +35026,7 @@
         <v>209</v>
       </c>
       <c r="AX235" s="22" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="236" spans="1:50" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -35101,7 +35100,7 @@
         <v>71</v>
       </c>
       <c r="Z236" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AA236" s="13">
         <v>2</v>
@@ -35113,7 +35112,7 @@
         <v>3</v>
       </c>
       <c r="AD236" s="22" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AF236" s="21" t="s">
         <v>898</v>
@@ -35134,13 +35133,13 @@
         <v>150</v>
       </c>
       <c r="AL236" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM236" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO236" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AQ236" s="13" t="s">
         <v>164</v>
@@ -35152,7 +35151,7 @@
         <v>176</v>
       </c>
       <c r="AU236" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AV236" s="13" t="s">
         <v>213</v>
@@ -35161,7 +35160,7 @@
         <v>209</v>
       </c>
       <c r="AX236" s="22" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="237" spans="1:50" s="13" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -35235,7 +35234,7 @@
         <v>216</v>
       </c>
       <c r="Z237" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AA237" s="13">
         <v>2</v>
@@ -35247,7 +35246,7 @@
         <v>3</v>
       </c>
       <c r="AD237" s="22" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AF237" s="21" t="s">
         <v>898</v>
@@ -35268,13 +35267,13 @@
         <v>150</v>
       </c>
       <c r="AL237" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM237" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO237" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AQ237" s="13" t="s">
         <v>164</v>
@@ -35286,7 +35285,7 @@
         <v>176</v>
       </c>
       <c r="AU237" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="AV237" s="13" t="s">
         <v>237</v>
@@ -35295,7 +35294,7 @@
         <v>208</v>
       </c>
       <c r="AX237" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="238" spans="1:50" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -35369,7 +35368,7 @@
         <v>71</v>
       </c>
       <c r="Z238" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AA238" s="13">
         <v>2</v>
@@ -35381,7 +35380,7 @@
         <v>3</v>
       </c>
       <c r="AD238" s="22" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AF238" s="21" t="s">
         <v>898</v>
@@ -35402,13 +35401,13 @@
         <v>150</v>
       </c>
       <c r="AL238" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AM238" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO238" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AQ238" s="13" t="s">
         <v>164</v>
@@ -35420,7 +35419,7 @@
         <v>176</v>
       </c>
       <c r="AU238" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="AV238" s="13" t="s">
         <v>237</v>
@@ -35429,7 +35428,7 @@
         <v>208</v>
       </c>
       <c r="AX238" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="239" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -35500,7 +35499,7 @@
         <v>72</v>
       </c>
       <c r="Z239" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AA239" s="13">
         <v>2</v>
@@ -35512,7 +35511,7 @@
         <v>2</v>
       </c>
       <c r="AD239" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AF239" s="21" t="s">
         <v>898</v>
@@ -35533,13 +35532,13 @@
         <v>141</v>
       </c>
       <c r="AL239" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AM239" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO239" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ239" s="13" t="s">
         <v>164</v>
@@ -35551,10 +35550,10 @@
         <v>176</v>
       </c>
       <c r="AT239" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AU239" s="13" t="s">
         <v>1258</v>
-      </c>
-      <c r="AU239" s="13" t="s">
-        <v>1259</v>
       </c>
       <c r="AV239" s="13" t="s">
         <v>202</v>
@@ -35563,7 +35562,7 @@
         <v>207</v>
       </c>
       <c r="AX239" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="240" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -35622,7 +35621,7 @@
         <v>84</v>
       </c>
       <c r="AE240" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AF240" s="21" t="s">
         <v>898</v>
@@ -35817,7 +35816,7 @@
         <v>216</v>
       </c>
       <c r="Z243" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AA243" s="13">
         <v>2</v>
@@ -35829,7 +35828,7 @@
         <v>3</v>
       </c>
       <c r="AD243" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AF243" s="21" t="s">
         <v>903</v>
@@ -35841,16 +35840,16 @@
         <v>116</v>
       </c>
       <c r="AL243" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AM243" s="13" t="s">
         <v>159</v>
       </c>
       <c r="AO243" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AP243" s="13" t="s">
         <v>1265</v>
-      </c>
-      <c r="AP243" s="13" t="s">
-        <v>1266</v>
       </c>
       <c r="AQ243" s="13" t="s">
         <v>164</v>
@@ -35859,7 +35858,7 @@
         <v>915</v>
       </c>
       <c r="AU243" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AV243" s="13" t="s">
         <v>212</v>
@@ -35868,7 +35867,7 @@
         <v>207</v>
       </c>
       <c r="AX243" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="244" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -35942,7 +35941,7 @@
         <v>216</v>
       </c>
       <c r="Z244" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AA244" s="13">
         <v>2</v>
@@ -35954,7 +35953,7 @@
         <v>3</v>
       </c>
       <c r="AD244" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AF244" s="21" t="s">
         <v>903</v>
@@ -35966,16 +35965,16 @@
         <v>116</v>
       </c>
       <c r="AL244" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AM244" s="13" t="s">
         <v>159</v>
       </c>
       <c r="AO244" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AP244" s="13" t="s">
         <v>1265</v>
-      </c>
-      <c r="AP244" s="13" t="s">
-        <v>1266</v>
       </c>
       <c r="AQ244" s="13" t="s">
         <v>164</v>
@@ -35984,7 +35983,7 @@
         <v>916</v>
       </c>
       <c r="AU244" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AV244" s="13" t="s">
         <v>212</v>
@@ -35993,7 +35992,7 @@
         <v>207</v>
       </c>
       <c r="AX244" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="245" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -36067,7 +36066,7 @@
         <v>69</v>
       </c>
       <c r="Z245" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AA245" s="13">
         <v>2</v>
@@ -36079,7 +36078,7 @@
         <v>3</v>
       </c>
       <c r="AD245" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AF245" s="21" t="s">
         <v>904</v>
@@ -36091,7 +36090,7 @@
         <v>117</v>
       </c>
       <c r="AL245" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AM245" s="13" t="s">
         <v>232</v>
@@ -36100,10 +36099,10 @@
         <v>161</v>
       </c>
       <c r="AO245" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AP245" s="13" t="s">
         <v>1271</v>
-      </c>
-      <c r="AP245" s="13" t="s">
-        <v>1272</v>
       </c>
       <c r="AQ245" s="13" t="s">
         <v>164</v>
@@ -36115,7 +36114,7 @@
         <v>176</v>
       </c>
       <c r="AU245" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AV245" s="13" t="s">
         <v>199</v>
@@ -36124,7 +36123,7 @@
         <v>208</v>
       </c>
       <c r="AX245" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="246" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -36198,7 +36197,7 @@
         <v>215</v>
       </c>
       <c r="Z246" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AA246" s="13">
         <v>2</v>
@@ -36210,7 +36209,7 @@
         <v>3</v>
       </c>
       <c r="AD246" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AF246" s="21" t="s">
         <v>904</v>
@@ -36222,7 +36221,7 @@
         <v>117</v>
       </c>
       <c r="AL246" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AM246" s="13" t="s">
         <v>232</v>
@@ -36231,10 +36230,10 @@
         <v>161</v>
       </c>
       <c r="AO246" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AP246" s="13" t="s">
         <v>1271</v>
-      </c>
-      <c r="AP246" s="13" t="s">
-        <v>1272</v>
       </c>
       <c r="AQ246" s="13" t="s">
         <v>164</v>
@@ -36246,7 +36245,7 @@
         <v>176</v>
       </c>
       <c r="AU246" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AV246" s="13" t="s">
         <v>199</v>
@@ -36255,7 +36254,7 @@
         <v>208</v>
       </c>
       <c r="AX246" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="247" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -36329,7 +36328,7 @@
         <v>69</v>
       </c>
       <c r="Z247" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AA247" s="13">
         <v>2</v>
@@ -36341,7 +36340,7 @@
         <v>3</v>
       </c>
       <c r="AD247" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AF247" s="21" t="s">
         <v>904</v>
@@ -36353,7 +36352,7 @@
         <v>220</v>
       </c>
       <c r="AL247" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="AM247" s="13" t="s">
         <v>232</v>
@@ -36362,10 +36361,10 @@
         <v>161</v>
       </c>
       <c r="AO247" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AP247" s="13" t="s">
         <v>1271</v>
-      </c>
-      <c r="AP247" s="13" t="s">
-        <v>1272</v>
       </c>
       <c r="AQ247" s="13" t="s">
         <v>164</v>
@@ -36377,7 +36376,7 @@
         <v>176</v>
       </c>
       <c r="AU247" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AV247" s="13" t="s">
         <v>199</v>
@@ -36386,7 +36385,7 @@
         <v>208</v>
       </c>
       <c r="AX247" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="248" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -36460,7 +36459,7 @@
         <v>215</v>
       </c>
       <c r="Z248" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AA248" s="13">
         <v>2</v>
@@ -36472,7 +36471,7 @@
         <v>3</v>
       </c>
       <c r="AD248" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AF248" s="21" t="s">
         <v>904</v>
@@ -36484,7 +36483,7 @@
         <v>220</v>
       </c>
       <c r="AL248" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="AM248" s="13" t="s">
         <v>232</v>
@@ -36493,10 +36492,10 @@
         <v>161</v>
       </c>
       <c r="AO248" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AP248" s="13" t="s">
         <v>1271</v>
-      </c>
-      <c r="AP248" s="13" t="s">
-        <v>1272</v>
       </c>
       <c r="AQ248" s="13" t="s">
         <v>164</v>
@@ -36508,7 +36507,7 @@
         <v>176</v>
       </c>
       <c r="AU248" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AV248" s="13" t="s">
         <v>199</v>
@@ -36517,7 +36516,7 @@
         <v>208</v>
       </c>
       <c r="AX248" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="249" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -36576,7 +36575,7 @@
         <v>84</v>
       </c>
       <c r="AE249" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AF249" s="21" t="s">
         <v>898</v>
@@ -36638,7 +36637,7 @@
         <v>84</v>
       </c>
       <c r="AE250" s="13" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AF250" s="21" t="s">
         <v>898</v>
@@ -36711,7 +36710,7 @@
         <v>72</v>
       </c>
       <c r="Z251" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA251" s="13">
         <v>2</v>
@@ -36723,7 +36722,7 @@
         <v>2</v>
       </c>
       <c r="AD251" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF251" s="21" t="s">
         <v>898</v>
@@ -36744,16 +36743,16 @@
         <v>134</v>
       </c>
       <c r="AL251" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM251" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO251" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP251" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP251" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ251" s="13" t="s">
         <v>164</v>
@@ -36765,10 +36764,10 @@
         <v>175</v>
       </c>
       <c r="AT251" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU251" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU251" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV251" s="13" t="s">
         <v>199</v>
@@ -36777,7 +36776,7 @@
         <v>208</v>
       </c>
       <c r="AX251" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="252" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -36847,7 +36846,7 @@
         <v>72</v>
       </c>
       <c r="Z252" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA252" s="13">
         <v>2</v>
@@ -36859,7 +36858,7 @@
         <v>2</v>
       </c>
       <c r="AD252" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF252" s="21" t="s">
         <v>898</v>
@@ -36880,16 +36879,16 @@
         <v>134</v>
       </c>
       <c r="AL252" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM252" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO252" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP252" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP252" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ252" s="13" t="s">
         <v>164</v>
@@ -36901,10 +36900,10 @@
         <v>175</v>
       </c>
       <c r="AT252" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU252" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU252" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV252" s="13" t="s">
         <v>199</v>
@@ -36913,7 +36912,7 @@
         <v>208</v>
       </c>
       <c r="AX252" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="253" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -36983,7 +36982,7 @@
         <v>216</v>
       </c>
       <c r="Z253" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA253" s="13">
         <v>2</v>
@@ -36995,7 +36994,7 @@
         <v>2</v>
       </c>
       <c r="AD253" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF253" s="21" t="s">
         <v>898</v>
@@ -37016,16 +37015,16 @@
         <v>134</v>
       </c>
       <c r="AL253" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM253" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO253" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP253" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP253" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ253" s="13" t="s">
         <v>164</v>
@@ -37037,10 +37036,10 @@
         <v>175</v>
       </c>
       <c r="AT253" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU253" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU253" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV253" s="13" t="s">
         <v>199</v>
@@ -37049,7 +37048,7 @@
         <v>208</v>
       </c>
       <c r="AX253" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="254" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -37119,7 +37118,7 @@
         <v>216</v>
       </c>
       <c r="Z254" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA254" s="13">
         <v>2</v>
@@ -37131,7 +37130,7 @@
         <v>2</v>
       </c>
       <c r="AD254" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF254" s="21" t="s">
         <v>898</v>
@@ -37152,16 +37151,16 @@
         <v>134</v>
       </c>
       <c r="AL254" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM254" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO254" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP254" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP254" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ254" s="13" t="s">
         <v>164</v>
@@ -37173,10 +37172,10 @@
         <v>175</v>
       </c>
       <c r="AT254" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU254" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU254" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV254" s="13" t="s">
         <v>199</v>
@@ -37185,7 +37184,7 @@
         <v>208</v>
       </c>
       <c r="AX254" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="255" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -37255,10 +37254,10 @@
         <v>113</v>
       </c>
       <c r="Y255" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z255" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA255" s="13">
         <v>2</v>
@@ -37270,7 +37269,7 @@
         <v>2</v>
       </c>
       <c r="AD255" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF255" s="21" t="s">
         <v>898</v>
@@ -37291,16 +37290,16 @@
         <v>134</v>
       </c>
       <c r="AL255" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM255" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO255" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP255" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP255" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ255" s="13" t="s">
         <v>164</v>
@@ -37312,10 +37311,10 @@
         <v>175</v>
       </c>
       <c r="AT255" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU255" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU255" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV255" s="13" t="s">
         <v>199</v>
@@ -37324,7 +37323,7 @@
         <v>208</v>
       </c>
       <c r="AX255" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="256" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -37394,10 +37393,10 @@
         <v>113</v>
       </c>
       <c r="Y256" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z256" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA256" s="13">
         <v>2</v>
@@ -37409,7 +37408,7 @@
         <v>2</v>
       </c>
       <c r="AD256" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF256" s="21" t="s">
         <v>898</v>
@@ -37430,16 +37429,16 @@
         <v>134</v>
       </c>
       <c r="AL256" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM256" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO256" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP256" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP256" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ256" s="13" t="s">
         <v>164</v>
@@ -37451,10 +37450,10 @@
         <v>175</v>
       </c>
       <c r="AT256" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU256" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU256" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV256" s="13" t="s">
         <v>199</v>
@@ -37463,7 +37462,7 @@
         <v>208</v>
       </c>
       <c r="AX256" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="257" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -37533,7 +37532,7 @@
         <v>69</v>
       </c>
       <c r="Z257" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA257" s="13">
         <v>2</v>
@@ -37545,7 +37544,7 @@
         <v>2</v>
       </c>
       <c r="AD257" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF257" s="21" t="s">
         <v>898</v>
@@ -37566,16 +37565,16 @@
         <v>134</v>
       </c>
       <c r="AL257" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM257" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO257" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP257" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP257" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ257" s="13" t="s">
         <v>164</v>
@@ -37587,10 +37586,10 @@
         <v>175</v>
       </c>
       <c r="AT257" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU257" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU257" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV257" s="13" t="s">
         <v>199</v>
@@ -37599,7 +37598,7 @@
         <v>208</v>
       </c>
       <c r="AX257" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="258" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -37669,7 +37668,7 @@
         <v>69</v>
       </c>
       <c r="Z258" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA258" s="13">
         <v>2</v>
@@ -37681,7 +37680,7 @@
         <v>2</v>
       </c>
       <c r="AD258" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF258" s="21" t="s">
         <v>898</v>
@@ -37702,16 +37701,16 @@
         <v>134</v>
       </c>
       <c r="AL258" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM258" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO258" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP258" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP258" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ258" s="13" t="s">
         <v>164</v>
@@ -37723,10 +37722,10 @@
         <v>175</v>
       </c>
       <c r="AT258" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU258" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU258" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV258" s="13" t="s">
         <v>199</v>
@@ -37735,7 +37734,7 @@
         <v>208</v>
       </c>
       <c r="AX258" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="259" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -37805,7 +37804,7 @@
         <v>72</v>
       </c>
       <c r="Z259" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA259" s="13">
         <v>2</v>
@@ -37817,7 +37816,7 @@
         <v>2</v>
       </c>
       <c r="AD259" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF259" s="21" t="s">
         <v>898</v>
@@ -37838,16 +37837,16 @@
         <v>141</v>
       </c>
       <c r="AL259" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM259" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO259" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP259" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP259" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ259" s="13" t="s">
         <v>164</v>
@@ -37859,10 +37858,10 @@
         <v>175</v>
       </c>
       <c r="AT259" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU259" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU259" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV259" s="13" t="s">
         <v>199</v>
@@ -37871,7 +37870,7 @@
         <v>208</v>
       </c>
       <c r="AX259" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="260" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -37941,7 +37940,7 @@
         <v>72</v>
       </c>
       <c r="Z260" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA260" s="13">
         <v>2</v>
@@ -37953,7 +37952,7 @@
         <v>2</v>
       </c>
       <c r="AD260" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF260" s="21" t="s">
         <v>898</v>
@@ -37974,16 +37973,16 @@
         <v>141</v>
       </c>
       <c r="AL260" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM260" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO260" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP260" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP260" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ260" s="13" t="s">
         <v>164</v>
@@ -37995,10 +37994,10 @@
         <v>175</v>
       </c>
       <c r="AT260" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU260" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU260" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV260" s="13" t="s">
         <v>199</v>
@@ -38007,7 +38006,7 @@
         <v>208</v>
       </c>
       <c r="AX260" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="261" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -38077,7 +38076,7 @@
         <v>216</v>
       </c>
       <c r="Z261" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA261" s="13">
         <v>2</v>
@@ -38089,7 +38088,7 @@
         <v>2</v>
       </c>
       <c r="AD261" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF261" s="21" t="s">
         <v>898</v>
@@ -38110,16 +38109,16 @@
         <v>141</v>
       </c>
       <c r="AL261" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM261" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO261" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP261" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP261" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ261" s="13" t="s">
         <v>164</v>
@@ -38131,10 +38130,10 @@
         <v>175</v>
       </c>
       <c r="AT261" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU261" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU261" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV261" s="13" t="s">
         <v>199</v>
@@ -38143,7 +38142,7 @@
         <v>208</v>
       </c>
       <c r="AX261" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="262" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -38213,7 +38212,7 @@
         <v>216</v>
       </c>
       <c r="Z262" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA262" s="13">
         <v>2</v>
@@ -38225,7 +38224,7 @@
         <v>2</v>
       </c>
       <c r="AD262" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF262" s="21" t="s">
         <v>898</v>
@@ -38246,16 +38245,16 @@
         <v>141</v>
       </c>
       <c r="AL262" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM262" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO262" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP262" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP262" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ262" s="13" t="s">
         <v>164</v>
@@ -38267,10 +38266,10 @@
         <v>175</v>
       </c>
       <c r="AT262" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU262" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU262" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV262" s="13" t="s">
         <v>199</v>
@@ -38279,7 +38278,7 @@
         <v>208</v>
       </c>
       <c r="AX262" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="263" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -38349,10 +38348,10 @@
         <v>113</v>
       </c>
       <c r="Y263" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z263" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA263" s="13">
         <v>2</v>
@@ -38364,7 +38363,7 @@
         <v>2</v>
       </c>
       <c r="AD263" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF263" s="21" t="s">
         <v>898</v>
@@ -38385,16 +38384,16 @@
         <v>141</v>
       </c>
       <c r="AL263" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM263" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO263" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP263" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP263" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ263" s="13" t="s">
         <v>164</v>
@@ -38406,10 +38405,10 @@
         <v>175</v>
       </c>
       <c r="AT263" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU263" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU263" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV263" s="13" t="s">
         <v>199</v>
@@ -38418,7 +38417,7 @@
         <v>208</v>
       </c>
       <c r="AX263" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="264" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -38488,10 +38487,10 @@
         <v>113</v>
       </c>
       <c r="Y264" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z264" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA264" s="13">
         <v>2</v>
@@ -38503,7 +38502,7 @@
         <v>2</v>
       </c>
       <c r="AD264" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF264" s="21" t="s">
         <v>898</v>
@@ -38524,16 +38523,16 @@
         <v>141</v>
       </c>
       <c r="AL264" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM264" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO264" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP264" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP264" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ264" s="13" t="s">
         <v>164</v>
@@ -38545,10 +38544,10 @@
         <v>175</v>
       </c>
       <c r="AT264" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU264" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU264" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV264" s="13" t="s">
         <v>199</v>
@@ -38557,7 +38556,7 @@
         <v>208</v>
       </c>
       <c r="AX264" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="265" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -38627,7 +38626,7 @@
         <v>69</v>
       </c>
       <c r="Z265" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA265" s="13">
         <v>2</v>
@@ -38639,7 +38638,7 @@
         <v>2</v>
       </c>
       <c r="AD265" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF265" s="21" t="s">
         <v>898</v>
@@ -38660,16 +38659,16 @@
         <v>141</v>
       </c>
       <c r="AL265" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM265" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO265" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP265" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP265" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ265" s="13" t="s">
         <v>164</v>
@@ -38681,10 +38680,10 @@
         <v>175</v>
       </c>
       <c r="AT265" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU265" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU265" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV265" s="13" t="s">
         <v>199</v>
@@ -38693,7 +38692,7 @@
         <v>208</v>
       </c>
       <c r="AX265" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="266" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -38763,7 +38762,7 @@
         <v>69</v>
       </c>
       <c r="Z266" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA266" s="13">
         <v>2</v>
@@ -38775,7 +38774,7 @@
         <v>2</v>
       </c>
       <c r="AD266" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF266" s="21" t="s">
         <v>898</v>
@@ -38796,16 +38795,16 @@
         <v>141</v>
       </c>
       <c r="AL266" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AM266" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO266" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP266" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP266" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ266" s="13" t="s">
         <v>164</v>
@@ -38817,10 +38816,10 @@
         <v>175</v>
       </c>
       <c r="AT266" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU266" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="AU266" s="13" t="s">
-        <v>1288</v>
       </c>
       <c r="AV266" s="13" t="s">
         <v>199</v>
@@ -38829,7 +38828,7 @@
         <v>208</v>
       </c>
       <c r="AX266" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="267" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -38899,7 +38898,7 @@
         <v>72</v>
       </c>
       <c r="Z267" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA267" s="13">
         <v>2</v>
@@ -38911,7 +38910,7 @@
         <v>2</v>
       </c>
       <c r="AD267" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF267" s="21" t="s">
         <v>898</v>
@@ -38932,16 +38931,16 @@
         <v>134</v>
       </c>
       <c r="AL267" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM267" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO267" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP267" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP267" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ267" s="13" t="s">
         <v>164</v>
@@ -38953,10 +38952,10 @@
         <v>175</v>
       </c>
       <c r="AT267" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU267" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV267" s="13" t="s">
         <v>199</v>
@@ -39032,7 +39031,7 @@
         <v>72</v>
       </c>
       <c r="Z268" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA268" s="13">
         <v>2</v>
@@ -39044,7 +39043,7 @@
         <v>2</v>
       </c>
       <c r="AD268" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF268" s="21" t="s">
         <v>898</v>
@@ -39065,16 +39064,16 @@
         <v>134</v>
       </c>
       <c r="AL268" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM268" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO268" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP268" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP268" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ268" s="13" t="s">
         <v>164</v>
@@ -39086,10 +39085,10 @@
         <v>175</v>
       </c>
       <c r="AT268" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU268" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV268" s="13" t="s">
         <v>199</v>
@@ -39165,7 +39164,7 @@
         <v>216</v>
       </c>
       <c r="Z269" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA269" s="13">
         <v>2</v>
@@ -39177,7 +39176,7 @@
         <v>2</v>
       </c>
       <c r="AD269" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF269" s="21" t="s">
         <v>898</v>
@@ -39198,16 +39197,16 @@
         <v>134</v>
       </c>
       <c r="AL269" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM269" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO269" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP269" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP269" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ269" s="13" t="s">
         <v>164</v>
@@ -39219,10 +39218,10 @@
         <v>175</v>
       </c>
       <c r="AT269" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU269" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV269" s="13" t="s">
         <v>199</v>
@@ -39298,7 +39297,7 @@
         <v>216</v>
       </c>
       <c r="Z270" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA270" s="13">
         <v>2</v>
@@ -39310,7 +39309,7 @@
         <v>2</v>
       </c>
       <c r="AD270" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF270" s="21" t="s">
         <v>898</v>
@@ -39331,16 +39330,16 @@
         <v>134</v>
       </c>
       <c r="AL270" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM270" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO270" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP270" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP270" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ270" s="13" t="s">
         <v>164</v>
@@ -39352,10 +39351,10 @@
         <v>175</v>
       </c>
       <c r="AT270" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU270" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV270" s="13" t="s">
         <v>199</v>
@@ -39431,10 +39430,10 @@
         <v>113</v>
       </c>
       <c r="Y271" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z271" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA271" s="13">
         <v>2</v>
@@ -39446,7 +39445,7 @@
         <v>2</v>
       </c>
       <c r="AD271" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF271" s="21" t="s">
         <v>898</v>
@@ -39467,16 +39466,16 @@
         <v>134</v>
       </c>
       <c r="AL271" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM271" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO271" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP271" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP271" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ271" s="13" t="s">
         <v>164</v>
@@ -39488,10 +39487,10 @@
         <v>175</v>
       </c>
       <c r="AT271" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU271" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV271" s="13" t="s">
         <v>199</v>
@@ -39567,10 +39566,10 @@
         <v>113</v>
       </c>
       <c r="Y272" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z272" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA272" s="13">
         <v>2</v>
@@ -39582,7 +39581,7 @@
         <v>2</v>
       </c>
       <c r="AD272" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF272" s="21" t="s">
         <v>898</v>
@@ -39603,16 +39602,16 @@
         <v>134</v>
       </c>
       <c r="AL272" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM272" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO272" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP272" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP272" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ272" s="13" t="s">
         <v>164</v>
@@ -39624,10 +39623,10 @@
         <v>175</v>
       </c>
       <c r="AT272" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU272" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV272" s="13" t="s">
         <v>199</v>
@@ -39703,7 +39702,7 @@
         <v>69</v>
       </c>
       <c r="Z273" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA273" s="13">
         <v>2</v>
@@ -39715,7 +39714,7 @@
         <v>2</v>
       </c>
       <c r="AD273" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF273" s="21" t="s">
         <v>898</v>
@@ -39736,16 +39735,16 @@
         <v>134</v>
       </c>
       <c r="AL273" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM273" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO273" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP273" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP273" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ273" s="13" t="s">
         <v>164</v>
@@ -39757,10 +39756,10 @@
         <v>175</v>
       </c>
       <c r="AT273" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU273" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV273" s="13" t="s">
         <v>199</v>
@@ -39836,7 +39835,7 @@
         <v>69</v>
       </c>
       <c r="Z274" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA274" s="13">
         <v>2</v>
@@ -39848,7 +39847,7 @@
         <v>2</v>
       </c>
       <c r="AD274" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF274" s="21" t="s">
         <v>898</v>
@@ -39869,16 +39868,16 @@
         <v>134</v>
       </c>
       <c r="AL274" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM274" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO274" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP274" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP274" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ274" s="13" t="s">
         <v>164</v>
@@ -39890,10 +39889,10 @@
         <v>175</v>
       </c>
       <c r="AT274" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU274" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV274" s="13" t="s">
         <v>199</v>
@@ -39969,7 +39968,7 @@
         <v>72</v>
       </c>
       <c r="Z275" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA275" s="13">
         <v>2</v>
@@ -39981,7 +39980,7 @@
         <v>2</v>
       </c>
       <c r="AD275" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF275" s="21" t="s">
         <v>898</v>
@@ -40002,16 +40001,16 @@
         <v>141</v>
       </c>
       <c r="AL275" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM275" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO275" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP275" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP275" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ275" s="13" t="s">
         <v>164</v>
@@ -40023,10 +40022,10 @@
         <v>175</v>
       </c>
       <c r="AT275" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU275" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV275" s="13" t="s">
         <v>199</v>
@@ -40102,7 +40101,7 @@
         <v>72</v>
       </c>
       <c r="Z276" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA276" s="13">
         <v>2</v>
@@ -40114,7 +40113,7 @@
         <v>2</v>
       </c>
       <c r="AD276" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF276" s="21" t="s">
         <v>898</v>
@@ -40135,16 +40134,16 @@
         <v>141</v>
       </c>
       <c r="AL276" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM276" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO276" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP276" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP276" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ276" s="13" t="s">
         <v>164</v>
@@ -40156,10 +40155,10 @@
         <v>175</v>
       </c>
       <c r="AT276" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU276" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV276" s="13" t="s">
         <v>199</v>
@@ -40235,7 +40234,7 @@
         <v>216</v>
       </c>
       <c r="Z277" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA277" s="13">
         <v>2</v>
@@ -40247,7 +40246,7 @@
         <v>2</v>
       </c>
       <c r="AD277" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF277" s="21" t="s">
         <v>898</v>
@@ -40268,16 +40267,16 @@
         <v>141</v>
       </c>
       <c r="AL277" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM277" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO277" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP277" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP277" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ277" s="13" t="s">
         <v>164</v>
@@ -40289,10 +40288,10 @@
         <v>175</v>
       </c>
       <c r="AT277" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU277" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV277" s="13" t="s">
         <v>199</v>
@@ -40368,7 +40367,7 @@
         <v>216</v>
       </c>
       <c r="Z278" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA278" s="13">
         <v>2</v>
@@ -40380,7 +40379,7 @@
         <v>2</v>
       </c>
       <c r="AD278" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF278" s="21" t="s">
         <v>898</v>
@@ -40401,16 +40400,16 @@
         <v>141</v>
       </c>
       <c r="AL278" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM278" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO278" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP278" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP278" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ278" s="13" t="s">
         <v>164</v>
@@ -40422,10 +40421,10 @@
         <v>175</v>
       </c>
       <c r="AT278" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU278" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV278" s="13" t="s">
         <v>199</v>
@@ -40501,10 +40500,10 @@
         <v>113</v>
       </c>
       <c r="Y279" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z279" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA279" s="13">
         <v>2</v>
@@ -40516,7 +40515,7 @@
         <v>2</v>
       </c>
       <c r="AD279" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF279" s="21" t="s">
         <v>898</v>
@@ -40537,16 +40536,16 @@
         <v>141</v>
       </c>
       <c r="AL279" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM279" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO279" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP279" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP279" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ279" s="13" t="s">
         <v>164</v>
@@ -40558,10 +40557,10 @@
         <v>175</v>
       </c>
       <c r="AT279" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU279" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV279" s="13" t="s">
         <v>199</v>
@@ -40637,10 +40636,10 @@
         <v>113</v>
       </c>
       <c r="Y280" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z280" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA280" s="13">
         <v>2</v>
@@ -40652,7 +40651,7 @@
         <v>2</v>
       </c>
       <c r="AD280" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF280" s="21" t="s">
         <v>898</v>
@@ -40673,16 +40672,16 @@
         <v>141</v>
       </c>
       <c r="AL280" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM280" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO280" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP280" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP280" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ280" s="13" t="s">
         <v>164</v>
@@ -40694,10 +40693,10 @@
         <v>175</v>
       </c>
       <c r="AT280" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU280" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV280" s="13" t="s">
         <v>199</v>
@@ -40773,7 +40772,7 @@
         <v>69</v>
       </c>
       <c r="Z281" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA281" s="13">
         <v>2</v>
@@ -40785,7 +40784,7 @@
         <v>2</v>
       </c>
       <c r="AD281" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF281" s="21" t="s">
         <v>898</v>
@@ -40806,16 +40805,16 @@
         <v>141</v>
       </c>
       <c r="AL281" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM281" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO281" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP281" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP281" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ281" s="13" t="s">
         <v>164</v>
@@ -40827,10 +40826,10 @@
         <v>175</v>
       </c>
       <c r="AT281" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU281" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV281" s="13" t="s">
         <v>199</v>
@@ -40906,7 +40905,7 @@
         <v>69</v>
       </c>
       <c r="Z282" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AA282" s="13">
         <v>2</v>
@@ -40918,7 +40917,7 @@
         <v>2</v>
       </c>
       <c r="AD282" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AF282" s="21" t="s">
         <v>898</v>
@@ -40939,16 +40938,16 @@
         <v>141</v>
       </c>
       <c r="AL282" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AM282" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AO282" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AP282" s="13" t="s">
         <v>1285</v>
-      </c>
-      <c r="AP282" s="13" t="s">
-        <v>1286</v>
       </c>
       <c r="AQ282" s="13" t="s">
         <v>164</v>
@@ -40960,10 +40959,10 @@
         <v>175</v>
       </c>
       <c r="AT282" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="AU282" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV282" s="13" t="s">
         <v>199</v>
@@ -41041,7 +41040,7 @@
         <v>69</v>
       </c>
       <c r="Z283" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="AA283" s="13">
         <v>2</v>
@@ -41053,7 +41052,7 @@
         <v>2</v>
       </c>
       <c r="AD283" s="22" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AF283" s="21" t="s">
         <v>899</v>
@@ -41074,10 +41073,10 @@
         <v>161</v>
       </c>
       <c r="AO283" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AP283" s="13" t="s">
         <v>1277</v>
-      </c>
-      <c r="AP283" s="13" t="s">
-        <v>1278</v>
       </c>
       <c r="AQ283" s="13" t="s">
         <v>164</v>
@@ -41089,10 +41088,10 @@
         <v>189</v>
       </c>
       <c r="AT283" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AU283" s="13" t="s">
         <v>1279</v>
-      </c>
-      <c r="AU283" s="13" t="s">
-        <v>1280</v>
       </c>
       <c r="AV283" s="13" t="s">
         <v>238</v>
@@ -41101,7 +41100,7 @@
         <v>207</v>
       </c>
       <c r="AX283" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="284" spans="1:50" s="13" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -41173,10 +41172,10 @@
         <v>113</v>
       </c>
       <c r="Y284" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Z284" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="AA284" s="13">
         <v>2</v>
@@ -41188,7 +41187,7 @@
         <v>3</v>
       </c>
       <c r="AD284" s="22" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AF284" s="21" t="s">
         <v>899</v>
@@ -41209,10 +41208,10 @@
         <v>160</v>
       </c>
       <c r="AO284" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AP284" s="13" t="s">
         <v>1277</v>
-      </c>
-      <c r="AP284" s="13" t="s">
-        <v>1278</v>
       </c>
       <c r="AQ284" s="13" t="s">
         <v>164</v>
@@ -41224,10 +41223,10 @@
         <v>189</v>
       </c>
       <c r="AT284" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AU284" s="13" t="s">
         <v>1279</v>
-      </c>
-      <c r="AU284" s="13" t="s">
-        <v>1280</v>
       </c>
       <c r="AV284" s="13" t="s">
         <v>238</v>
@@ -41236,7 +41235,7 @@
         <v>207</v>
       </c>
       <c r="AX284" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="285" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -41308,7 +41307,7 @@
         <v>216</v>
       </c>
       <c r="Z285" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AA285" s="13">
         <v>2</v>
@@ -41320,7 +41319,7 @@
         <v>3</v>
       </c>
       <c r="AD285" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="AF285" s="21" t="s">
         <v>903</v>
@@ -41341,7 +41340,7 @@
         <v>150</v>
       </c>
       <c r="AL285" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="AM285" s="13" t="s">
         <v>232</v>
@@ -41350,10 +41349,10 @@
         <v>160</v>
       </c>
       <c r="AO285" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AP285" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AQ285" s="13" t="s">
         <v>164</v>
@@ -41365,10 +41364,10 @@
         <v>189</v>
       </c>
       <c r="AT285" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AU285" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AV285" s="13" t="s">
         <v>199</v>
@@ -41377,7 +41376,7 @@
         <v>208</v>
       </c>
       <c r="AX285" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
   </sheetData>
@@ -43872,18 +43871,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43903,24 +43902,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Potier.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Potier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0725ED08-722A-4D62-B7AB-8DC5EC80F1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF14CE1-B39D-4356-ACAC-7D2C6751C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$291</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2303,7 +2303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10950" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10999" uniqueCount="1339">
   <si>
     <t>SearchID</t>
   </si>
@@ -5824,9 +5824,6 @@
     <t>GLM _ MDS _ BIOENV _ MDS plot</t>
   </si>
   <si>
-    <t>Absence of sievenets in the trawl</t>
-  </si>
-  <si>
     <t>trawls targeting brown shrimps (Crangon crangon)</t>
   </si>
   <si>
@@ -6078,32 +6075,7 @@
     <t>Number of species</t>
   </si>
   <si>
-    <t>"In summary, despite some suggestive patterns in the responses of number of individuals and species to fishing disturbance, none of the tests showed sta_x0002_tistically significant effects. We suspect this lack of
-significance is largely due to the low statistical power "</t>
-  </si>
-  <si>
     <t>Number of individuals</t>
-  </si>
-  <si>
-    <t>Overall response by habitat</t>
-  </si>
-  <si>
-    <t>Overall response by Class</t>
-  </si>
-  <si>
-    <t>Magnitude depends on the habitat (more negative and important on sand than on mud for example)</t>
-  </si>
-  <si>
-    <t>Magnitude depends on the class (more negative for Anthozoa and malacostraca in general for example)</t>
-  </si>
-  <si>
-    <t>Overall response by location</t>
-  </si>
-  <si>
-    <t>Magnitude depends on the location (more negative )</t>
-  </si>
-  <si>
-    <t>Patterns of recovery</t>
   </si>
   <si>
     <t>Magnitude depends on the gear type, the sediment type or the class</t>
@@ -6419,6 +6391,29 @@
   </si>
   <si>
     <t>beam trawl vs. baited trap</t>
+  </si>
+  <si>
+    <t>Use of sievenets in the trawl</t>
+  </si>
+  <si>
+    <t>Intertidal and scallop dredging</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>"In summary, despite some suggestive patterns in the responses of number of individuals and species to fishing disturbance, none of the tests showed statistically significant effects. We suspect this lack of significance is largely due to the low statistical power." Inter-tidal dredging
+has more marked initial effects than scallop dredging, which in turn is greater than otter trawling.
+Although, at first sight, the apparent lack of effect from beam trawling is somewhat surprising, we suspect that the relative paucity of data for this gear is almost certainly part of the explanation.</t>
+  </si>
+  <si>
+    <t>No trawling to estimate recovery</t>
+  </si>
+  <si>
+    <t>Habitat _ depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery rate </t>
   </si>
 </sst>
 </file>
@@ -6558,7 +6553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6604,7 +6599,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6891,10 +6885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX290"/>
+  <dimension ref="A1:AX291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT243" sqref="AT243"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J235" sqref="J235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7425,13 +7419,13 @@
         <v>150</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="AM6" t="s">
         <v>234</v>
       </c>
       <c r="AO6" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -7455,7 +7449,7 @@
         <v>209</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7556,13 +7550,13 @@
         <v>150</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="AM7" t="s">
         <v>234</v>
       </c>
       <c r="AO7" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -7586,7 +7580,7 @@
         <v>210</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7690,13 +7684,13 @@
         <v>150</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="AM8" t="s">
         <v>234</v>
       </c>
       <c r="AO8" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -7720,7 +7714,7 @@
         <v>210</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -7821,13 +7815,13 @@
         <v>150</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="AM9" t="s">
         <v>234</v>
       </c>
       <c r="AO9" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -7851,7 +7845,7 @@
         <v>210</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
@@ -8076,7 +8070,7 @@
         <v>120</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
@@ -8210,7 +8204,7 @@
         <v>118</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -8347,7 +8341,7 @@
         <v>130</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AM14" t="s">
         <v>232</v>
@@ -8481,7 +8475,7 @@
         <v>120</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AM15" t="s">
         <v>232</v>
@@ -8615,7 +8609,7 @@
         <v>118</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="AM16" t="s">
         <v>232</v>
@@ -8752,7 +8746,7 @@
         <v>130</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AM17" t="s">
         <v>232</v>
@@ -8886,7 +8880,7 @@
         <v>120</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AM18" t="s">
         <v>232</v>
@@ -9020,7 +9014,7 @@
         <v>118</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="AM19" t="s">
         <v>232</v>
@@ -9157,7 +9151,7 @@
         <v>130</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AM20" t="s">
         <v>232</v>
@@ -9291,7 +9285,7 @@
         <v>120</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AM21" t="s">
         <v>232</v>
@@ -9425,7 +9419,7 @@
         <v>118</v>
       </c>
       <c r="AL22" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="AM22" t="s">
         <v>232</v>
@@ -9562,7 +9556,7 @@
         <v>130</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AM23" t="s">
         <v>232</v>
@@ -9696,7 +9690,7 @@
         <v>120</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AM24" t="s">
         <v>232</v>
@@ -9830,7 +9824,7 @@
         <v>118</v>
       </c>
       <c r="AL25" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="AM25" t="s">
         <v>232</v>
@@ -9967,7 +9961,7 @@
         <v>130</v>
       </c>
       <c r="AL26" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AM26" t="s">
         <v>232</v>
@@ -10101,7 +10095,7 @@
         <v>120</v>
       </c>
       <c r="AL27" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AM27" t="s">
         <v>232</v>
@@ -10235,7 +10229,7 @@
         <v>118</v>
       </c>
       <c r="AL28" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="AM28" t="s">
         <v>232</v>
@@ -10372,7 +10366,7 @@
         <v>130</v>
       </c>
       <c r="AL29" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AM29" t="s">
         <v>232</v>
@@ -10506,7 +10500,7 @@
         <v>120</v>
       </c>
       <c r="AL30" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AM30" t="s">
         <v>232</v>
@@ -10640,7 +10634,7 @@
         <v>118</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
@@ -10777,7 +10771,7 @@
         <v>130</v>
       </c>
       <c r="AL32" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AM32" t="s">
         <v>232</v>
@@ -10911,7 +10905,7 @@
         <v>120</v>
       </c>
       <c r="AL33" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AM33" t="s">
         <v>232</v>
@@ -11045,7 +11039,7 @@
         <v>118</v>
       </c>
       <c r="AL34" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="AM34" t="s">
         <v>232</v>
@@ -11182,7 +11176,7 @@
         <v>130</v>
       </c>
       <c r="AL35" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -11931,7 +11925,7 @@
         <v>159</v>
       </c>
       <c r="AO42" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="AP42" t="s">
         <v>940</v>
@@ -12054,7 +12048,7 @@
         <v>159</v>
       </c>
       <c r="AO43" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="AP43" t="s">
         <v>940</v>
@@ -12177,7 +12171,7 @@
         <v>159</v>
       </c>
       <c r="AO44" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="AP44" t="s">
         <v>940</v>
@@ -12300,7 +12294,7 @@
         <v>159</v>
       </c>
       <c r="AO45" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="AP45" t="s">
         <v>940</v>
@@ -12423,7 +12417,7 @@
         <v>159</v>
       </c>
       <c r="AO46" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="AP46" t="s">
         <v>940</v>
@@ -12666,7 +12660,7 @@
         <v>147</v>
       </c>
       <c r="AL49" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="AM49" t="s">
         <v>232</v>
@@ -12925,7 +12919,7 @@
         <v>120</v>
       </c>
       <c r="AL51" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="AM51" t="s">
         <v>232</v>
@@ -12937,7 +12931,7 @@
         <v>955</v>
       </c>
       <c r="AP51" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="AQ51" t="s">
         <v>164</v>
@@ -12952,7 +12946,7 @@
         <v>956</v>
       </c>
       <c r="AU51" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="AV51" t="s">
         <v>113</v>
@@ -12961,7 +12955,7 @@
         <v>207</v>
       </c>
       <c r="AX51" s="13" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="52" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -13059,7 +13053,7 @@
         <v>120</v>
       </c>
       <c r="AL52" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="AM52" t="s">
         <v>232</v>
@@ -13068,10 +13062,10 @@
         <v>161</v>
       </c>
       <c r="AO52" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="AP52" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="AQ52" t="s">
         <v>164</v>
@@ -13086,7 +13080,7 @@
         <v>956</v>
       </c>
       <c r="AU52" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="AV52" t="s">
         <v>113</v>
@@ -13095,7 +13089,7 @@
         <v>208</v>
       </c>
       <c r="AX52" s="13" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="53" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16615,7 +16609,7 @@
         <v>124</v>
       </c>
       <c r="AL81" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM81" t="s">
         <v>232</v>
@@ -16740,7 +16734,7 @@
         <v>124</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM82" t="s">
         <v>232</v>
@@ -16865,7 +16859,7 @@
         <v>124</v>
       </c>
       <c r="AL83" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM83" t="s">
         <v>232</v>
@@ -16990,7 +16984,7 @@
         <v>124</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM84" t="s">
         <v>232</v>
@@ -17115,7 +17109,7 @@
         <v>124</v>
       </c>
       <c r="AL85" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM85" t="s">
         <v>232</v>
@@ -17240,7 +17234,7 @@
         <v>124</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM86" t="s">
         <v>232</v>
@@ -17365,7 +17359,7 @@
         <v>124</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM87" t="s">
         <v>232</v>
@@ -17490,7 +17484,7 @@
         <v>124</v>
       </c>
       <c r="AL88" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM88" t="s">
         <v>232</v>
@@ -17615,7 +17609,7 @@
         <v>124</v>
       </c>
       <c r="AL89" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM89" t="s">
         <v>232</v>
@@ -17740,7 +17734,7 @@
         <v>124</v>
       </c>
       <c r="AL90" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM90" t="s">
         <v>232</v>
@@ -17865,7 +17859,7 @@
         <v>124</v>
       </c>
       <c r="AL91" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM91" t="s">
         <v>232</v>
@@ -17990,7 +17984,7 @@
         <v>124</v>
       </c>
       <c r="AL92" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM92" t="s">
         <v>232</v>
@@ -18115,7 +18109,7 @@
         <v>124</v>
       </c>
       <c r="AL93" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM93" t="s">
         <v>232</v>
@@ -18240,7 +18234,7 @@
         <v>124</v>
       </c>
       <c r="AL94" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM94" t="s">
         <v>232</v>
@@ -18365,7 +18359,7 @@
         <v>124</v>
       </c>
       <c r="AL95" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM95" t="s">
         <v>232</v>
@@ -18490,7 +18484,7 @@
         <v>124</v>
       </c>
       <c r="AL96" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM96" t="s">
         <v>232</v>
@@ -18615,7 +18609,7 @@
         <v>124</v>
       </c>
       <c r="AL97" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM97" t="s">
         <v>232</v>
@@ -18740,7 +18734,7 @@
         <v>124</v>
       </c>
       <c r="AL98" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM98" t="s">
         <v>232</v>
@@ -18865,7 +18859,7 @@
         <v>124</v>
       </c>
       <c r="AL99" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM99" t="s">
         <v>232</v>
@@ -18990,7 +18984,7 @@
         <v>124</v>
       </c>
       <c r="AL100" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM100" t="s">
         <v>232</v>
@@ -19115,7 +19109,7 @@
         <v>124</v>
       </c>
       <c r="AL101" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM101" t="s">
         <v>232</v>
@@ -19240,7 +19234,7 @@
         <v>124</v>
       </c>
       <c r="AL102" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM102" t="s">
         <v>232</v>
@@ -19365,7 +19359,7 @@
         <v>124</v>
       </c>
       <c r="AL103" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="AM103" t="s">
         <v>232</v>
@@ -19490,7 +19484,7 @@
         <v>124</v>
       </c>
       <c r="AL104" s="4" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="AM104" t="s">
         <v>232</v>
@@ -19618,7 +19612,7 @@
         <v>144</v>
       </c>
       <c r="AL105" s="4" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="AM105" t="s">
         <v>234</v>
@@ -19743,7 +19737,7 @@
         <v>144</v>
       </c>
       <c r="AL106" s="4" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="AM106" t="s">
         <v>234</v>
@@ -19868,7 +19862,7 @@
         <v>144</v>
       </c>
       <c r="AL107" s="4" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="AM107" t="s">
         <v>234</v>
@@ -20774,7 +20768,7 @@
         <v>232</v>
       </c>
       <c r="AO117" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="AQ117" t="s">
         <v>164</v>
@@ -20897,7 +20891,7 @@
         <v>232</v>
       </c>
       <c r="AO118" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="AQ118" t="s">
         <v>164</v>
@@ -21020,7 +21014,7 @@
         <v>232</v>
       </c>
       <c r="AO119" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="AQ119" t="s">
         <v>164</v>
@@ -21512,7 +21506,7 @@
         <v>232</v>
       </c>
       <c r="AO123" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="AQ123" t="s">
         <v>164</v>
@@ -21530,7 +21524,7 @@
         <v>210</v>
       </c>
       <c r="AX123" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="124" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -22022,7 +22016,7 @@
         <v>155</v>
       </c>
       <c r="AL128" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AM128" t="s">
         <v>232</v>
@@ -22162,7 +22156,7 @@
         <v>155</v>
       </c>
       <c r="AL129" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="AM129" t="s">
         <v>232</v>
@@ -22302,7 +22296,7 @@
         <v>155</v>
       </c>
       <c r="AL130" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="AM130" t="s">
         <v>232</v>
@@ -22439,7 +22433,7 @@
         <v>155</v>
       </c>
       <c r="AL131" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="AM131" t="s">
         <v>232</v>
@@ -22567,7 +22561,7 @@
         <v>118</v>
       </c>
       <c r="AL132" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="AM132" t="s">
         <v>233</v>
@@ -22695,7 +22689,7 @@
         <v>144</v>
       </c>
       <c r="AL133" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="AM133" t="s">
         <v>232</v>
@@ -22823,7 +22817,7 @@
         <v>144</v>
       </c>
       <c r="AL134" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="AM134" t="s">
         <v>232</v>
@@ -22954,7 +22948,7 @@
         <v>144</v>
       </c>
       <c r="AL135" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="AM135" t="s">
         <v>232</v>
@@ -23341,7 +23335,7 @@
         <v>150</v>
       </c>
       <c r="AU138" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="AV138" t="s">
         <v>205</v>
@@ -23466,7 +23460,7 @@
         <v>150</v>
       </c>
       <c r="AU139" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="AV139" t="s">
         <v>205</v>
@@ -23641,7 +23635,7 @@
         <v>155</v>
       </c>
       <c r="AL141" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="AM141" t="s">
         <v>232</v>
@@ -23772,7 +23766,7 @@
         <v>155</v>
       </c>
       <c r="AL142" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="AM142" t="s">
         <v>232</v>
@@ -23903,7 +23897,7 @@
         <v>155</v>
       </c>
       <c r="AL143" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="AM143" t="s">
         <v>232</v>
@@ -24034,7 +24028,7 @@
         <v>155</v>
       </c>
       <c r="AL144" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="AM144" t="s">
         <v>232</v>
@@ -24165,7 +24159,7 @@
         <v>155</v>
       </c>
       <c r="AL145" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="AM145" t="s">
         <v>232</v>
@@ -24296,7 +24290,7 @@
         <v>155</v>
       </c>
       <c r="AL146" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="AM146" t="s">
         <v>232</v>
@@ -24427,7 +24421,7 @@
         <v>155</v>
       </c>
       <c r="AL147" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="AM147" t="s">
         <v>232</v>
@@ -24558,7 +24552,7 @@
         <v>155</v>
       </c>
       <c r="AL148" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="AM148" t="s">
         <v>232</v>
@@ -27110,7 +27104,7 @@
         <v>147</v>
       </c>
       <c r="AL170" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="AM170" t="s">
         <v>232</v>
@@ -27244,7 +27238,7 @@
         <v>147</v>
       </c>
       <c r="AL171" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="AM171" t="s">
         <v>232</v>
@@ -27378,7 +27372,7 @@
         <v>147</v>
       </c>
       <c r="AL172" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="AM172" t="s">
         <v>232</v>
@@ -27512,7 +27506,7 @@
         <v>147</v>
       </c>
       <c r="AL173" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="AM173" t="s">
         <v>232</v>
@@ -27646,7 +27640,7 @@
         <v>134</v>
       </c>
       <c r="AL174" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM174" t="s">
         <v>233</v>
@@ -27780,7 +27774,7 @@
         <v>134</v>
       </c>
       <c r="AL175" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM175" t="s">
         <v>233</v>
@@ -27914,7 +27908,7 @@
         <v>134</v>
       </c>
       <c r="AL176" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM176" t="s">
         <v>233</v>
@@ -28048,7 +28042,7 @@
         <v>134</v>
       </c>
       <c r="AL177" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM177" t="s">
         <v>233</v>
@@ -28182,7 +28176,7 @@
         <v>134</v>
       </c>
       <c r="AL178" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM178" t="s">
         <v>233</v>
@@ -28316,7 +28310,7 @@
         <v>134</v>
       </c>
       <c r="AL179" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM179" t="s">
         <v>233</v>
@@ -28450,7 +28444,7 @@
         <v>134</v>
       </c>
       <c r="AL180" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM180" t="s">
         <v>233</v>
@@ -28584,7 +28578,7 @@
         <v>134</v>
       </c>
       <c r="AL181" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM181" t="s">
         <v>233</v>
@@ -28718,7 +28712,7 @@
         <v>134</v>
       </c>
       <c r="AL182" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM182" t="s">
         <v>233</v>
@@ -28852,7 +28846,7 @@
         <v>134</v>
       </c>
       <c r="AL183" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM183" t="s">
         <v>233</v>
@@ -28986,7 +28980,7 @@
         <v>134</v>
       </c>
       <c r="AL184" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM184" t="s">
         <v>233</v>
@@ -29120,7 +29114,7 @@
         <v>134</v>
       </c>
       <c r="AL185" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM185" t="s">
         <v>233</v>
@@ -29254,7 +29248,7 @@
         <v>134</v>
       </c>
       <c r="AL186" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM186" t="s">
         <v>233</v>
@@ -29388,7 +29382,7 @@
         <v>134</v>
       </c>
       <c r="AL187" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM187" t="s">
         <v>233</v>
@@ -29522,7 +29516,7 @@
         <v>134</v>
       </c>
       <c r="AL188" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM188" t="s">
         <v>233</v>
@@ -29656,7 +29650,7 @@
         <v>134</v>
       </c>
       <c r="AL189" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM189" t="s">
         <v>233</v>
@@ -29790,7 +29784,7 @@
         <v>134</v>
       </c>
       <c r="AL190" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM190" t="s">
         <v>233</v>
@@ -29921,7 +29915,7 @@
         <v>134</v>
       </c>
       <c r="AL191" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM191" t="s">
         <v>233</v>
@@ -30052,7 +30046,7 @@
         <v>134</v>
       </c>
       <c r="AL192" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM192" t="s">
         <v>233</v>
@@ -30183,7 +30177,7 @@
         <v>134</v>
       </c>
       <c r="AL193" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="AM193" t="s">
         <v>233</v>
@@ -30287,7 +30281,7 @@
         <v>216</v>
       </c>
       <c r="Z194" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AA194">
         <v>2</v>
@@ -30299,7 +30293,7 @@
         <v>3</v>
       </c>
       <c r="AD194" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AF194" s="9" t="s">
         <v>903</v>
@@ -30311,7 +30305,7 @@
         <v>117</v>
       </c>
       <c r="AL194" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="AM194" t="s">
         <v>232</v>
@@ -30320,7 +30314,7 @@
         <v>161</v>
       </c>
       <c r="AO194" t="s">
-        <v>1151</v>
+        <v>1332</v>
       </c>
       <c r="AQ194" t="s">
         <v>164</v>
@@ -30329,19 +30323,19 @@
         <v>915</v>
       </c>
       <c r="AT194" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AU194" t="s">
         <v>1152</v>
-      </c>
-      <c r="AU194" t="s">
-        <v>1153</v>
       </c>
       <c r="AV194" t="s">
         <v>238</v>
       </c>
       <c r="AW194" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX194" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="195" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30415,7 +30409,7 @@
         <v>216</v>
       </c>
       <c r="Z195" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AA195">
         <v>2</v>
@@ -30427,7 +30421,7 @@
         <v>3</v>
       </c>
       <c r="AD195" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AF195" s="9" t="s">
         <v>898</v>
@@ -30466,7 +30460,7 @@
         <v>209</v>
       </c>
       <c r="AX195" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="196" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30540,7 +30534,7 @@
         <v>216</v>
       </c>
       <c r="Z196" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AA196">
         <v>2</v>
@@ -30552,7 +30546,7 @@
         <v>3</v>
       </c>
       <c r="AD196" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AF196" s="9" t="s">
         <v>898</v>
@@ -30582,7 +30576,7 @@
         <v>175</v>
       </c>
       <c r="AU196" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV196" t="s">
         <v>199</v>
@@ -30662,7 +30656,7 @@
         <v>216</v>
       </c>
       <c r="Z197" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AA197">
         <v>2</v>
@@ -30674,7 +30668,7 @@
         <v>3</v>
       </c>
       <c r="AD197" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AF197" s="9" t="s">
         <v>898</v>
@@ -30704,7 +30698,7 @@
         <v>175</v>
       </c>
       <c r="AU197" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AV197" t="s">
         <v>199</v>
@@ -30713,7 +30707,7 @@
         <v>208</v>
       </c>
       <c r="AX197" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="198" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -30787,7 +30781,7 @@
         <v>216</v>
       </c>
       <c r="Z198" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AA198">
         <v>2</v>
@@ -30799,7 +30793,7 @@
         <v>3</v>
       </c>
       <c r="AD198" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AF198" s="9" t="s">
         <v>898</v>
@@ -30817,7 +30811,7 @@
         <v>233</v>
       </c>
       <c r="AO198" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AQ198" t="s">
         <v>164</v>
@@ -30829,10 +30823,10 @@
         <v>179</v>
       </c>
       <c r="AT198" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AU198" t="s">
         <v>1165</v>
-      </c>
-      <c r="AU198" t="s">
-        <v>1166</v>
       </c>
       <c r="AV198" t="s">
         <v>205</v>
@@ -30841,7 +30835,7 @@
         <v>207</v>
       </c>
       <c r="AX198" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="199" spans="1:50" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -30915,7 +30909,7 @@
         <v>216</v>
       </c>
       <c r="Z199" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AA199">
         <v>2</v>
@@ -30927,7 +30921,7 @@
         <v>3</v>
       </c>
       <c r="AD199" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AF199" s="9" t="s">
         <v>898</v>
@@ -30945,7 +30939,7 @@
         <v>233</v>
       </c>
       <c r="AO199" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AQ199" t="s">
         <v>164</v>
@@ -30957,10 +30951,10 @@
         <v>179</v>
       </c>
       <c r="AT199" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AU199" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AV199" t="s">
         <v>205</v>
@@ -30969,7 +30963,7 @@
         <v>207</v>
       </c>
       <c r="AX199" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="200" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31043,7 +31037,7 @@
         <v>216</v>
       </c>
       <c r="Z200" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AA200">
         <v>2</v>
@@ -31055,7 +31049,7 @@
         <v>3</v>
       </c>
       <c r="AD200" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AF200" s="9" t="s">
         <v>898</v>
@@ -31073,7 +31067,7 @@
         <v>233</v>
       </c>
       <c r="AO200" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AQ200" t="s">
         <v>164</v>
@@ -31085,10 +31079,10 @@
         <v>179</v>
       </c>
       <c r="AT200" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AU200" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AV200" t="s">
         <v>199</v>
@@ -31097,7 +31091,7 @@
         <v>209</v>
       </c>
       <c r="AX200" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="201" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31171,7 +31165,7 @@
         <v>69</v>
       </c>
       <c r="Z201" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AA201">
         <v>2</v>
@@ -31183,10 +31177,10 @@
         <v>2</v>
       </c>
       <c r="AD201" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AE201" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AF201" s="9" t="s">
         <v>898</v>
@@ -31204,10 +31198,10 @@
         <v>233</v>
       </c>
       <c r="AO201" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AP201" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AQ201" t="s">
         <v>164</v>
@@ -31216,7 +31210,7 @@
         <v>915</v>
       </c>
       <c r="AU201" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AV201" t="s">
         <v>204</v>
@@ -31225,7 +31219,7 @@
         <v>207</v>
       </c>
       <c r="AX201" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="202" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31299,25 +31293,25 @@
         <v>113</v>
       </c>
       <c r="Y202" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AA202">
+        <v>2</v>
+      </c>
+      <c r="AB202">
+        <v>2</v>
+      </c>
+      <c r="AC202">
+        <v>2</v>
+      </c>
+      <c r="AD202" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="Z202" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AA202">
-        <v>2</v>
-      </c>
-      <c r="AB202">
-        <v>2</v>
-      </c>
-      <c r="AC202">
-        <v>2</v>
-      </c>
-      <c r="AD202" s="4" t="s">
+      <c r="AE202" t="s">
         <v>1175</v>
-      </c>
-      <c r="AE202" t="s">
-        <v>1176</v>
       </c>
       <c r="AF202" s="9" t="s">
         <v>898</v>
@@ -31335,10 +31329,10 @@
         <v>233</v>
       </c>
       <c r="AO202" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AP202" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AQ202" t="s">
         <v>164</v>
@@ -31347,7 +31341,7 @@
         <v>915</v>
       </c>
       <c r="AU202" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AV202" t="s">
         <v>204</v>
@@ -31356,7 +31350,7 @@
         <v>207</v>
       </c>
       <c r="AX202" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="203" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31430,7 +31424,7 @@
         <v>69</v>
       </c>
       <c r="Z203" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AA203">
         <v>2</v>
@@ -31442,10 +31436,10 @@
         <v>2</v>
       </c>
       <c r="AD203" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AE203" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AF203" s="9" t="s">
         <v>898</v>
@@ -31463,10 +31457,10 @@
         <v>233</v>
       </c>
       <c r="AO203" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AP203" t="s">
         <v>1178</v>
-      </c>
-      <c r="AP203" t="s">
-        <v>1179</v>
       </c>
       <c r="AQ203" t="s">
         <v>164</v>
@@ -31475,7 +31469,7 @@
         <v>915</v>
       </c>
       <c r="AU203" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AV203" t="s">
         <v>204</v>
@@ -31484,7 +31478,7 @@
         <v>208</v>
       </c>
       <c r="AX203" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="204" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31558,25 +31552,25 @@
         <v>113</v>
       </c>
       <c r="Y204" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AA204">
+        <v>2</v>
+      </c>
+      <c r="AB204">
+        <v>2</v>
+      </c>
+      <c r="AC204">
+        <v>2</v>
+      </c>
+      <c r="AD204" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="Z204" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AA204">
-        <v>2</v>
-      </c>
-      <c r="AB204">
-        <v>2</v>
-      </c>
-      <c r="AC204">
-        <v>2</v>
-      </c>
-      <c r="AD204" s="4" t="s">
+      <c r="AE204" t="s">
         <v>1175</v>
-      </c>
-      <c r="AE204" t="s">
-        <v>1176</v>
       </c>
       <c r="AF204" s="9" t="s">
         <v>898</v>
@@ -31594,10 +31588,10 @@
         <v>233</v>
       </c>
       <c r="AO204" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AP204" t="s">
         <v>1178</v>
-      </c>
-      <c r="AP204" t="s">
-        <v>1179</v>
       </c>
       <c r="AQ204" t="s">
         <v>164</v>
@@ -31606,7 +31600,7 @@
         <v>915</v>
       </c>
       <c r="AU204" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AV204" t="s">
         <v>204</v>
@@ -31615,7 +31609,7 @@
         <v>208</v>
       </c>
       <c r="AX204" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="205" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31689,7 +31683,7 @@
         <v>69</v>
       </c>
       <c r="Z205" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AA205">
         <v>2</v>
@@ -31701,10 +31695,10 @@
         <v>2</v>
       </c>
       <c r="AD205" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AE205" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AF205" s="9" t="s">
         <v>898</v>
@@ -31725,7 +31719,7 @@
         <v>1009</v>
       </c>
       <c r="AP205" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AQ205" t="s">
         <v>164</v>
@@ -31734,7 +31728,7 @@
         <v>915</v>
       </c>
       <c r="AU205" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AV205" t="s">
         <v>204</v>
@@ -31743,7 +31737,7 @@
         <v>208</v>
       </c>
       <c r="AX205" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="206" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -31817,25 +31811,25 @@
         <v>113</v>
       </c>
       <c r="Y206" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AA206">
+        <v>2</v>
+      </c>
+      <c r="AB206">
+        <v>2</v>
+      </c>
+      <c r="AC206">
+        <v>2</v>
+      </c>
+      <c r="AD206" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="Z206" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AA206">
-        <v>2</v>
-      </c>
-      <c r="AB206">
-        <v>2</v>
-      </c>
-      <c r="AC206">
-        <v>2</v>
-      </c>
-      <c r="AD206" s="4" t="s">
+      <c r="AE206" t="s">
         <v>1175</v>
-      </c>
-      <c r="AE206" t="s">
-        <v>1176</v>
       </c>
       <c r="AF206" s="9" t="s">
         <v>898</v>
@@ -31856,7 +31850,7 @@
         <v>1009</v>
       </c>
       <c r="AP206" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AQ206" t="s">
         <v>164</v>
@@ -31865,7 +31859,7 @@
         <v>915</v>
       </c>
       <c r="AU206" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AV206" t="s">
         <v>204</v>
@@ -31874,7 +31868,7 @@
         <v>208</v>
       </c>
       <c r="AX206" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="207" spans="1:50" x14ac:dyDescent="0.35">
@@ -32007,19 +32001,19 @@
         <v>71</v>
       </c>
       <c r="Z208" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AA208">
+        <v>2</v>
+      </c>
+      <c r="AB208">
+        <v>2</v>
+      </c>
+      <c r="AC208">
+        <v>2</v>
+      </c>
+      <c r="AD208" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="AA208">
-        <v>2</v>
-      </c>
-      <c r="AB208">
-        <v>2</v>
-      </c>
-      <c r="AC208">
-        <v>2</v>
-      </c>
-      <c r="AD208" s="4" t="s">
-        <v>1184</v>
       </c>
       <c r="AF208" s="9">
         <v>4.2</v>
@@ -32037,7 +32031,7 @@
         <v>155</v>
       </c>
       <c r="AL208" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="AM208" t="s">
         <v>232</v>
@@ -32046,7 +32040,7 @@
         <v>162</v>
       </c>
       <c r="AO208" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AQ208" t="s">
         <v>164</v>
@@ -32058,7 +32052,7 @@
         <v>188</v>
       </c>
       <c r="AU208" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AV208" t="s">
         <v>212</v>
@@ -32067,7 +32061,7 @@
         <v>207</v>
       </c>
       <c r="AX208" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="209" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -32138,19 +32132,19 @@
         <v>69</v>
       </c>
       <c r="Z209" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AA209">
+        <v>2</v>
+      </c>
+      <c r="AB209">
+        <v>2</v>
+      </c>
+      <c r="AC209">
+        <v>2</v>
+      </c>
+      <c r="AD209" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="AA209">
-        <v>2</v>
-      </c>
-      <c r="AB209">
-        <v>2</v>
-      </c>
-      <c r="AC209">
-        <v>2</v>
-      </c>
-      <c r="AD209" s="4" t="s">
-        <v>1184</v>
       </c>
       <c r="AF209" s="9">
         <v>4.2</v>
@@ -32168,7 +32162,7 @@
         <v>155</v>
       </c>
       <c r="AL209" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="AM209" t="s">
         <v>232</v>
@@ -32177,7 +32171,7 @@
         <v>162</v>
       </c>
       <c r="AO209" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AQ209" t="s">
         <v>164</v>
@@ -32189,7 +32183,7 @@
         <v>188</v>
       </c>
       <c r="AU209" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AV209" t="s">
         <v>212</v>
@@ -32198,7 +32192,7 @@
         <v>207</v>
       </c>
       <c r="AX209" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="210" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -32272,7 +32266,7 @@
         <v>69</v>
       </c>
       <c r="Z210" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AA210">
         <v>2</v>
@@ -32284,7 +32278,7 @@
         <v>3</v>
       </c>
       <c r="AD210" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AF210" s="9" t="s">
         <v>898</v>
@@ -32305,7 +32299,7 @@
         <v>1008</v>
       </c>
       <c r="AP210" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AQ210" t="s">
         <v>164</v>
@@ -32317,10 +32311,10 @@
         <v>178</v>
       </c>
       <c r="AT210" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AU210" t="s">
         <v>1191</v>
-      </c>
-      <c r="AU210" t="s">
-        <v>1192</v>
       </c>
       <c r="AV210" t="s">
         <v>206</v>
@@ -32329,7 +32323,7 @@
         <v>209</v>
       </c>
       <c r="AX210" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="211" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -32403,7 +32397,7 @@
         <v>216</v>
       </c>
       <c r="Z211" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AA211">
         <v>2</v>
@@ -32415,7 +32409,7 @@
         <v>3</v>
       </c>
       <c r="AD211" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AF211" s="9" t="s">
         <v>898</v>
@@ -32436,7 +32430,7 @@
         <v>1008</v>
       </c>
       <c r="AP211" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AQ211" t="s">
         <v>164</v>
@@ -32448,10 +32442,10 @@
         <v>178</v>
       </c>
       <c r="AT211" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AU211" t="s">
         <v>1191</v>
-      </c>
-      <c r="AU211" t="s">
-        <v>1192</v>
       </c>
       <c r="AV211" t="s">
         <v>206</v>
@@ -32460,7 +32454,7 @@
         <v>209</v>
       </c>
       <c r="AX211" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="212" spans="1:50" x14ac:dyDescent="0.35">
@@ -32519,7 +32513,7 @@
         <v>84</v>
       </c>
       <c r="AE212" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AF212" s="9" t="s">
         <v>898</v>
@@ -32596,7 +32590,7 @@
         <v>69</v>
       </c>
       <c r="Z213" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AA213">
         <v>2</v>
@@ -32608,7 +32602,7 @@
         <v>3</v>
       </c>
       <c r="AD213" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AF213" s="9" t="s">
         <v>899</v>
@@ -32623,7 +32617,7 @@
         <v>132</v>
       </c>
       <c r="AL213" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="AM213" t="s">
         <v>232</v>
@@ -32632,7 +32626,7 @@
         <v>162</v>
       </c>
       <c r="AO213" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AQ213" t="s">
         <v>164</v>
@@ -32641,7 +32635,7 @@
         <v>915</v>
       </c>
       <c r="AU213" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AV213" t="s">
         <v>238</v>
@@ -32650,7 +32644,7 @@
         <v>207</v>
       </c>
       <c r="AX213" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="214" spans="1:50" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -32724,7 +32718,7 @@
         <v>69</v>
       </c>
       <c r="Z214" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AA214">
         <v>2</v>
@@ -32736,7 +32730,7 @@
         <v>3</v>
       </c>
       <c r="AD214" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AF214" s="9" t="s">
         <v>899</v>
@@ -32751,7 +32745,7 @@
         <v>132</v>
       </c>
       <c r="AL214" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="AM214" t="s">
         <v>232</v>
@@ -32760,7 +32754,7 @@
         <v>162</v>
       </c>
       <c r="AO214" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AQ214" t="s">
         <v>164</v>
@@ -32772,7 +32766,7 @@
         <v>177</v>
       </c>
       <c r="AU214" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AV214" t="s">
         <v>238</v>
@@ -32781,7 +32775,7 @@
         <v>207</v>
       </c>
       <c r="AX214" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="215" spans="1:50" x14ac:dyDescent="0.35">
@@ -32840,7 +32834,7 @@
         <v>87</v>
       </c>
       <c r="AE215" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AF215" s="9" t="s">
         <v>903</v>
@@ -32902,7 +32896,7 @@
         <v>86</v>
       </c>
       <c r="AE216" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AF216" s="9" t="s">
         <v>903</v>
@@ -32979,7 +32973,7 @@
         <v>80</v>
       </c>
       <c r="Z217" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA217">
         <v>2</v>
@@ -32991,7 +32985,7 @@
         <v>3</v>
       </c>
       <c r="AD217" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF217" s="9" t="s">
         <v>904</v>
@@ -33006,13 +33000,13 @@
         <v>232</v>
       </c>
       <c r="AO217" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AQ217" t="s">
         <v>164</v>
       </c>
       <c r="AU217" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AV217" t="s">
         <v>203</v>
@@ -33021,7 +33015,7 @@
         <v>207</v>
       </c>
       <c r="AX217" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="218" spans="1:50" x14ac:dyDescent="0.35">
@@ -33095,7 +33089,7 @@
         <v>80</v>
       </c>
       <c r="Z218" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA218">
         <v>2</v>
@@ -33107,7 +33101,7 @@
         <v>3</v>
       </c>
       <c r="AD218" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF218" s="9" t="s">
         <v>904</v>
@@ -33122,13 +33116,13 @@
         <v>232</v>
       </c>
       <c r="AO218" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ218" t="s">
         <v>164</v>
       </c>
       <c r="AU218" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AV218" t="s">
         <v>203</v>
@@ -33137,7 +33131,7 @@
         <v>209</v>
       </c>
       <c r="AX218" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="219" spans="1:50" x14ac:dyDescent="0.35">
@@ -33211,7 +33205,7 @@
         <v>80</v>
       </c>
       <c r="Z219" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA219">
         <v>2</v>
@@ -33223,7 +33217,7 @@
         <v>3</v>
       </c>
       <c r="AD219" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF219" s="9" t="s">
         <v>904</v>
@@ -33241,7 +33235,7 @@
         <v>232</v>
       </c>
       <c r="AO219" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ219" t="s">
         <v>164</v>
@@ -33253,7 +33247,7 @@
         <v>192</v>
       </c>
       <c r="AU219" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AV219" t="s">
         <v>203</v>
@@ -33262,7 +33256,7 @@
         <v>208</v>
       </c>
       <c r="AX219" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="220" spans="1:50" x14ac:dyDescent="0.35">
@@ -33336,7 +33330,7 @@
         <v>80</v>
       </c>
       <c r="Z220" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA220">
         <v>2</v>
@@ -33348,7 +33342,7 @@
         <v>3</v>
       </c>
       <c r="AD220" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF220" s="9" t="s">
         <v>904</v>
@@ -33363,7 +33357,7 @@
         <v>144</v>
       </c>
       <c r="AL220" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="AM220" t="s">
         <v>232</v>
@@ -33372,7 +33366,7 @@
         <v>160</v>
       </c>
       <c r="AO220" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ220" t="s">
         <v>164</v>
@@ -33384,7 +33378,7 @@
         <v>192</v>
       </c>
       <c r="AU220" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AV220" t="s">
         <v>203</v>
@@ -33393,7 +33387,7 @@
         <v>208</v>
       </c>
       <c r="AX220" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="221" spans="1:50" x14ac:dyDescent="0.35">
@@ -33467,7 +33461,7 @@
         <v>80</v>
       </c>
       <c r="Z221" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA221">
         <v>2</v>
@@ -33479,7 +33473,7 @@
         <v>3</v>
       </c>
       <c r="AD221" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF221" s="9" t="s">
         <v>904</v>
@@ -33497,7 +33491,7 @@
         <v>160</v>
       </c>
       <c r="AO221" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ221" t="s">
         <v>164</v>
@@ -33509,7 +33503,7 @@
         <v>192</v>
       </c>
       <c r="AU221" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AV221" t="s">
         <v>203</v>
@@ -33518,7 +33512,7 @@
         <v>208</v>
       </c>
       <c r="AX221" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="222" spans="1:50" x14ac:dyDescent="0.35">
@@ -33592,7 +33586,7 @@
         <v>80</v>
       </c>
       <c r="Z222" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA222">
         <v>2</v>
@@ -33604,7 +33598,7 @@
         <v>3</v>
       </c>
       <c r="AD222" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF222" s="9" t="s">
         <v>904</v>
@@ -33616,13 +33610,13 @@
         <v>117</v>
       </c>
       <c r="AL222" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AM222" t="s">
         <v>232</v>
       </c>
       <c r="AO222" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ222" t="s">
         <v>164</v>
@@ -33634,7 +33628,7 @@
         <v>188</v>
       </c>
       <c r="AU222" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AV222" t="s">
         <v>203</v>
@@ -33643,7 +33637,7 @@
         <v>208</v>
       </c>
       <c r="AX222" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="223" spans="1:50" x14ac:dyDescent="0.35">
@@ -33717,7 +33711,7 @@
         <v>80</v>
       </c>
       <c r="Z223" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA223">
         <v>2</v>
@@ -33729,7 +33723,7 @@
         <v>3</v>
       </c>
       <c r="AD223" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF223" s="9" t="s">
         <v>904</v>
@@ -33747,7 +33741,7 @@
         <v>162</v>
       </c>
       <c r="AO223" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ223" t="s">
         <v>164</v>
@@ -33759,7 +33753,7 @@
         <v>188</v>
       </c>
       <c r="AU223" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AV223" t="s">
         <v>203</v>
@@ -33768,7 +33762,7 @@
         <v>208</v>
       </c>
       <c r="AX223" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="224" spans="1:50" x14ac:dyDescent="0.35">
@@ -33842,7 +33836,7 @@
         <v>80</v>
       </c>
       <c r="Z224" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA224">
         <v>2</v>
@@ -33854,7 +33848,7 @@
         <v>3</v>
       </c>
       <c r="AD224" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF224" s="9" t="s">
         <v>904</v>
@@ -33869,7 +33863,7 @@
         <v>144</v>
       </c>
       <c r="AL224" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="AM224" t="s">
         <v>232</v>
@@ -33878,7 +33872,7 @@
         <v>160</v>
       </c>
       <c r="AO224" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ224" t="s">
         <v>164</v>
@@ -33890,7 +33884,7 @@
         <v>188</v>
       </c>
       <c r="AU224" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AV224" t="s">
         <v>203</v>
@@ -33899,7 +33893,7 @@
         <v>208</v>
       </c>
       <c r="AX224" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="225" spans="1:50" x14ac:dyDescent="0.35">
@@ -33973,7 +33967,7 @@
         <v>80</v>
       </c>
       <c r="Z225" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA225">
         <v>2</v>
@@ -33985,7 +33979,7 @@
         <v>3</v>
       </c>
       <c r="AD225" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF225" s="9" t="s">
         <v>904</v>
@@ -34003,7 +33997,7 @@
         <v>232</v>
       </c>
       <c r="AO225" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ225" t="s">
         <v>164</v>
@@ -34015,7 +34009,7 @@
         <v>181</v>
       </c>
       <c r="AU225" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AV225" t="s">
         <v>203</v>
@@ -34024,7 +34018,7 @@
         <v>208</v>
       </c>
       <c r="AX225" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="226" spans="1:50" x14ac:dyDescent="0.35">
@@ -34098,7 +34092,7 @@
         <v>80</v>
       </c>
       <c r="Z226" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA226">
         <v>2</v>
@@ -34110,7 +34104,7 @@
         <v>3</v>
       </c>
       <c r="AD226" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF226" s="9" t="s">
         <v>904</v>
@@ -34122,7 +34116,7 @@
         <v>124</v>
       </c>
       <c r="AL226" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AM226" t="s">
         <v>232</v>
@@ -34131,7 +34125,7 @@
         <v>160</v>
       </c>
       <c r="AO226" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ226" t="s">
         <v>164</v>
@@ -34140,7 +34134,7 @@
         <v>915</v>
       </c>
       <c r="AU226" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AV226" t="s">
         <v>203</v>
@@ -34149,7 +34143,7 @@
         <v>208</v>
       </c>
       <c r="AX226" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="227" spans="1:50" x14ac:dyDescent="0.35">
@@ -34223,7 +34217,7 @@
         <v>80</v>
       </c>
       <c r="Z227" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AA227">
         <v>2</v>
@@ -34235,7 +34229,7 @@
         <v>3</v>
       </c>
       <c r="AD227" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AF227" s="9" t="s">
         <v>904</v>
@@ -34247,13 +34241,13 @@
         <v>124</v>
       </c>
       <c r="AL227" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AM227" t="s">
         <v>232</v>
       </c>
       <c r="AO227" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AQ227" t="s">
         <v>164</v>
@@ -34262,7 +34256,7 @@
         <v>915</v>
       </c>
       <c r="AU227" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AV227" t="s">
         <v>203</v>
@@ -34271,7 +34265,7 @@
         <v>208</v>
       </c>
       <c r="AX227" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="228" spans="1:50" x14ac:dyDescent="0.35">
@@ -34330,7 +34324,7 @@
         <v>84</v>
       </c>
       <c r="AE228" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AF228" s="9" t="s">
         <v>903</v>
@@ -34398,7 +34392,7 @@
         <v>80</v>
       </c>
       <c r="Z229" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AA229">
         <v>2</v>
@@ -34410,7 +34404,7 @@
         <v>3</v>
       </c>
       <c r="AD229" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF229" s="9" t="s">
         <v>898</v>
@@ -34428,7 +34422,7 @@
         <v>233</v>
       </c>
       <c r="AO229" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AQ229" t="s">
         <v>164</v>
@@ -34437,7 +34431,7 @@
         <v>915</v>
       </c>
       <c r="AU229" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AV229" t="s">
         <v>199</v>
@@ -34446,7 +34440,7 @@
         <v>208</v>
       </c>
       <c r="AX229" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="230" spans="1:50" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34511,7 +34505,7 @@
         <v>80</v>
       </c>
       <c r="Z230" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AA230">
         <v>2</v>
@@ -34523,7 +34517,7 @@
         <v>3</v>
       </c>
       <c r="AD230" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AF230" s="9" t="s">
         <v>898</v>
@@ -34541,10 +34535,10 @@
         <v>233</v>
       </c>
       <c r="AO230" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="AP230" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="AQ230" t="s">
         <v>164</v>
@@ -34553,7 +34547,7 @@
         <v>915</v>
       </c>
       <c r="AU230" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="AV230" t="s">
         <v>113</v>
@@ -34562,7 +34556,7 @@
         <v>209</v>
       </c>
       <c r="AX230" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="231" spans="1:50" x14ac:dyDescent="0.35">
@@ -34621,7 +34615,7 @@
         <v>84</v>
       </c>
       <c r="AE231" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AF231" s="9" t="s">
         <v>899</v>
@@ -34689,10 +34683,10 @@
         <v>113</v>
       </c>
       <c r="Y232" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Z232" t="s">
         <v>1226</v>
-      </c>
-      <c r="Z232" t="s">
-        <v>1227</v>
       </c>
       <c r="AA232">
         <v>2</v>
@@ -34716,13 +34710,22 @@
         <v>233</v>
       </c>
       <c r="AO232" t="s">
-        <v>1164</v>
+        <v>1163</v>
+      </c>
+      <c r="AP232" t="s">
+        <v>1334</v>
       </c>
       <c r="AQ232" t="s">
         <v>164</v>
       </c>
+      <c r="AR232" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT232" t="s">
+        <v>1333</v>
+      </c>
       <c r="AU232" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AV232" t="s">
         <v>205</v>
@@ -34731,7 +34734,7 @@
         <v>208</v>
       </c>
       <c r="AX232" s="4" t="s">
-        <v>1229</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="233" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34796,10 +34799,10 @@
         <v>113</v>
       </c>
       <c r="Y233" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Z233" t="s">
         <v>1226</v>
-      </c>
-      <c r="Z233" t="s">
-        <v>1227</v>
       </c>
       <c r="AA233">
         <v>2</v>
@@ -34823,22 +34826,31 @@
         <v>233</v>
       </c>
       <c r="AO233" t="s">
-        <v>1164</v>
+        <v>1163</v>
+      </c>
+      <c r="AP233" t="s">
+        <v>1334</v>
       </c>
       <c r="AQ233" t="s">
         <v>164</v>
       </c>
+      <c r="AR233" t="s">
+        <v>915</v>
+      </c>
+      <c r="AS233" t="s">
+        <v>175</v>
+      </c>
       <c r="AU233" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="AV233" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW233" t="s">
         <v>208</v>
       </c>
       <c r="AX233" s="4" t="s">
-        <v>1229</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="234" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -34903,10 +34915,10 @@
         <v>113</v>
       </c>
       <c r="Y234" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Z234" t="s">
         <v>1226</v>
-      </c>
-      <c r="Z234" t="s">
-        <v>1227</v>
       </c>
       <c r="AA234">
         <v>2</v>
@@ -34930,22 +34942,31 @@
         <v>233</v>
       </c>
       <c r="AO234" t="s">
-        <v>1164</v>
+        <v>1163</v>
+      </c>
+      <c r="AP234" t="s">
+        <v>1334</v>
       </c>
       <c r="AQ234" t="s">
         <v>164</v>
       </c>
+      <c r="AR234" t="s">
+        <v>915</v>
+      </c>
+      <c r="AS234" t="s">
+        <v>176</v>
+      </c>
       <c r="AU234" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="AV234" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="AW234" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX234" s="4" t="s">
-        <v>1233</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="235" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -35010,10 +35031,10 @@
         <v>113</v>
       </c>
       <c r="Y235" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Z235" t="s">
         <v>1226</v>
-      </c>
-      <c r="Z235" t="s">
-        <v>1227</v>
       </c>
       <c r="AA235">
         <v>2</v>
@@ -35037,22 +35058,28 @@
         <v>233</v>
       </c>
       <c r="AO235" t="s">
-        <v>1164</v>
+        <v>1163</v>
+      </c>
+      <c r="AP235" t="s">
+        <v>1334</v>
       </c>
       <c r="AQ235" t="s">
         <v>164</v>
       </c>
+      <c r="AR235" t="s">
+        <v>168</v>
+      </c>
       <c r="AU235" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="AV235" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW235" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX235" s="4" t="s">
-        <v>1234</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="236" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -35117,10 +35144,10 @@
         <v>113</v>
       </c>
       <c r="Y236" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Z236" t="s">
         <v>1226</v>
-      </c>
-      <c r="Z236" t="s">
-        <v>1227</v>
       </c>
       <c r="AA236">
         <v>2</v>
@@ -35144,22 +35171,31 @@
         <v>233</v>
       </c>
       <c r="AO236" t="s">
-        <v>1164</v>
+        <v>1163</v>
+      </c>
+      <c r="AP236" t="s">
+        <v>1334</v>
       </c>
       <c r="AQ236" t="s">
         <v>164</v>
       </c>
+      <c r="AR236" t="s">
+        <v>915</v>
+      </c>
+      <c r="AS236" t="s">
+        <v>175</v>
+      </c>
       <c r="AU236" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="AV236" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW236" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX236" s="4" t="s">
-        <v>1236</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="237" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -35224,10 +35260,10 @@
         <v>113</v>
       </c>
       <c r="Y237" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Z237" t="s">
         <v>1226</v>
-      </c>
-      <c r="Z237" t="s">
-        <v>1227</v>
       </c>
       <c r="AA237">
         <v>2</v>
@@ -35251,63 +35287,72 @@
         <v>233</v>
       </c>
       <c r="AO237" t="s">
-        <v>1164</v>
+        <v>1163</v>
+      </c>
+      <c r="AP237" t="s">
+        <v>1334</v>
       </c>
       <c r="AQ237" t="s">
         <v>164</v>
       </c>
+      <c r="AR237" t="s">
+        <v>915</v>
+      </c>
+      <c r="AS237" t="s">
+        <v>176</v>
+      </c>
       <c r="AU237" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="AV237" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW237" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX237" s="4" t="s">
-        <v>1238</v>
+        <v>1335</v>
       </c>
     </row>
-    <row r="238" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="E238" s="9">
         <v>2000</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>320</v>
+        <v>797</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="H238" s="9" t="s">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="I238" s="9" t="s">
-        <v>450</v>
+        <v>799</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="K238" s="9" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="L238" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M238" s="9" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="N238" s="9" t="s">
         <v>248</v>
@@ -35316,31 +35361,25 @@
         <v>249</v>
       </c>
       <c r="P238" s="9" t="s">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="Q238" s="9" t="s">
         <v>21</v>
       </c>
       <c r="S238" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="T238" t="s">
         <v>46</v>
       </c>
-      <c r="U238" t="s">
-        <v>49</v>
-      </c>
-      <c r="V238" t="s">
-        <v>41</v>
-      </c>
-      <c r="W238" t="s">
-        <v>214</v>
-      </c>
       <c r="X238" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>1225</v>
       </c>
       <c r="Z238" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="AA238">
         <v>2</v>
@@ -35351,59 +35390,41 @@
       <c r="AC238">
         <v>3</v>
       </c>
-      <c r="AD238" s="4" t="s">
-        <v>1246</v>
-      </c>
       <c r="AF238" s="9" t="s">
         <v>898</v>
       </c>
       <c r="AG238" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AH238" t="s">
         <v>120</v>
       </c>
-      <c r="AI238" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ238" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK238" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL238" t="s">
-        <v>1305</v>
-      </c>
       <c r="AM238" t="s">
         <v>233</v>
       </c>
       <c r="AO238" t="s">
-        <v>1340</v>
+        <v>1336</v>
+      </c>
+      <c r="AP238" t="s">
+        <v>1337</v>
       </c>
       <c r="AQ238" t="s">
         <v>164</v>
       </c>
-      <c r="AR238" t="s">
-        <v>915</v>
-      </c>
-      <c r="AS238" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU238" s="21" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AV238" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW238" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX238" s="21" t="s">
-        <v>1240</v>
+      <c r="AU238" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX238" s="4" t="s">
+        <v>1229</v>
       </c>
     </row>
-    <row r="239" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="s">
         <v>803</v>
       </c>
@@ -35471,10 +35492,10 @@
         <v>214</v>
       </c>
       <c r="X239" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="Z239" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="AA239">
         <v>2</v>
@@ -35486,7 +35507,7 @@
         <v>3</v>
       </c>
       <c r="AD239" s="4" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="AF239" s="9" t="s">
         <v>898</v>
@@ -35507,13 +35528,13 @@
         <v>150</v>
       </c>
       <c r="AL239" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="AM239" t="s">
         <v>233</v>
       </c>
       <c r="AO239" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="AQ239" t="s">
         <v>164</v>
@@ -35524,20 +35545,20 @@
       <c r="AS239" t="s">
         <v>176</v>
       </c>
-      <c r="AU239" s="21" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AV239" s="21" t="s">
+      <c r="AU239" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AV239" t="s">
         <v>213</v>
       </c>
-      <c r="AW239" s="21" t="s">
+      <c r="AW239" t="s">
         <v>208</v>
       </c>
-      <c r="AX239" s="21" t="s">
-        <v>1240</v>
+      <c r="AX239" t="s">
+        <v>1231</v>
       </c>
     </row>
-    <row r="240" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="s">
         <v>803</v>
       </c>
@@ -35605,10 +35626,10 @@
         <v>214</v>
       </c>
       <c r="X240" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="Z240" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="AA240">
         <v>2</v>
@@ -35620,7 +35641,7 @@
         <v>3</v>
       </c>
       <c r="AD240" s="4" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="AF240" s="9" t="s">
         <v>898</v>
@@ -35641,13 +35662,13 @@
         <v>150</v>
       </c>
       <c r="AL240" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="AM240" t="s">
         <v>233</v>
       </c>
       <c r="AO240" t="s">
-        <v>1242</v>
+        <v>1331</v>
       </c>
       <c r="AQ240" t="s">
         <v>164</v>
@@ -35658,20 +35679,20 @@
       <c r="AS240" t="s">
         <v>176</v>
       </c>
-      <c r="AU240" s="21" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AV240" s="21" t="s">
+      <c r="AU240" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AV240" t="s">
         <v>213</v>
       </c>
-      <c r="AW240" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX240" s="21" t="s">
-        <v>1243</v>
+      <c r="AW240" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX240" t="s">
+        <v>1231</v>
       </c>
     </row>
-    <row r="241" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="s">
         <v>803</v>
       </c>
@@ -35739,10 +35760,10 @@
         <v>214</v>
       </c>
       <c r="X241" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="Z241" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="AA241">
         <v>2</v>
@@ -35754,7 +35775,7 @@
         <v>3</v>
       </c>
       <c r="AD241" s="4" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="AF241" s="9" t="s">
         <v>898</v>
@@ -35775,13 +35796,13 @@
         <v>150</v>
       </c>
       <c r="AL241" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="AM241" t="s">
         <v>233</v>
       </c>
       <c r="AO241" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="AQ241" t="s">
         <v>164</v>
@@ -35792,20 +35813,20 @@
       <c r="AS241" t="s">
         <v>176</v>
       </c>
-      <c r="AU241" s="21" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AV241" s="21" t="s">
+      <c r="AU241" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AV241" t="s">
         <v>213</v>
       </c>
-      <c r="AW241" s="21" t="s">
+      <c r="AW241" t="s">
         <v>209</v>
       </c>
-      <c r="AX241" s="21" t="s">
-        <v>1243</v>
+      <c r="AX241" t="s">
+        <v>1234</v>
       </c>
     </row>
-    <row r="242" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="s">
         <v>803</v>
       </c>
@@ -35873,10 +35894,10 @@
         <v>214</v>
       </c>
       <c r="X242" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="Z242" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="AA242">
         <v>2</v>
@@ -35888,13 +35909,13 @@
         <v>3</v>
       </c>
       <c r="AD242" s="4" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="AF242" s="9" t="s">
         <v>898</v>
       </c>
       <c r="AG242" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH242" t="s">
         <v>120</v>
@@ -35909,13 +35930,13 @@
         <v>150</v>
       </c>
       <c r="AL242" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="AM242" t="s">
         <v>233</v>
       </c>
       <c r="AO242" t="s">
-        <v>1339</v>
+        <v>1233</v>
       </c>
       <c r="AQ242" t="s">
         <v>164</v>
@@ -35926,20 +35947,20 @@
       <c r="AS242" t="s">
         <v>176</v>
       </c>
-      <c r="AU242" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AV242" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW242" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX242" s="21" t="s">
-        <v>1245</v>
+      <c r="AU242" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AV242" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW242" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX242" t="s">
+        <v>1234</v>
       </c>
     </row>
-    <row r="243" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="s">
         <v>803</v>
       </c>
@@ -36007,10 +36028,10 @@
         <v>214</v>
       </c>
       <c r="X243" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="Z243" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="AA243">
         <v>2</v>
@@ -36022,7 +36043,7 @@
         <v>3</v>
       </c>
       <c r="AD243" s="4" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="AF243" s="9" t="s">
         <v>898</v>
@@ -36043,13 +36064,13 @@
         <v>150</v>
       </c>
       <c r="AL243" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="AM243" t="s">
         <v>233</v>
       </c>
       <c r="AO243" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="AQ243" t="s">
         <v>164</v>
@@ -36060,67 +36081,67 @@
       <c r="AS243" t="s">
         <v>176</v>
       </c>
-      <c r="AU243" s="21" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AV243" s="21" t="s">
+      <c r="AU243" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AV243" t="s">
         <v>237</v>
       </c>
-      <c r="AW243" s="21" t="s">
+      <c r="AW243" t="s">
         <v>208</v>
       </c>
-      <c r="AX243" s="21" t="s">
-        <v>1245</v>
+      <c r="AX243" t="s">
+        <v>1236</v>
       </c>
     </row>
-    <row r="244" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E244" s="9">
         <v>2000</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>813</v>
+        <v>450</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>814</v>
+        <v>702</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="L244" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M244" s="9" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="N244" s="9" t="s">
         <v>248</v>
       </c>
       <c r="O244" s="9" t="s">
-        <v>721</v>
+        <v>249</v>
       </c>
       <c r="P244" s="9" t="s">
-        <v>463</v>
+        <v>245</v>
       </c>
       <c r="Q244" s="9" t="s">
         <v>21</v>
@@ -36132,16 +36153,19 @@
         <v>46</v>
       </c>
       <c r="U244" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="V244" t="s">
+        <v>41</v>
       </c>
       <c r="W244" t="s">
         <v>214</v>
       </c>
       <c r="X244" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z244" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="AA244">
         <v>2</v>
@@ -36150,10 +36174,10 @@
         <v>2</v>
       </c>
       <c r="AC244">
-        <v>2</v>
-      </c>
-      <c r="AD244" t="s">
-        <v>1252</v>
+        <v>3</v>
+      </c>
+      <c r="AD244" s="4" t="s">
+        <v>1237</v>
       </c>
       <c r="AF244" s="9" t="s">
         <v>898</v>
@@ -36171,16 +36195,16 @@
         <v>113</v>
       </c>
       <c r="AK244" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL244" t="s">
-        <v>1248</v>
+        <v>1296</v>
       </c>
       <c r="AM244" t="s">
         <v>233</v>
       </c>
       <c r="AO244" t="s">
-        <v>1164</v>
+        <v>1330</v>
       </c>
       <c r="AQ244" t="s">
         <v>164</v>
@@ -36191,34 +36215,31 @@
       <c r="AS244" t="s">
         <v>176</v>
       </c>
-      <c r="AT244" t="s">
-        <v>1249</v>
-      </c>
       <c r="AU244" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="AV244" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="AW244" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX244" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="245" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E245" s="9">
         <v>2000</v>
@@ -36233,19 +36254,19 @@
         <v>386</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="K245" s="9" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="L245" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M245" s="9" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="N245" s="9" t="s">
         <v>248</v>
@@ -36254,33 +36275,105 @@
         <v>721</v>
       </c>
       <c r="P245" s="9" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="Q245" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R245" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE245" t="s">
-        <v>1253</v>
+      <c r="S245" t="s">
+        <v>24</v>
+      </c>
+      <c r="T245" t="s">
+        <v>46</v>
+      </c>
+      <c r="U245" t="s">
+        <v>52</v>
+      </c>
+      <c r="W245" t="s">
+        <v>214</v>
+      </c>
+      <c r="X245" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AA245">
+        <v>2</v>
+      </c>
+      <c r="AB245">
+        <v>2</v>
+      </c>
+      <c r="AC245">
+        <v>2</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>1243</v>
       </c>
       <c r="AF245" s="9" t="s">
         <v>898</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK245" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AM245" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO245" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AQ245" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR245" t="s">
+        <v>915</v>
+      </c>
+      <c r="AS245" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT245" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AU245" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AV245" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW245" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX245" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="246" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="E246" s="9">
         <v>2000</v>
@@ -36295,19 +36388,19 @@
         <v>386</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="K246" s="9" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="L246" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M246" s="9" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="N246" s="9" t="s">
         <v>248</v>
@@ -36316,13 +36409,16 @@
         <v>721</v>
       </c>
       <c r="P246" s="9" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="Q246" s="9" t="s">
         <v>21</v>
       </c>
       <c r="R246" t="s">
         <v>84</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>1244</v>
       </c>
       <c r="AF246" s="9" t="s">
         <v>898</v>
@@ -36330,49 +36426,49 @@
     </row>
     <row r="247" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E247" s="9">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>344</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="H247" s="9" t="s">
         <v>386</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="L247" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M247" s="9" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="N247" s="9" t="s">
         <v>248</v>
       </c>
       <c r="O247" s="9" t="s">
-        <v>249</v>
+        <v>721</v>
       </c>
       <c r="P247" s="9" t="s">
         <v>463</v>
@@ -36384,21 +36480,21 @@
         <v>84</v>
       </c>
       <c r="AF247" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="248" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="E248" s="9">
         <v>1997</v>
@@ -36410,28 +36506,28 @@
         <v>834</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>605</v>
+        <v>386</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="L248" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M248" s="9" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="N248" s="9" t="s">
         <v>248</v>
       </c>
       <c r="O248" s="9" t="s">
-        <v>721</v>
+        <v>249</v>
       </c>
       <c r="P248" s="9" t="s">
         <v>463</v>
@@ -36439,77 +36535,11 @@
       <c r="Q248" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S248" t="s">
-        <v>24</v>
-      </c>
-      <c r="T248" t="s">
-        <v>46</v>
-      </c>
-      <c r="U248" t="s">
-        <v>55</v>
-      </c>
-      <c r="V248" t="s">
-        <v>44</v>
-      </c>
-      <c r="W248" t="s">
-        <v>53</v>
-      </c>
-      <c r="X248" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z248" t="s">
-        <v>1254</v>
-      </c>
-      <c r="AA248">
-        <v>2</v>
-      </c>
-      <c r="AB248">
-        <v>2</v>
-      </c>
-      <c r="AC248">
-        <v>3</v>
-      </c>
-      <c r="AD248" t="s">
-        <v>1255</v>
+      <c r="R248" t="s">
+        <v>84</v>
       </c>
       <c r="AF248" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="AG248" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH248" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL248" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AM248" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO248" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AP248" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AQ248" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR248" t="s">
-        <v>915</v>
-      </c>
-      <c r="AU248" t="s">
-        <v>1258</v>
-      </c>
-      <c r="AV248" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW248" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX248" t="s">
-        <v>1259</v>
+        <v>899</v>
       </c>
     </row>
     <row r="249" spans="1:50" x14ac:dyDescent="0.35">
@@ -36583,7 +36613,7 @@
         <v>216</v>
       </c>
       <c r="Z249" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="AA249">
         <v>2</v>
@@ -36595,7 +36625,7 @@
         <v>3</v>
       </c>
       <c r="AD249" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="AF249" s="9" t="s">
         <v>903</v>
@@ -36607,25 +36637,25 @@
         <v>116</v>
       </c>
       <c r="AL249" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="AM249" t="s">
         <v>159</v>
       </c>
       <c r="AO249" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="AP249" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="AQ249" t="s">
         <v>164</v>
       </c>
       <c r="AR249" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AU249" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="AV249" t="s">
         <v>212</v>
@@ -36634,54 +36664,54 @@
         <v>207</v>
       </c>
       <c r="AX249" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="250" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E250" s="9">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>344</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>450</v>
+        <v>834</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>263</v>
+        <v>605</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="L250" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M250" s="9" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="N250" s="9" t="s">
         <v>248</v>
       </c>
       <c r="O250" s="9" t="s">
-        <v>249</v>
+        <v>721</v>
       </c>
       <c r="P250" s="9" t="s">
         <v>463</v>
@@ -36696,19 +36726,19 @@
         <v>46</v>
       </c>
       <c r="U250" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V250" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W250" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="X250" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z250" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="AA250">
         <v>2</v>
@@ -36720,52 +36750,46 @@
         <v>3</v>
       </c>
       <c r="AD250" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="AF250" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AG250" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH250" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL250" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="AM250" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN250" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AO250" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="AP250" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="AQ250" t="s">
         <v>164</v>
       </c>
       <c r="AR250" t="s">
-        <v>915</v>
-      </c>
-      <c r="AS250" t="s">
-        <v>176</v>
+        <v>916</v>
       </c>
       <c r="AU250" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="AV250" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AW250" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX250" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="251" spans="1:50" x14ac:dyDescent="0.35">
@@ -36833,13 +36857,13 @@
         <v>41</v>
       </c>
       <c r="W251" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X251" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z251" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="AA251">
         <v>2</v>
@@ -36851,7 +36875,7 @@
         <v>3</v>
       </c>
       <c r="AD251" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="AF251" s="9" t="s">
         <v>904</v>
@@ -36863,7 +36887,7 @@
         <v>117</v>
       </c>
       <c r="AL251" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="AM251" t="s">
         <v>232</v>
@@ -36872,10 +36896,10 @@
         <v>161</v>
       </c>
       <c r="AO251" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="AP251" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="AQ251" t="s">
         <v>164</v>
@@ -36887,7 +36911,7 @@
         <v>176</v>
       </c>
       <c r="AU251" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="AV251" t="s">
         <v>199</v>
@@ -36896,7 +36920,7 @@
         <v>208</v>
       </c>
       <c r="AX251" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="252" spans="1:50" x14ac:dyDescent="0.35">
@@ -36964,13 +36988,13 @@
         <v>41</v>
       </c>
       <c r="W252" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X252" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z252" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="AA252">
         <v>2</v>
@@ -36982,7 +37006,7 @@
         <v>3</v>
       </c>
       <c r="AD252" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="AF252" s="9" t="s">
         <v>904</v>
@@ -36991,10 +37015,10 @@
         <v>109</v>
       </c>
       <c r="AH252" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AL252" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="AM252" t="s">
         <v>232</v>
@@ -37003,10 +37027,10 @@
         <v>161</v>
       </c>
       <c r="AO252" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="AP252" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="AQ252" t="s">
         <v>164</v>
@@ -37018,7 +37042,7 @@
         <v>176</v>
       </c>
       <c r="AU252" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="AV252" t="s">
         <v>199</v>
@@ -37027,7 +37051,7 @@
         <v>208</v>
       </c>
       <c r="AX252" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="253" spans="1:50" x14ac:dyDescent="0.35">
@@ -37095,13 +37119,13 @@
         <v>41</v>
       </c>
       <c r="W253" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X253" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z253" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="AA253">
         <v>2</v>
@@ -37113,7 +37137,7 @@
         <v>3</v>
       </c>
       <c r="AD253" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="AF253" s="9" t="s">
         <v>904</v>
@@ -37125,7 +37149,7 @@
         <v>220</v>
       </c>
       <c r="AL253" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="AM253" t="s">
         <v>232</v>
@@ -37134,10 +37158,10 @@
         <v>161</v>
       </c>
       <c r="AO253" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="AP253" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="AQ253" t="s">
         <v>164</v>
@@ -37149,7 +37173,7 @@
         <v>176</v>
       </c>
       <c r="AU253" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="AV253" t="s">
         <v>199</v>
@@ -37158,48 +37182,48 @@
         <v>208</v>
       </c>
       <c r="AX253" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="254" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A254" s="9" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="E254" s="9">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>856</v>
+        <v>344</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="H254" s="9" t="s">
-        <v>605</v>
+        <v>263</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="K254" s="9" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="L254" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M254" s="9" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="N254" s="9" t="s">
         <v>248</v>
@@ -37208,60 +37232,129 @@
         <v>249</v>
       </c>
       <c r="P254" s="9" t="s">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="Q254" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R254" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE254" t="s">
-        <v>1265</v>
+      <c r="S254" t="s">
+        <v>24</v>
+      </c>
+      <c r="T254" t="s">
+        <v>46</v>
+      </c>
+      <c r="U254" t="s">
+        <v>59</v>
+      </c>
+      <c r="V254" t="s">
+        <v>41</v>
+      </c>
+      <c r="W254" t="s">
+        <v>55</v>
+      </c>
+      <c r="X254" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AA254">
+        <v>2</v>
+      </c>
+      <c r="AB254">
+        <v>2</v>
+      </c>
+      <c r="AC254">
+        <v>3</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>1252</v>
       </c>
       <c r="AF254" s="9" t="s">
-        <v>898</v>
+        <v>904</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH254" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AM254" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN254" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO254" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AP254" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AQ254" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR254" t="s">
+        <v>915</v>
+      </c>
+      <c r="AS254" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU254" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AV254" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW254" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX254" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="255" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A255" s="9" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="E255" s="9">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="G255" s="9" t="s">
-        <v>865</v>
+        <v>262</v>
       </c>
       <c r="H255" s="9" t="s">
         <v>605</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="J255" s="9" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="K255" s="9" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="L255" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M255" s="9" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="N255" s="9" t="s">
         <v>248</v>
@@ -37270,7 +37363,7 @@
         <v>249</v>
       </c>
       <c r="P255" s="9" t="s">
-        <v>463</v>
+        <v>245</v>
       </c>
       <c r="Q255" s="9" t="s">
         <v>21</v>
@@ -37279,7 +37372,7 @@
         <v>84</v>
       </c>
       <c r="AE255" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="AF255" s="9" t="s">
         <v>898</v>
@@ -37287,41 +37380,43 @@
     </row>
     <row r="256" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="E256" s="9">
-        <v>2021</v>
+        <v>1982</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="H256" s="9"/>
+        <v>865</v>
+      </c>
+      <c r="H256" s="9" t="s">
+        <v>605</v>
+      </c>
       <c r="I256" s="9" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="J256" s="9" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="K256" s="9" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="L256" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M256" s="9" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="N256" s="9" t="s">
         <v>248</v>
@@ -37329,96 +37424,20 @@
       <c r="O256" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="P256" s="9"/>
+      <c r="P256" s="9" t="s">
+        <v>463</v>
+      </c>
       <c r="Q256" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S256" t="s">
-        <v>24</v>
-      </c>
-      <c r="T256" t="s">
-        <v>46</v>
-      </c>
-      <c r="U256" t="s">
-        <v>59</v>
-      </c>
-      <c r="V256" t="s">
-        <v>46</v>
-      </c>
-      <c r="W256" t="s">
-        <v>55</v>
-      </c>
-      <c r="X256" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z256" t="s">
-        <v>1273</v>
-      </c>
-      <c r="AA256">
-        <v>2</v>
-      </c>
-      <c r="AB256">
-        <v>2</v>
-      </c>
-      <c r="AC256">
-        <v>2</v>
-      </c>
-      <c r="AD256" t="s">
-        <v>1278</v>
+        <v>21</v>
+      </c>
+      <c r="R256" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>1257</v>
       </c>
       <c r="AF256" s="9" t="s">
         <v>898</v>
-      </c>
-      <c r="AG256" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH256" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI256" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ256" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK256" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL256" t="s">
-        <v>1309</v>
-      </c>
-      <c r="AM256" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO256" t="s">
-        <v>1274</v>
-      </c>
-      <c r="AP256" t="s">
-        <v>1275</v>
-      </c>
-      <c r="AQ256" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR256" t="s">
-        <v>915</v>
-      </c>
-      <c r="AS256" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT256" t="s">
-        <v>1276</v>
-      </c>
-      <c r="AU256" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AV256" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW256" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX256" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="257" spans="1:50" x14ac:dyDescent="0.35">
@@ -37470,7 +37489,7 @@
         <v>22</v>
       </c>
       <c r="S257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T257" t="s">
         <v>46</v>
@@ -37488,7 +37507,7 @@
         <v>72</v>
       </c>
       <c r="Z257" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA257">
         <v>2</v>
@@ -37500,7 +37519,7 @@
         <v>2</v>
       </c>
       <c r="AD257" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF257" s="9" t="s">
         <v>898</v>
@@ -37521,16 +37540,16 @@
         <v>134</v>
       </c>
       <c r="AL257" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM257" t="s">
         <v>233</v>
       </c>
       <c r="AO257" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP257" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ257" t="s">
         <v>164</v>
@@ -37542,10 +37561,10 @@
         <v>175</v>
       </c>
       <c r="AT257" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU257" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV257" t="s">
         <v>199</v>
@@ -37554,7 +37573,7 @@
         <v>208</v>
       </c>
       <c r="AX257" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="258" spans="1:50" x14ac:dyDescent="0.35">
@@ -37606,7 +37625,7 @@
         <v>22</v>
       </c>
       <c r="S258" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T258" t="s">
         <v>46</v>
@@ -37621,10 +37640,10 @@
         <v>55</v>
       </c>
       <c r="X258" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Z258" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA258">
         <v>2</v>
@@ -37636,7 +37655,7 @@
         <v>2</v>
       </c>
       <c r="AD258" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF258" s="9" t="s">
         <v>898</v>
@@ -37657,16 +37676,16 @@
         <v>134</v>
       </c>
       <c r="AL258" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM258" t="s">
         <v>233</v>
       </c>
       <c r="AO258" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP258" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ258" t="s">
         <v>164</v>
@@ -37678,10 +37697,10 @@
         <v>175</v>
       </c>
       <c r="AT258" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU258" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV258" t="s">
         <v>199</v>
@@ -37690,7 +37709,7 @@
         <v>208</v>
       </c>
       <c r="AX258" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="259" spans="1:50" x14ac:dyDescent="0.35">
@@ -37742,7 +37761,7 @@
         <v>22</v>
       </c>
       <c r="S259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T259" t="s">
         <v>46</v>
@@ -37760,7 +37779,7 @@
         <v>216</v>
       </c>
       <c r="Z259" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA259">
         <v>2</v>
@@ -37772,7 +37791,7 @@
         <v>2</v>
       </c>
       <c r="AD259" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF259" s="9" t="s">
         <v>898</v>
@@ -37793,16 +37812,16 @@
         <v>134</v>
       </c>
       <c r="AL259" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM259" t="s">
         <v>233</v>
       </c>
       <c r="AO259" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP259" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ259" t="s">
         <v>164</v>
@@ -37814,10 +37833,10 @@
         <v>175</v>
       </c>
       <c r="AT259" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU259" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV259" t="s">
         <v>199</v>
@@ -37826,7 +37845,7 @@
         <v>208</v>
       </c>
       <c r="AX259" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="260" spans="1:50" x14ac:dyDescent="0.35">
@@ -37878,28 +37897,25 @@
         <v>22</v>
       </c>
       <c r="S260" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T260" t="s">
         <v>46</v>
       </c>
       <c r="U260" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V260" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W260" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X260" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y260" t="s">
-        <v>1174</v>
+        <v>216</v>
       </c>
       <c r="Z260" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA260">
         <v>2</v>
@@ -37911,7 +37927,7 @@
         <v>2</v>
       </c>
       <c r="AD260" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF260" s="9" t="s">
         <v>898</v>
@@ -37932,16 +37948,16 @@
         <v>134</v>
       </c>
       <c r="AL260" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM260" t="s">
         <v>233</v>
       </c>
       <c r="AO260" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP260" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ260" t="s">
         <v>164</v>
@@ -37953,10 +37969,10 @@
         <v>175</v>
       </c>
       <c r="AT260" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU260" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV260" t="s">
         <v>199</v>
@@ -37965,7 +37981,7 @@
         <v>208</v>
       </c>
       <c r="AX260" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="261" spans="1:50" x14ac:dyDescent="0.35">
@@ -38017,7 +38033,7 @@
         <v>22</v>
       </c>
       <c r="S261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T261" t="s">
         <v>46</v>
@@ -38035,10 +38051,10 @@
         <v>113</v>
       </c>
       <c r="Y261" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Z261" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA261">
         <v>2</v>
@@ -38050,7 +38066,7 @@
         <v>2</v>
       </c>
       <c r="AD261" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF261" s="9" t="s">
         <v>898</v>
@@ -38071,16 +38087,16 @@
         <v>134</v>
       </c>
       <c r="AL261" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM261" t="s">
         <v>233</v>
       </c>
       <c r="AO261" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP261" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ261" t="s">
         <v>164</v>
@@ -38092,10 +38108,10 @@
         <v>175</v>
       </c>
       <c r="AT261" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU261" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV261" t="s">
         <v>199</v>
@@ -38104,7 +38120,7 @@
         <v>208</v>
       </c>
       <c r="AX261" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="262" spans="1:50" x14ac:dyDescent="0.35">
@@ -38156,25 +38172,28 @@
         <v>22</v>
       </c>
       <c r="S262" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T262" t="s">
         <v>46</v>
       </c>
       <c r="U262" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V262" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W262" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X262" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>1173</v>
       </c>
       <c r="Z262" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA262">
         <v>2</v>
@@ -38186,7 +38205,7 @@
         <v>2</v>
       </c>
       <c r="AD262" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF262" s="9" t="s">
         <v>898</v>
@@ -38207,16 +38226,16 @@
         <v>134</v>
       </c>
       <c r="AL262" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM262" t="s">
         <v>233</v>
       </c>
       <c r="AO262" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP262" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ262" t="s">
         <v>164</v>
@@ -38228,10 +38247,10 @@
         <v>175</v>
       </c>
       <c r="AT262" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU262" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV262" t="s">
         <v>199</v>
@@ -38240,7 +38259,7 @@
         <v>208</v>
       </c>
       <c r="AX262" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="263" spans="1:50" x14ac:dyDescent="0.35">
@@ -38292,7 +38311,7 @@
         <v>22</v>
       </c>
       <c r="S263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T263" t="s">
         <v>46</v>
@@ -38310,7 +38329,7 @@
         <v>69</v>
       </c>
       <c r="Z263" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA263">
         <v>2</v>
@@ -38322,7 +38341,7 @@
         <v>2</v>
       </c>
       <c r="AD263" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF263" s="9" t="s">
         <v>898</v>
@@ -38343,16 +38362,16 @@
         <v>134</v>
       </c>
       <c r="AL263" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM263" t="s">
         <v>233</v>
       </c>
       <c r="AO263" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP263" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ263" t="s">
         <v>164</v>
@@ -38364,10 +38383,10 @@
         <v>175</v>
       </c>
       <c r="AT263" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU263" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV263" t="s">
         <v>199</v>
@@ -38376,7 +38395,7 @@
         <v>208</v>
       </c>
       <c r="AX263" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="264" spans="1:50" x14ac:dyDescent="0.35">
@@ -38428,25 +38447,25 @@
         <v>22</v>
       </c>
       <c r="S264" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T264" t="s">
         <v>46</v>
       </c>
       <c r="U264" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V264" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W264" t="s">
         <v>55</v>
       </c>
       <c r="X264" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z264" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA264">
         <v>2</v>
@@ -38458,7 +38477,7 @@
         <v>2</v>
       </c>
       <c r="AD264" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF264" s="9" t="s">
         <v>898</v>
@@ -38476,19 +38495,19 @@
         <v>157</v>
       </c>
       <c r="AK264" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AL264" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM264" t="s">
         <v>233</v>
       </c>
       <c r="AO264" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP264" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ264" t="s">
         <v>164</v>
@@ -38500,10 +38519,10 @@
         <v>175</v>
       </c>
       <c r="AT264" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU264" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV264" t="s">
         <v>199</v>
@@ -38512,7 +38531,7 @@
         <v>208</v>
       </c>
       <c r="AX264" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="265" spans="1:50" x14ac:dyDescent="0.35">
@@ -38564,7 +38583,7 @@
         <v>22</v>
       </c>
       <c r="S265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T265" t="s">
         <v>46</v>
@@ -38582,7 +38601,7 @@
         <v>72</v>
       </c>
       <c r="Z265" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA265">
         <v>2</v>
@@ -38594,7 +38613,7 @@
         <v>2</v>
       </c>
       <c r="AD265" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF265" s="9" t="s">
         <v>898</v>
@@ -38615,16 +38634,16 @@
         <v>141</v>
       </c>
       <c r="AL265" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM265" t="s">
         <v>233</v>
       </c>
       <c r="AO265" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP265" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ265" t="s">
         <v>164</v>
@@ -38636,10 +38655,10 @@
         <v>175</v>
       </c>
       <c r="AT265" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU265" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV265" t="s">
         <v>199</v>
@@ -38648,7 +38667,7 @@
         <v>208</v>
       </c>
       <c r="AX265" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="266" spans="1:50" x14ac:dyDescent="0.35">
@@ -38700,7 +38719,7 @@
         <v>22</v>
       </c>
       <c r="S266" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T266" t="s">
         <v>46</v>
@@ -38715,10 +38734,10 @@
         <v>55</v>
       </c>
       <c r="X266" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Z266" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA266">
         <v>2</v>
@@ -38730,7 +38749,7 @@
         <v>2</v>
       </c>
       <c r="AD266" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF266" s="9" t="s">
         <v>898</v>
@@ -38751,16 +38770,16 @@
         <v>141</v>
       </c>
       <c r="AL266" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM266" t="s">
         <v>233</v>
       </c>
       <c r="AO266" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP266" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ266" t="s">
         <v>164</v>
@@ -38772,10 +38791,10 @@
         <v>175</v>
       </c>
       <c r="AT266" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU266" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV266" t="s">
         <v>199</v>
@@ -38784,7 +38803,7 @@
         <v>208</v>
       </c>
       <c r="AX266" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="267" spans="1:50" x14ac:dyDescent="0.35">
@@ -38836,7 +38855,7 @@
         <v>22</v>
       </c>
       <c r="S267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T267" t="s">
         <v>46</v>
@@ -38854,7 +38873,7 @@
         <v>216</v>
       </c>
       <c r="Z267" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA267">
         <v>2</v>
@@ -38866,7 +38885,7 @@
         <v>2</v>
       </c>
       <c r="AD267" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF267" s="9" t="s">
         <v>898</v>
@@ -38887,16 +38906,16 @@
         <v>141</v>
       </c>
       <c r="AL267" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM267" t="s">
         <v>233</v>
       </c>
       <c r="AO267" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP267" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ267" t="s">
         <v>164</v>
@@ -38908,10 +38927,10 @@
         <v>175</v>
       </c>
       <c r="AT267" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU267" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV267" t="s">
         <v>199</v>
@@ -38920,7 +38939,7 @@
         <v>208</v>
       </c>
       <c r="AX267" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="268" spans="1:50" x14ac:dyDescent="0.35">
@@ -38972,28 +38991,25 @@
         <v>22</v>
       </c>
       <c r="S268" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T268" t="s">
         <v>46</v>
       </c>
       <c r="U268" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V268" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W268" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X268" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y268" t="s">
-        <v>1174</v>
+        <v>216</v>
       </c>
       <c r="Z268" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA268">
         <v>2</v>
@@ -39005,7 +39021,7 @@
         <v>2</v>
       </c>
       <c r="AD268" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF268" s="9" t="s">
         <v>898</v>
@@ -39026,16 +39042,16 @@
         <v>141</v>
       </c>
       <c r="AL268" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM268" t="s">
         <v>233</v>
       </c>
       <c r="AO268" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP268" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ268" t="s">
         <v>164</v>
@@ -39047,10 +39063,10 @@
         <v>175</v>
       </c>
       <c r="AT268" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU268" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV268" t="s">
         <v>199</v>
@@ -39059,7 +39075,7 @@
         <v>208</v>
       </c>
       <c r="AX268" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="269" spans="1:50" x14ac:dyDescent="0.35">
@@ -39111,7 +39127,7 @@
         <v>22</v>
       </c>
       <c r="S269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T269" t="s">
         <v>46</v>
@@ -39129,10 +39145,10 @@
         <v>113</v>
       </c>
       <c r="Y269" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Z269" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA269">
         <v>2</v>
@@ -39144,7 +39160,7 @@
         <v>2</v>
       </c>
       <c r="AD269" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF269" s="9" t="s">
         <v>898</v>
@@ -39165,16 +39181,16 @@
         <v>141</v>
       </c>
       <c r="AL269" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM269" t="s">
         <v>233</v>
       </c>
       <c r="AO269" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP269" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ269" t="s">
         <v>164</v>
@@ -39186,10 +39202,10 @@
         <v>175</v>
       </c>
       <c r="AT269" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU269" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV269" t="s">
         <v>199</v>
@@ -39198,7 +39214,7 @@
         <v>208</v>
       </c>
       <c r="AX269" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="270" spans="1:50" x14ac:dyDescent="0.35">
@@ -39250,25 +39266,28 @@
         <v>22</v>
       </c>
       <c r="S270" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T270" t="s">
         <v>46</v>
       </c>
       <c r="U270" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V270" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W270" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X270" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>1173</v>
       </c>
       <c r="Z270" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA270">
         <v>2</v>
@@ -39280,7 +39299,7 @@
         <v>2</v>
       </c>
       <c r="AD270" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF270" s="9" t="s">
         <v>898</v>
@@ -39301,16 +39320,16 @@
         <v>141</v>
       </c>
       <c r="AL270" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM270" t="s">
         <v>233</v>
       </c>
       <c r="AO270" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP270" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ270" t="s">
         <v>164</v>
@@ -39322,10 +39341,10 @@
         <v>175</v>
       </c>
       <c r="AT270" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU270" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV270" t="s">
         <v>199</v>
@@ -39334,7 +39353,7 @@
         <v>208</v>
       </c>
       <c r="AX270" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="271" spans="1:50" x14ac:dyDescent="0.35">
@@ -39386,7 +39405,7 @@
         <v>22</v>
       </c>
       <c r="S271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T271" t="s">
         <v>46</v>
@@ -39404,7 +39423,7 @@
         <v>69</v>
       </c>
       <c r="Z271" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA271">
         <v>2</v>
@@ -39416,7 +39435,7 @@
         <v>2</v>
       </c>
       <c r="AD271" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF271" s="9" t="s">
         <v>898</v>
@@ -39437,16 +39456,16 @@
         <v>141</v>
       </c>
       <c r="AL271" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="AM271" t="s">
         <v>233</v>
       </c>
       <c r="AO271" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP271" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ271" t="s">
         <v>164</v>
@@ -39458,10 +39477,10 @@
         <v>175</v>
       </c>
       <c r="AT271" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU271" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="AV271" t="s">
         <v>199</v>
@@ -39470,7 +39489,7 @@
         <v>208</v>
       </c>
       <c r="AX271" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="272" spans="1:50" x14ac:dyDescent="0.35">
@@ -39522,25 +39541,25 @@
         <v>22</v>
       </c>
       <c r="S272" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T272" t="s">
         <v>46</v>
       </c>
       <c r="U272" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V272" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W272" t="s">
         <v>55</v>
       </c>
       <c r="X272" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z272" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA272">
         <v>2</v>
@@ -39552,7 +39571,7 @@
         <v>2</v>
       </c>
       <c r="AD272" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF272" s="9" t="s">
         <v>898</v>
@@ -39570,19 +39589,19 @@
         <v>157</v>
       </c>
       <c r="AK272" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AL272" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="AM272" t="s">
         <v>233</v>
       </c>
       <c r="AO272" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP272" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ272" t="s">
         <v>164</v>
@@ -39594,19 +39613,22 @@
         <v>175</v>
       </c>
       <c r="AT272" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU272" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="AV272" t="s">
         <v>199</v>
       </c>
       <c r="AW272" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="AX272" t="s">
+        <v>1271</v>
       </c>
     </row>
-    <row r="273" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="s">
         <v>870</v>
       </c>
@@ -39655,7 +39677,7 @@
         <v>22</v>
       </c>
       <c r="S273" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T273" t="s">
         <v>46</v>
@@ -39673,7 +39695,7 @@
         <v>72</v>
       </c>
       <c r="Z273" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA273">
         <v>2</v>
@@ -39685,7 +39707,7 @@
         <v>2</v>
       </c>
       <c r="AD273" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF273" s="9" t="s">
         <v>898</v>
@@ -39706,16 +39728,16 @@
         <v>134</v>
       </c>
       <c r="AL273" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM273" t="s">
         <v>233</v>
       </c>
       <c r="AO273" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP273" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ273" t="s">
         <v>164</v>
@@ -39727,10 +39749,10 @@
         <v>175</v>
       </c>
       <c r="AT273" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU273" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV273" t="s">
         <v>199</v>
@@ -39739,7 +39761,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="274" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="s">
         <v>870</v>
       </c>
@@ -39788,7 +39810,7 @@
         <v>22</v>
       </c>
       <c r="S274" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T274" t="s">
         <v>46</v>
@@ -39803,10 +39825,10 @@
         <v>55</v>
       </c>
       <c r="X274" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Z274" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA274">
         <v>2</v>
@@ -39818,7 +39840,7 @@
         <v>2</v>
       </c>
       <c r="AD274" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF274" s="9" t="s">
         <v>898</v>
@@ -39839,16 +39861,16 @@
         <v>134</v>
       </c>
       <c r="AL274" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM274" t="s">
         <v>233</v>
       </c>
       <c r="AO274" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP274" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ274" t="s">
         <v>164</v>
@@ -39860,10 +39882,10 @@
         <v>175</v>
       </c>
       <c r="AT274" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU274" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV274" t="s">
         <v>199</v>
@@ -39872,7 +39894,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="275" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="s">
         <v>870</v>
       </c>
@@ -39921,7 +39943,7 @@
         <v>22</v>
       </c>
       <c r="S275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T275" t="s">
         <v>46</v>
@@ -39939,7 +39961,7 @@
         <v>216</v>
       </c>
       <c r="Z275" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA275">
         <v>2</v>
@@ -39951,7 +39973,7 @@
         <v>2</v>
       </c>
       <c r="AD275" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF275" s="9" t="s">
         <v>898</v>
@@ -39972,16 +39994,16 @@
         <v>134</v>
       </c>
       <c r="AL275" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM275" t="s">
         <v>233</v>
       </c>
       <c r="AO275" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP275" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ275" t="s">
         <v>164</v>
@@ -39993,10 +40015,10 @@
         <v>175</v>
       </c>
       <c r="AT275" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU275" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV275" t="s">
         <v>199</v>
@@ -40005,7 +40027,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="276" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="s">
         <v>870</v>
       </c>
@@ -40054,28 +40076,25 @@
         <v>22</v>
       </c>
       <c r="S276" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T276" t="s">
         <v>46</v>
       </c>
       <c r="U276" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V276" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W276" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X276" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y276" t="s">
-        <v>1174</v>
+        <v>216</v>
       </c>
       <c r="Z276" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA276">
         <v>2</v>
@@ -40087,7 +40106,7 @@
         <v>2</v>
       </c>
       <c r="AD276" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF276" s="9" t="s">
         <v>898</v>
@@ -40108,16 +40127,16 @@
         <v>134</v>
       </c>
       <c r="AL276" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM276" t="s">
         <v>233</v>
       </c>
       <c r="AO276" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP276" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ276" t="s">
         <v>164</v>
@@ -40129,10 +40148,10 @@
         <v>175</v>
       </c>
       <c r="AT276" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU276" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV276" t="s">
         <v>199</v>
@@ -40141,7 +40160,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="277" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="s">
         <v>870</v>
       </c>
@@ -40190,7 +40209,7 @@
         <v>22</v>
       </c>
       <c r="S277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T277" t="s">
         <v>46</v>
@@ -40208,10 +40227,10 @@
         <v>113</v>
       </c>
       <c r="Y277" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Z277" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA277">
         <v>2</v>
@@ -40223,7 +40242,7 @@
         <v>2</v>
       </c>
       <c r="AD277" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF277" s="9" t="s">
         <v>898</v>
@@ -40244,16 +40263,16 @@
         <v>134</v>
       </c>
       <c r="AL277" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM277" t="s">
         <v>233</v>
       </c>
       <c r="AO277" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP277" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ277" t="s">
         <v>164</v>
@@ -40265,10 +40284,10 @@
         <v>175</v>
       </c>
       <c r="AT277" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU277" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV277" t="s">
         <v>199</v>
@@ -40277,7 +40296,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="278" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="s">
         <v>870</v>
       </c>
@@ -40326,25 +40345,28 @@
         <v>22</v>
       </c>
       <c r="S278" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T278" t="s">
         <v>46</v>
       </c>
       <c r="U278" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V278" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W278" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X278" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>1173</v>
       </c>
       <c r="Z278" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA278">
         <v>2</v>
@@ -40356,7 +40378,7 @@
         <v>2</v>
       </c>
       <c r="AD278" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF278" s="9" t="s">
         <v>898</v>
@@ -40377,16 +40399,16 @@
         <v>134</v>
       </c>
       <c r="AL278" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM278" t="s">
         <v>233</v>
       </c>
       <c r="AO278" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP278" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ278" t="s">
         <v>164</v>
@@ -40398,10 +40420,10 @@
         <v>175</v>
       </c>
       <c r="AT278" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU278" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV278" t="s">
         <v>199</v>
@@ -40410,7 +40432,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="s">
         <v>870</v>
       </c>
@@ -40459,7 +40481,7 @@
         <v>22</v>
       </c>
       <c r="S279" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T279" t="s">
         <v>46</v>
@@ -40477,7 +40499,7 @@
         <v>69</v>
       </c>
       <c r="Z279" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA279">
         <v>2</v>
@@ -40489,7 +40511,7 @@
         <v>2</v>
       </c>
       <c r="AD279" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF279" s="9" t="s">
         <v>898</v>
@@ -40510,16 +40532,16 @@
         <v>134</v>
       </c>
       <c r="AL279" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM279" t="s">
         <v>233</v>
       </c>
       <c r="AO279" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP279" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ279" t="s">
         <v>164</v>
@@ -40531,10 +40553,10 @@
         <v>175</v>
       </c>
       <c r="AT279" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU279" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV279" t="s">
         <v>199</v>
@@ -40543,7 +40565,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="280" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
         <v>870</v>
       </c>
@@ -40592,25 +40614,25 @@
         <v>22</v>
       </c>
       <c r="S280" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T280" t="s">
         <v>46</v>
       </c>
       <c r="U280" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V280" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W280" t="s">
         <v>55</v>
       </c>
       <c r="X280" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z280" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA280">
         <v>2</v>
@@ -40622,7 +40644,7 @@
         <v>2</v>
       </c>
       <c r="AD280" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF280" s="9" t="s">
         <v>898</v>
@@ -40640,19 +40662,19 @@
         <v>157</v>
       </c>
       <c r="AK280" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AL280" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM280" t="s">
         <v>233</v>
       </c>
       <c r="AO280" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP280" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ280" t="s">
         <v>164</v>
@@ -40664,10 +40686,10 @@
         <v>175</v>
       </c>
       <c r="AT280" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU280" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV280" t="s">
         <v>199</v>
@@ -40676,7 +40698,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="281" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
         <v>870</v>
       </c>
@@ -40725,7 +40747,7 @@
         <v>22</v>
       </c>
       <c r="S281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T281" t="s">
         <v>46</v>
@@ -40743,7 +40765,7 @@
         <v>72</v>
       </c>
       <c r="Z281" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA281">
         <v>2</v>
@@ -40755,7 +40777,7 @@
         <v>2</v>
       </c>
       <c r="AD281" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF281" s="9" t="s">
         <v>898</v>
@@ -40776,16 +40798,16 @@
         <v>141</v>
       </c>
       <c r="AL281" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM281" t="s">
         <v>233</v>
       </c>
       <c r="AO281" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP281" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ281" t="s">
         <v>164</v>
@@ -40797,10 +40819,10 @@
         <v>175</v>
       </c>
       <c r="AT281" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU281" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV281" t="s">
         <v>199</v>
@@ -40809,7 +40831,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="282" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="s">
         <v>870</v>
       </c>
@@ -40858,7 +40880,7 @@
         <v>22</v>
       </c>
       <c r="S282" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T282" t="s">
         <v>46</v>
@@ -40873,10 +40895,10 @@
         <v>55</v>
       </c>
       <c r="X282" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Z282" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA282">
         <v>2</v>
@@ -40888,7 +40910,7 @@
         <v>2</v>
       </c>
       <c r="AD282" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF282" s="9" t="s">
         <v>898</v>
@@ -40909,16 +40931,16 @@
         <v>141</v>
       </c>
       <c r="AL282" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM282" t="s">
         <v>233</v>
       </c>
       <c r="AO282" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP282" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ282" t="s">
         <v>164</v>
@@ -40930,10 +40952,10 @@
         <v>175</v>
       </c>
       <c r="AT282" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU282" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV282" t="s">
         <v>199</v>
@@ -40942,7 +40964,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="s">
         <v>870</v>
       </c>
@@ -40991,7 +41013,7 @@
         <v>22</v>
       </c>
       <c r="S283" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T283" t="s">
         <v>46</v>
@@ -41009,7 +41031,7 @@
         <v>216</v>
       </c>
       <c r="Z283" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA283">
         <v>2</v>
@@ -41021,7 +41043,7 @@
         <v>2</v>
       </c>
       <c r="AD283" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF283" s="9" t="s">
         <v>898</v>
@@ -41042,16 +41064,16 @@
         <v>141</v>
       </c>
       <c r="AL283" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM283" t="s">
         <v>233</v>
       </c>
       <c r="AO283" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP283" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ283" t="s">
         <v>164</v>
@@ -41063,10 +41085,10 @@
         <v>175</v>
       </c>
       <c r="AT283" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU283" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV283" t="s">
         <v>199</v>
@@ -41075,7 +41097,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="284" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="s">
         <v>870</v>
       </c>
@@ -41124,28 +41146,25 @@
         <v>22</v>
       </c>
       <c r="S284" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T284" t="s">
         <v>46</v>
       </c>
       <c r="U284" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V284" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W284" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X284" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y284" t="s">
-        <v>1174</v>
+        <v>216</v>
       </c>
       <c r="Z284" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA284">
         <v>2</v>
@@ -41157,7 +41176,7 @@
         <v>2</v>
       </c>
       <c r="AD284" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF284" s="9" t="s">
         <v>898</v>
@@ -41178,16 +41197,16 @@
         <v>141</v>
       </c>
       <c r="AL284" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM284" t="s">
         <v>233</v>
       </c>
       <c r="AO284" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP284" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ284" t="s">
         <v>164</v>
@@ -41199,10 +41218,10 @@
         <v>175</v>
       </c>
       <c r="AT284" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU284" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV284" t="s">
         <v>199</v>
@@ -41211,7 +41230,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="285" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="s">
         <v>870</v>
       </c>
@@ -41260,7 +41279,7 @@
         <v>22</v>
       </c>
       <c r="S285" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T285" t="s">
         <v>46</v>
@@ -41278,10 +41297,10 @@
         <v>113</v>
       </c>
       <c r="Y285" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Z285" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA285">
         <v>2</v>
@@ -41293,7 +41312,7 @@
         <v>2</v>
       </c>
       <c r="AD285" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF285" s="9" t="s">
         <v>898</v>
@@ -41314,16 +41333,16 @@
         <v>141</v>
       </c>
       <c r="AL285" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM285" t="s">
         <v>233</v>
       </c>
       <c r="AO285" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP285" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ285" t="s">
         <v>164</v>
@@ -41335,10 +41354,10 @@
         <v>175</v>
       </c>
       <c r="AT285" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU285" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV285" t="s">
         <v>199</v>
@@ -41347,7 +41366,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="286" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
         <v>870</v>
       </c>
@@ -41396,25 +41415,28 @@
         <v>22</v>
       </c>
       <c r="S286" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T286" t="s">
         <v>46</v>
       </c>
       <c r="U286" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V286" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W286" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X286" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>1173</v>
       </c>
       <c r="Z286" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA286">
         <v>2</v>
@@ -41426,7 +41448,7 @@
         <v>2</v>
       </c>
       <c r="AD286" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF286" s="9" t="s">
         <v>898</v>
@@ -41447,16 +41469,16 @@
         <v>141</v>
       </c>
       <c r="AL286" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM286" t="s">
         <v>233</v>
       </c>
       <c r="AO286" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP286" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ286" t="s">
         <v>164</v>
@@ -41468,10 +41490,10 @@
         <v>175</v>
       </c>
       <c r="AT286" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU286" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV286" t="s">
         <v>199</v>
@@ -41480,7 +41502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="287" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="s">
         <v>870</v>
       </c>
@@ -41529,7 +41551,7 @@
         <v>22</v>
       </c>
       <c r="S287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T287" t="s">
         <v>46</v>
@@ -41547,7 +41569,7 @@
         <v>69</v>
       </c>
       <c r="Z287" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="AA287">
         <v>2</v>
@@ -41559,7 +41581,7 @@
         <v>2</v>
       </c>
       <c r="AD287" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="AF287" s="9" t="s">
         <v>898</v>
@@ -41580,16 +41602,16 @@
         <v>141</v>
       </c>
       <c r="AL287" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="AM287" t="s">
         <v>233</v>
       </c>
       <c r="AO287" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="AP287" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="AQ287" t="s">
         <v>164</v>
@@ -41601,10 +41623,10 @@
         <v>175</v>
       </c>
       <c r="AT287" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="AU287" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="AV287" t="s">
         <v>199</v>
@@ -41613,43 +41635,43 @@
         <v>210</v>
       </c>
     </row>
-    <row r="288" spans="1:50" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="B288" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="E288" s="9">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="H288" s="9"/>
       <c r="I288" s="9" t="s">
-        <v>395</v>
+        <v>875</v>
       </c>
       <c r="J288" s="9" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="K288" s="9" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="L288" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M288" s="9" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="N288" s="9" t="s">
         <v>248</v>
@@ -41657,32 +41679,30 @@
       <c r="O288" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="P288" s="9" t="s">
-        <v>887</v>
-      </c>
+      <c r="P288" s="9"/>
       <c r="Q288" s="9" t="s">
         <v>22</v>
       </c>
       <c r="S288" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T288" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U288" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="V288" t="s">
         <v>42</v>
       </c>
       <c r="W288" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X288" t="s">
         <v>69</v>
       </c>
       <c r="Z288" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="AA288">
         <v>2</v>
@@ -41693,44 +41713,50 @@
       <c r="AC288">
         <v>2</v>
       </c>
-      <c r="AD288" s="4" t="s">
-        <v>1271</v>
+      <c r="AD288" t="s">
+        <v>1269</v>
       </c>
       <c r="AF288" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AG288" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH288" t="s">
         <v>120</v>
       </c>
+      <c r="AI288" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ288" t="s">
+        <v>157</v>
+      </c>
       <c r="AK288" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="AL288" t="s">
+        <v>1301</v>
       </c>
       <c r="AM288" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN288" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO288" t="s">
-        <v>1325</v>
+        <v>1265</v>
       </c>
       <c r="AP288" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="AQ288" t="s">
         <v>164</v>
       </c>
       <c r="AR288" t="s">
-        <v>170</v>
+        <v>915</v>
       </c>
       <c r="AS288" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT288" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AU288" t="s">
         <v>1270</v>
@@ -41739,13 +41765,10 @@
         <v>199</v>
       </c>
       <c r="AW288" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX288" t="s">
-        <v>1326</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="289" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:50" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
         <v>879</v>
       </c>
@@ -41811,13 +41834,10 @@
         <v>48</v>
       </c>
       <c r="X289" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y289" t="s">
-        <v>1174</v>
+        <v>69</v>
       </c>
       <c r="Z289" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="AA289">
         <v>2</v>
@@ -41826,10 +41846,10 @@
         <v>2</v>
       </c>
       <c r="AC289">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD289" s="4" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="AF289" s="9" t="s">
         <v>899</v>
@@ -41847,13 +41867,13 @@
         <v>232</v>
       </c>
       <c r="AN289" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO289" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="AP289" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="AQ289" t="s">
         <v>164</v>
@@ -41865,10 +41885,10 @@
         <v>189</v>
       </c>
       <c r="AT289" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="AU289" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="AV289" t="s">
         <v>199</v>
@@ -41877,56 +41897,56 @@
         <v>207</v>
       </c>
       <c r="AX289" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
     </row>
-    <row r="290" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:50" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="B290" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="E290" s="9">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="H290" s="9" t="s">
-        <v>362</v>
-      </c>
+        <v>883</v>
+      </c>
+      <c r="H290" s="9"/>
       <c r="I290" s="9" t="s">
-        <v>893</v>
+        <v>395</v>
       </c>
       <c r="J290" s="9" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="K290" s="9" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="L290" s="9" t="s">
         <v>245</v>
       </c>
       <c r="M290" s="9" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="N290" s="9" t="s">
         <v>248</v>
       </c>
       <c r="O290" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="P290" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="P290" s="9" t="s">
+        <v>887</v>
+      </c>
       <c r="Q290" s="9" t="s">
         <v>22</v>
       </c>
@@ -41937,19 +41957,22 @@
         <v>41</v>
       </c>
       <c r="U290" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V290" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W290" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="X290" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>1173</v>
       </c>
       <c r="Z290" t="s">
-        <v>1281</v>
+        <v>1258</v>
       </c>
       <c r="AA290">
         <v>2</v>
@@ -41960,30 +41983,21 @@
       <c r="AC290">
         <v>3</v>
       </c>
-      <c r="AD290" t="s">
-        <v>1286</v>
+      <c r="AD290" s="4" t="s">
+        <v>1263</v>
       </c>
       <c r="AF290" s="9" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="AG290" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH290" t="s">
         <v>120</v>
       </c>
-      <c r="AI290" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ290" t="s">
-        <v>113</v>
-      </c>
       <c r="AK290" t="s">
         <v>150</v>
       </c>
-      <c r="AL290" t="s">
-        <v>1311</v>
-      </c>
       <c r="AM290" t="s">
         <v>232</v>
       </c>
@@ -41991,10 +42005,10 @@
         <v>160</v>
       </c>
       <c r="AO290" t="s">
-        <v>1123</v>
+        <v>1316</v>
       </c>
       <c r="AP290" t="s">
-        <v>1285</v>
+        <v>1259</v>
       </c>
       <c r="AQ290" t="s">
         <v>164</v>
@@ -42006,19 +42020,160 @@
         <v>189</v>
       </c>
       <c r="AT290" t="s">
-        <v>1284</v>
+        <v>1260</v>
       </c>
       <c r="AU290" t="s">
-        <v>1283</v>
+        <v>1261</v>
       </c>
       <c r="AV290" t="s">
         <v>199</v>
       </c>
       <c r="AW290" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX290" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="291" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A291" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="E291" s="9">
+        <v>2001</v>
+      </c>
+      <c r="F291" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="H291" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I291" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="J291" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="K291" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="L291" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="M291" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="N291" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="O291" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="P291" s="9"/>
+      <c r="Q291" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S291" t="s">
+        <v>31</v>
+      </c>
+      <c r="T291" t="s">
+        <v>41</v>
+      </c>
+      <c r="U291" t="s">
+        <v>56</v>
+      </c>
+      <c r="V291" t="s">
+        <v>44</v>
+      </c>
+      <c r="W291" t="s">
+        <v>54</v>
+      </c>
+      <c r="X291" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AA291">
+        <v>2</v>
+      </c>
+      <c r="AB291">
+        <v>2</v>
+      </c>
+      <c r="AC291">
+        <v>3</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AF291" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH291" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI291" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ291" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL291" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO291" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AP291" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AQ291" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR291" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS291" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT291" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AU291" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW291" t="s">
         <v>208</v>
       </c>
-      <c r="AX290" t="s">
-        <v>1282</v>
+      <c r="AX291" t="s">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -42039,7 +42194,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AR3:AS1048576 AI3:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -42053,13 +42208,13 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R1048576 AF105:AF132</xm:sqref>
+          <xm:sqref>AF105:AF132 R3:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD092EEC-9635-4A23-B39A-38C3C681ED3E}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AK210:AK1048576 AK3:AK207</xm:sqref>
+          <xm:sqref>AK3:AK207 AK210:AK1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29748323-CD5F-4931-861D-B58814ED75B7}">
           <x14:formula1>
@@ -44537,14 +44692,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
